--- a/BackTest/2019-10-25 BackTest FAB.xlsx
+++ b/BackTest/2019-10-25 BackTest FAB.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.1599999999999993</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-23.07692307692276</v>
+      </c>
       <c r="L12" t="n">
         <v>5.976999999999999</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.1599999999999993</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-23.07692307692276</v>
+      </c>
       <c r="L13" t="n">
         <v>5.973999999999998</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.25</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-88.88888888888911</v>
+      </c>
       <c r="L14" t="n">
         <v>5.961999999999998</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.25</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-100</v>
+      </c>
       <c r="L15" t="n">
         <v>5.945999999999997</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.3300000000000001</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-35.99999999999994</v>
+      </c>
       <c r="L16" t="n">
         <v>5.936999999999998</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.4199999999999999</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-52.94117647058817</v>
+      </c>
       <c r="L17" t="n">
         <v>5.918999999999999</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.4299999999999997</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-40.74074074074079</v>
+      </c>
       <c r="L18" t="n">
         <v>5.899999999999999</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.5099999999999998</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-8.57142857142863</v>
+      </c>
       <c r="L19" t="n">
         <v>5.896999999999998</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.5700000000000003</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-21.95121951219525</v>
+      </c>
       <c r="L20" t="n">
         <v>5.887999999999998</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.6300000000000008</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-6.382978723404288</v>
+      </c>
       <c r="L21" t="n">
         <v>5.884999999999998</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.6300000000000008</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-6.382978723404288</v>
+      </c>
       <c r="L22" t="n">
         <v>5.881999999999998</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.6300000000000008</v>
       </c>
       <c r="K23" t="n">
-        <v>-9.999999999999925</v>
+        <v>15.78947368421063</v>
       </c>
       <c r="L23" t="n">
         <v>5.878999999999998</v>
@@ -1466,7 +1488,7 @@
         <v>0.6300000000000008</v>
       </c>
       <c r="K24" t="n">
-        <v>-9.999999999999925</v>
+        <v>15.78947368421063</v>
       </c>
       <c r="L24" t="n">
         <v>5.884999999999997</v>
@@ -1515,7 +1537,7 @@
         <v>0.6300000000000008</v>
       </c>
       <c r="K25" t="n">
-        <v>-17.85714285714278</v>
+        <v>-6.666666666666508</v>
       </c>
       <c r="L25" t="n">
         <v>5.890999999999997</v>
@@ -1564,7 +1586,7 @@
         <v>0.6300000000000008</v>
       </c>
       <c r="K26" t="n">
-        <v>-19.99999999999987</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L26" t="n">
         <v>5.888999999999998</v>
@@ -1613,7 +1635,7 @@
         <v>0.6300000000000008</v>
       </c>
       <c r="K27" t="n">
-        <v>-19.99999999999987</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L27" t="n">
         <v>5.895999999999998</v>
@@ -1662,7 +1684,7 @@
         <v>0.6300000000000008</v>
       </c>
       <c r="K28" t="n">
-        <v>-19.99999999999987</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>5.903999999999998</v>
@@ -1711,7 +1733,7 @@
         <v>0.6300000000000008</v>
       </c>
       <c r="K29" t="n">
-        <v>-6.382978723404288</v>
+        <v>100</v>
       </c>
       <c r="L29" t="n">
         <v>5.903999999999998</v>
@@ -1759,9 +1781,7 @@
       <c r="J30" t="n">
         <v>0.6300000000000008</v>
       </c>
-      <c r="K30" t="n">
-        <v>-6.382978723404288</v>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>5.909999999999997</v>
       </c>
@@ -1808,9 +1828,7 @@
       <c r="J31" t="n">
         <v>0.6300000000000008</v>
       </c>
-      <c r="K31" t="n">
-        <v>-6.382978723404288</v>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>5.909999999999998</v>
       </c>
@@ -1860,7 +1878,7 @@
         <v>0.6900000000000013</v>
       </c>
       <c r="K32" t="n">
-        <v>-16.98113207547177</v>
+        <v>-100</v>
       </c>
       <c r="L32" t="n">
         <v>5.903999999999998</v>
@@ -1911,7 +1929,7 @@
         <v>0.7500000000000018</v>
       </c>
       <c r="K33" t="n">
-        <v>-5.084745762711885</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>5.903999999999998</v>
@@ -1962,7 +1980,7 @@
         <v>0.7500000000000018</v>
       </c>
       <c r="K34" t="n">
-        <v>12.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>5.903999999999998</v>
@@ -2013,7 +2031,7 @@
         <v>0.7500000000000018</v>
       </c>
       <c r="K35" t="n">
-        <v>12.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>5.903999999999998</v>
@@ -2064,7 +2082,7 @@
         <v>0.7500000000000018</v>
       </c>
       <c r="K36" t="n">
-        <v>-4.761904761904641</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>5.903999999999998</v>
@@ -2115,7 +2133,7 @@
         <v>0.7500000000000018</v>
       </c>
       <c r="K37" t="n">
-        <v>21.21212121212118</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>5.903999999999998</v>
@@ -2166,7 +2184,7 @@
         <v>0.7500000000000018</v>
       </c>
       <c r="K38" t="n">
-        <v>24.99999999999986</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>5.903999999999998</v>
@@ -2268,7 +2286,7 @@
         <v>0.8100000000000023</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L40" t="n">
         <v>5.897999999999998</v>
@@ -2319,7 +2337,7 @@
         <v>0.8700000000000028</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L41" t="n">
         <v>5.897999999999998</v>
@@ -2370,7 +2388,7 @@
         <v>0.9500000000000028</v>
       </c>
       <c r="K42" t="n">
-        <v>-24.99999999999986</v>
+        <v>-39.99999999999982</v>
       </c>
       <c r="L42" t="n">
         <v>5.895999999999997</v>
@@ -2421,7 +2439,7 @@
         <v>0.9500000000000028</v>
       </c>
       <c r="K43" t="n">
-        <v>-24.99999999999986</v>
+        <v>-39.99999999999982</v>
       </c>
       <c r="L43" t="n">
         <v>5.887999999999998</v>
@@ -2472,7 +2490,7 @@
         <v>0.9500000000000028</v>
       </c>
       <c r="K44" t="n">
-        <v>-24.99999999999986</v>
+        <v>-39.99999999999982</v>
       </c>
       <c r="L44" t="n">
         <v>5.879999999999998</v>
@@ -2523,7 +2541,7 @@
         <v>0.9500000000000028</v>
       </c>
       <c r="K45" t="n">
-        <v>-24.99999999999986</v>
+        <v>-39.99999999999982</v>
       </c>
       <c r="L45" t="n">
         <v>5.871999999999998</v>
@@ -2574,7 +2592,7 @@
         <v>0.9500000000000028</v>
       </c>
       <c r="K46" t="n">
-        <v>-24.99999999999986</v>
+        <v>-39.99999999999982</v>
       </c>
       <c r="L46" t="n">
         <v>5.863999999999999</v>
@@ -2625,7 +2643,7 @@
         <v>0.9500000000000028</v>
       </c>
       <c r="K47" t="n">
-        <v>-24.99999999999986</v>
+        <v>-39.99999999999982</v>
       </c>
       <c r="L47" t="n">
         <v>5.855999999999999</v>
@@ -2676,7 +2694,7 @@
         <v>0.9500000000000028</v>
       </c>
       <c r="K48" t="n">
-        <v>-24.99999999999986</v>
+        <v>-39.99999999999982</v>
       </c>
       <c r="L48" t="n">
         <v>5.847999999999999</v>
@@ -2727,7 +2745,7 @@
         <v>0.9500000000000028</v>
       </c>
       <c r="K49" t="n">
-        <v>-24.99999999999986</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L49" t="n">
         <v>5.839999999999999</v>
@@ -2778,7 +2796,7 @@
         <v>0.9500000000000028</v>
       </c>
       <c r="K50" t="n">
-        <v>-24.99999999999986</v>
+        <v>-100</v>
       </c>
       <c r="L50" t="n">
         <v>5.837999999999999</v>
@@ -2828,9 +2846,7 @@
       <c r="J51" t="n">
         <v>0.9500000000000028</v>
       </c>
-      <c r="K51" t="n">
-        <v>-24.99999999999986</v>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>5.83</v>
       </c>
@@ -2880,7 +2896,7 @@
         <v>1.030000000000003</v>
       </c>
       <c r="K52" t="n">
-        <v>17.64705882352947</v>
+        <v>100</v>
       </c>
       <c r="L52" t="n">
         <v>5.837999999999999</v>
@@ -2931,7 +2947,7 @@
         <v>1.070000000000003</v>
       </c>
       <c r="K53" t="n">
-        <v>-12.49999999999996</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L53" t="n">
         <v>5.842000000000001</v>
@@ -2982,7 +2998,7 @@
         <v>1.070000000000003</v>
       </c>
       <c r="K54" t="n">
-        <v>-12.49999999999996</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L54" t="n">
         <v>5.846000000000001</v>
@@ -3033,7 +3049,7 @@
         <v>1.070000000000003</v>
       </c>
       <c r="K55" t="n">
-        <v>-12.49999999999996</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L55" t="n">
         <v>5.850000000000001</v>
@@ -3084,7 +3100,7 @@
         <v>1.110000000000003</v>
       </c>
       <c r="K56" t="n">
-        <v>-22.22222222222217</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>5.850000000000001</v>
@@ -3135,7 +3151,7 @@
         <v>1.110000000000003</v>
       </c>
       <c r="K57" t="n">
-        <v>-22.22222222222217</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>5.850000000000001</v>
@@ -3186,7 +3202,7 @@
         <v>1.120000000000003</v>
       </c>
       <c r="K58" t="n">
-        <v>-18.91891891891894</v>
+        <v>5.882352941176348</v>
       </c>
       <c r="L58" t="n">
         <v>5.851000000000002</v>
@@ -3237,7 +3253,7 @@
         <v>1.130000000000003</v>
       </c>
       <c r="K59" t="n">
-        <v>-21.05263157894735</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>5.851000000000002</v>
@@ -3288,7 +3304,7 @@
         <v>1.130000000000003</v>
       </c>
       <c r="K60" t="n">
-        <v>-6.249999999999861</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>5.851000000000002</v>
@@ -3339,7 +3355,7 @@
         <v>1.130000000000003</v>
       </c>
       <c r="K61" t="n">
-        <v>-30.76923076923082</v>
+        <v>-80.00000000000036</v>
       </c>
       <c r="L61" t="n">
         <v>5.851000000000002</v>
@@ -3390,7 +3406,7 @@
         <v>1.130000000000003</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L62" t="n">
         <v>5.843000000000002</v>
@@ -3441,7 +3457,7 @@
         <v>1.130000000000003</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L63" t="n">
         <v>5.839000000000002</v>
@@ -3492,7 +3508,7 @@
         <v>1.130000000000003</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L64" t="n">
         <v>5.835000000000003</v>
@@ -3543,7 +3559,7 @@
         <v>1.160000000000003</v>
       </c>
       <c r="K65" t="n">
-        <v>14.28571428571441</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L65" t="n">
         <v>5.834000000000004</v>
@@ -3645,7 +3661,7 @@
         <v>1.220000000000003</v>
       </c>
       <c r="K67" t="n">
-        <v>11.11111111111118</v>
+        <v>20.00000000000036</v>
       </c>
       <c r="L67" t="n">
         <v>5.837000000000005</v>
@@ -3696,7 +3712,7 @@
         <v>1.220000000000003</v>
       </c>
       <c r="K68" t="n">
-        <v>11.11111111111118</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L68" t="n">
         <v>5.839000000000004</v>
@@ -3747,7 +3763,7 @@
         <v>1.220000000000003</v>
       </c>
       <c r="K69" t="n">
-        <v>11.11111111111118</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L69" t="n">
         <v>5.842000000000004</v>
@@ -3798,7 +3814,7 @@
         <v>1.240000000000004</v>
       </c>
       <c r="K70" t="n">
-        <v>3.448275862068881</v>
+        <v>9.090909090908797</v>
       </c>
       <c r="L70" t="n">
         <v>5.843000000000005</v>
@@ -3849,7 +3865,7 @@
         <v>1.240000000000004</v>
       </c>
       <c r="K71" t="n">
-        <v>3.448275862068881</v>
+        <v>9.090909090908797</v>
       </c>
       <c r="L71" t="n">
         <v>5.844000000000006</v>
@@ -3900,7 +3916,7 @@
         <v>1.250000000000004</v>
       </c>
       <c r="K72" t="n">
-        <v>-36.3636363636363</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>5.844000000000006</v>
@@ -3951,7 +3967,7 @@
         <v>1.290000000000004</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>24.99999999999986</v>
       </c>
       <c r="L73" t="n">
         <v>5.848000000000006</v>
@@ -4002,7 +4018,7 @@
         <v>1.290000000000004</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>7.692307692307482</v>
       </c>
       <c r="L74" t="n">
         <v>5.852000000000007</v>
@@ -4053,7 +4069,7 @@
         <v>1.290000000000004</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L75" t="n">
         <v>5.853000000000007</v>
@@ -4104,7 +4120,7 @@
         <v>1.300000000000003</v>
       </c>
       <c r="K76" t="n">
-        <v>26.31578947368406</v>
+        <v>24.99999999999945</v>
       </c>
       <c r="L76" t="n">
         <v>5.858000000000007</v>
@@ -4155,7 +4171,7 @@
         <v>1.350000000000003</v>
       </c>
       <c r="K77" t="n">
-        <v>41.66666666666648</v>
+        <v>53.84615384615342</v>
       </c>
       <c r="L77" t="n">
         <v>5.865000000000007</v>
@@ -4206,7 +4222,7 @@
         <v>1.360000000000004</v>
       </c>
       <c r="K78" t="n">
-        <v>41.6666666666667</v>
+        <v>57.14285714285696</v>
       </c>
       <c r="L78" t="n">
         <v>5.873000000000007</v>
@@ -4257,7 +4273,7 @@
         <v>1.420000000000004</v>
       </c>
       <c r="K79" t="n">
-        <v>17.24137931034466</v>
+        <v>22.22222222222217</v>
       </c>
       <c r="L79" t="n">
         <v>5.875000000000007</v>
@@ -4308,7 +4324,7 @@
         <v>1.430000000000004</v>
       </c>
       <c r="K80" t="n">
-        <v>13.33333333333328</v>
+        <v>15.78947368421063</v>
       </c>
       <c r="L80" t="n">
         <v>5.878000000000007</v>
@@ -4359,7 +4375,7 @@
         <v>1.490000000000004</v>
       </c>
       <c r="K81" t="n">
-        <v>27.77777777777758</v>
+        <v>41.66666666666648</v>
       </c>
       <c r="L81" t="n">
         <v>5.887000000000006</v>
@@ -4410,7 +4426,7 @@
         <v>1.540000000000004</v>
       </c>
       <c r="K82" t="n">
-        <v>12.19512195121944</v>
+        <v>3.999999999999915</v>
       </c>
       <c r="L82" t="n">
         <v>5.892000000000006</v>
@@ -4461,7 +4477,7 @@
         <v>1.570000000000004</v>
       </c>
       <c r="K83" t="n">
-        <v>18.18181818181815</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L83" t="n">
         <v>5.896000000000006</v>
@@ -4512,7 +4528,7 @@
         <v>1.590000000000004</v>
       </c>
       <c r="K84" t="n">
-        <v>13.04347826086943</v>
+        <v>6.666666666666508</v>
       </c>
       <c r="L84" t="n">
         <v>5.898000000000005</v>
@@ -4563,7 +4579,7 @@
         <v>1.590000000000004</v>
       </c>
       <c r="K85" t="n">
-        <v>6.976744186046338</v>
+        <v>3.448275862068881</v>
       </c>
       <c r="L85" t="n">
         <v>5.900000000000005</v>
@@ -4614,7 +4630,7 @@
         <v>1.620000000000004</v>
       </c>
       <c r="K86" t="n">
-        <v>6.97674418604656</v>
+        <v>-25.92592592592566</v>
       </c>
       <c r="L86" t="n">
         <v>5.898000000000005</v>
@@ -4665,7 +4681,7 @@
         <v>1.650000000000003</v>
       </c>
       <c r="K87" t="n">
-        <v>6.976744186046367</v>
+        <v>-17.24137931034512</v>
       </c>
       <c r="L87" t="n">
         <v>5.894000000000005</v>
@@ -4716,7 +4732,7 @@
         <v>1.650000000000003</v>
       </c>
       <c r="K88" t="n">
-        <v>6.976744186046367</v>
+        <v>4.347826086956454</v>
       </c>
       <c r="L88" t="n">
         <v>5.889000000000005</v>
@@ -4767,7 +4783,7 @@
         <v>1.670000000000003</v>
       </c>
       <c r="K89" t="n">
-        <v>2.222222222222178</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>5.888000000000004</v>
@@ -4818,7 +4834,7 @@
         <v>1.670000000000003</v>
       </c>
       <c r="K90" t="n">
-        <v>6.976744186046588</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L90" t="n">
         <v>5.888000000000004</v>
@@ -4869,7 +4885,7 @@
         <v>1.670000000000003</v>
       </c>
       <c r="K91" t="n">
-        <v>6.976744186046588</v>
+        <v>-7.692307692307587</v>
       </c>
       <c r="L91" t="n">
         <v>5.882000000000004</v>
@@ -4920,7 +4936,7 @@
         <v>1.670000000000003</v>
       </c>
       <c r="K92" t="n">
-        <v>9.523809523809554</v>
+        <v>-40.00000000000053</v>
       </c>
       <c r="L92" t="n">
         <v>5.881000000000004</v>
@@ -4971,7 +4987,7 @@
         <v>1.670000000000003</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L93" t="n">
         <v>5.877000000000004</v>
@@ -5022,7 +5038,7 @@
         <v>1.670000000000003</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L94" t="n">
         <v>5.875000000000004</v>
@@ -5073,7 +5089,7 @@
         <v>1.670000000000003</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L95" t="n">
         <v>5.873000000000005</v>
@@ -5124,7 +5140,7 @@
         <v>1.670000000000003</v>
       </c>
       <c r="K96" t="n">
-        <v>-2.702702702702651</v>
+        <v>-100</v>
       </c>
       <c r="L96" t="n">
         <v>5.874000000000005</v>
@@ -5175,7 +5191,7 @@
         <v>1.670000000000003</v>
       </c>
       <c r="K97" t="n">
-        <v>-18.74999999999991</v>
+        <v>-100</v>
       </c>
       <c r="L97" t="n">
         <v>5.872000000000005</v>
@@ -5225,9 +5241,7 @@
       <c r="J98" t="n">
         <v>1.670000000000003</v>
       </c>
-      <c r="K98" t="n">
-        <v>-22.58064516129051</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>5.870000000000006</v>
       </c>
@@ -5277,7 +5291,7 @@
         <v>1.680000000000002</v>
       </c>
       <c r="K99" t="n">
-        <v>-7.692307692307587</v>
+        <v>-100</v>
       </c>
       <c r="L99" t="n">
         <v>5.869000000000006</v>
@@ -5328,7 +5342,7 @@
         <v>1.700000000000002</v>
       </c>
       <c r="K100" t="n">
-        <v>3.703703703703655</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L100" t="n">
         <v>5.870000000000006</v>
@@ -5379,7 +5393,7 @@
         <v>1.740000000000002</v>
       </c>
       <c r="K101" t="n">
-        <v>-36.0000000000002</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L101" t="n">
         <v>5.867000000000006</v>
@@ -5430,7 +5444,7 @@
         <v>1.740000000000002</v>
       </c>
       <c r="K102" t="n">
-        <v>-20.00000000000018</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L102" t="n">
         <v>5.864000000000006</v>
@@ -5481,7 +5495,7 @@
         <v>1.740000000000002</v>
       </c>
       <c r="K103" t="n">
-        <v>-41.17647058823591</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L103" t="n">
         <v>5.861000000000006</v>
@@ -5532,7 +5546,7 @@
         <v>1.740000000000002</v>
       </c>
       <c r="K104" t="n">
-        <v>-33.33333333333373</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L104" t="n">
         <v>5.858000000000006</v>
@@ -5583,7 +5597,7 @@
         <v>1.740000000000002</v>
       </c>
       <c r="K105" t="n">
-        <v>-33.33333333333373</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L105" t="n">
         <v>5.855000000000006</v>
@@ -5634,7 +5648,7 @@
         <v>1.740000000000002</v>
       </c>
       <c r="K106" t="n">
-        <v>-16.66666666666729</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L106" t="n">
         <v>5.852000000000006</v>
@@ -5685,7 +5699,7 @@
         <v>1.740000000000002</v>
       </c>
       <c r="K107" t="n">
-        <v>-55.55555555555599</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L107" t="n">
         <v>5.849000000000006</v>
@@ -5736,7 +5750,7 @@
         <v>1.740000000000002</v>
       </c>
       <c r="K108" t="n">
-        <v>-55.55555555555599</v>
+        <v>-33.33333333333432</v>
       </c>
       <c r="L108" t="n">
         <v>5.846000000000005</v>
@@ -5787,7 +5801,7 @@
         <v>1.740000000000002</v>
       </c>
       <c r="K109" t="n">
-        <v>-42.85714285714358</v>
+        <v>-100</v>
       </c>
       <c r="L109" t="n">
         <v>5.844000000000006</v>
@@ -5837,9 +5851,7 @@
       <c r="J110" t="n">
         <v>1.740000000000002</v>
       </c>
-      <c r="K110" t="n">
-        <v>-42.85714285714358</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>5.840000000000005</v>
       </c>
@@ -5888,9 +5900,7 @@
       <c r="J111" t="n">
         <v>1.740000000000002</v>
       </c>
-      <c r="K111" t="n">
-        <v>-42.85714285714358</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>5.840000000000005</v>
       </c>
@@ -5939,9 +5949,7 @@
       <c r="J112" t="n">
         <v>1.740000000000002</v>
       </c>
-      <c r="K112" t="n">
-        <v>-42.85714285714358</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>5.840000000000005</v>
       </c>
@@ -5991,7 +5999,7 @@
         <v>1.770000000000002</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L113" t="n">
         <v>5.843000000000005</v>
@@ -6042,7 +6050,7 @@
         <v>1.800000000000002</v>
       </c>
       <c r="K114" t="n">
-        <v>-23.07692307692329</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
         <v>5.843000000000005</v>
@@ -6093,7 +6101,7 @@
         <v>1.800000000000002</v>
       </c>
       <c r="K115" t="n">
-        <v>-23.07692307692329</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>5.843000000000005</v>
@@ -6144,7 +6152,7 @@
         <v>1.800000000000002</v>
       </c>
       <c r="K116" t="n">
-        <v>-23.07692307692329</v>
+        <v>0</v>
       </c>
       <c r="L116" t="n">
         <v>5.843000000000005</v>
@@ -6195,7 +6203,7 @@
         <v>1.800000000000002</v>
       </c>
       <c r="K117" t="n">
-        <v>-23.07692307692329</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
         <v>5.843000000000005</v>
@@ -6246,7 +6254,7 @@
         <v>1.800000000000002</v>
       </c>
       <c r="K118" t="n">
-        <v>-23.07692307692329</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>5.843000000000005</v>
@@ -6297,7 +6305,7 @@
         <v>1.840000000000003</v>
       </c>
       <c r="K119" t="n">
-        <v>12.49999999999972</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L119" t="n">
         <v>5.847000000000004</v>
@@ -6348,7 +6356,7 @@
         <v>1.840000000000003</v>
       </c>
       <c r="K120" t="n">
-        <v>0</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L120" t="n">
         <v>5.851000000000004</v>
@@ -6450,7 +6458,7 @@
         <v>1.840000000000003</v>
       </c>
       <c r="K122" t="n">
-        <v>39.99999999999982</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L122" t="n">
         <v>5.859000000000002</v>
@@ -6501,7 +6509,7 @@
         <v>1.860000000000002</v>
       </c>
       <c r="K123" t="n">
-        <v>16.66666666666704</v>
+        <v>33.33333333333432</v>
       </c>
       <c r="L123" t="n">
         <v>5.858000000000002</v>
@@ -6552,7 +6560,7 @@
         <v>1.860000000000002</v>
       </c>
       <c r="K124" t="n">
-        <v>16.66666666666704</v>
+        <v>33.33333333333432</v>
       </c>
       <c r="L124" t="n">
         <v>5.860000000000002</v>
@@ -6603,7 +6611,7 @@
         <v>1.930000000000001</v>
       </c>
       <c r="K125" t="n">
-        <v>47.36842105263162</v>
+        <v>69.23076923076965</v>
       </c>
       <c r="L125" t="n">
         <v>5.869000000000002</v>
@@ -6654,7 +6662,7 @@
         <v>1.940000000000002</v>
       </c>
       <c r="K126" t="n">
-        <v>50.00000000000022</v>
+        <v>71.42857142857197</v>
       </c>
       <c r="L126" t="n">
         <v>5.879000000000002</v>
@@ -6705,7 +6713,7 @@
         <v>1.950000000000003</v>
       </c>
       <c r="K127" t="n">
-        <v>42.85714285714262</v>
+        <v>59.99999999999977</v>
       </c>
       <c r="L127" t="n">
         <v>5.888000000000003</v>
@@ -6756,7 +6764,7 @@
         <v>2.000000000000003</v>
       </c>
       <c r="K128" t="n">
-        <v>15.38461538461536</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
         <v>5.892000000000001</v>
@@ -6807,7 +6815,7 @@
         <v>2.060000000000003</v>
       </c>
       <c r="K129" t="n">
-        <v>31.25000000000005</v>
+        <v>27.27272727272742</v>
       </c>
       <c r="L129" t="n">
         <v>5.898000000000001</v>
@@ -6858,7 +6866,7 @@
         <v>2.100000000000003</v>
       </c>
       <c r="K130" t="n">
-        <v>16.66666666666675</v>
+        <v>7.69230769230785</v>
       </c>
       <c r="L130" t="n">
         <v>5.9</v>
@@ -6909,7 +6917,7 @@
         <v>2.110000000000003</v>
       </c>
       <c r="K131" t="n">
-        <v>18.91891891891894</v>
+        <v>11.11111111111118</v>
       </c>
       <c r="L131" t="n">
         <v>5.903</v>
@@ -6960,7 +6968,7 @@
         <v>2.150000000000003</v>
       </c>
       <c r="K132" t="n">
-        <v>7.31707317073175</v>
+        <v>3.448275862068881</v>
       </c>
       <c r="L132" t="n">
         <v>5.902</v>
@@ -7011,7 +7019,7 @@
         <v>2.180000000000003</v>
       </c>
       <c r="K133" t="n">
-        <v>7.31707317073175</v>
+        <v>12.49999999999996</v>
       </c>
       <c r="L133" t="n">
         <v>5.906000000000001</v>
@@ -7062,7 +7070,7 @@
         <v>2.220000000000003</v>
       </c>
       <c r="K134" t="n">
-        <v>4.761904761904863</v>
+        <v>-24.1379310344824</v>
       </c>
       <c r="L134" t="n">
         <v>5.906000000000001</v>
@@ -7113,7 +7121,7 @@
         <v>2.220000000000003</v>
       </c>
       <c r="K135" t="n">
-        <v>4.761904761904863</v>
+        <v>-28.57142857142848</v>
       </c>
       <c r="L135" t="n">
         <v>5.899</v>
@@ -7164,7 +7172,7 @@
         <v>2.290000000000003</v>
       </c>
       <c r="K136" t="n">
-        <v>18.36734693877547</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
         <v>5.898000000000001</v>
@@ -7215,7 +7223,7 @@
         <v>2.360000000000002</v>
       </c>
       <c r="K137" t="n">
-        <v>3.571428571428656</v>
+        <v>-5.555555555555445</v>
       </c>
       <c r="L137" t="n">
         <v>5.891</v>
@@ -7266,7 +7274,7 @@
         <v>2.370000000000002</v>
       </c>
       <c r="K138" t="n">
-        <v>5.263157894736891</v>
+        <v>-22.58064516129051</v>
       </c>
       <c r="L138" t="n">
         <v>5.89</v>
@@ -7317,7 +7325,7 @@
         <v>2.430000000000001</v>
       </c>
       <c r="K139" t="n">
-        <v>8.474576271186425</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L139" t="n">
         <v>5.889</v>
@@ -7368,7 +7376,7 @@
         <v>2.500000000000001</v>
       </c>
       <c r="K140" t="n">
-        <v>-3.030303030302973</v>
+        <v>-12.82051282051284</v>
       </c>
       <c r="L140" t="n">
         <v>5.885</v>
@@ -7419,7 +7427,7 @@
         <v>2.57</v>
       </c>
       <c r="K141" t="n">
-        <v>6.849315068493148</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L141" t="n">
         <v>5.887</v>
@@ -7470,7 +7478,7 @@
         <v>2.64</v>
       </c>
       <c r="K142" t="n">
-        <v>-2.499999999999956</v>
+        <v>-8.695652173913119</v>
       </c>
       <c r="L142" t="n">
         <v>5.886000000000001</v>
@@ -7521,7 +7529,7 @@
         <v>2.709999999999999</v>
       </c>
       <c r="K143" t="n">
-        <v>8.235294117647017</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L143" t="n">
         <v>5.889000000000001</v>
@@ -7623,7 +7631,7 @@
         <v>2.839999999999998</v>
       </c>
       <c r="K145" t="n">
-        <v>-1.098901098901079</v>
+        <v>-1.818181818181795</v>
       </c>
       <c r="L145" t="n">
         <v>5.895000000000001</v>
@@ -7674,7 +7682,7 @@
         <v>2.899999999999998</v>
       </c>
       <c r="K146" t="n">
-        <v>-8.33333333333338</v>
+        <v>0</v>
       </c>
       <c r="L146" t="n">
         <v>5.888000000000002</v>
@@ -7725,7 +7733,7 @@
         <v>2.979999999999998</v>
       </c>
       <c r="K147" t="n">
-        <v>0.9708737864078374</v>
+        <v>11.4754098360657</v>
       </c>
       <c r="L147" t="n">
         <v>5.896000000000003</v>
@@ -7776,7 +7784,7 @@
         <v>2.979999999999998</v>
       </c>
       <c r="K148" t="n">
-        <v>6.122448979591918</v>
+        <v>1.818181818181953</v>
       </c>
       <c r="L148" t="n">
         <v>5.903000000000002</v>
@@ -7827,7 +7835,7 @@
         <v>2.999999999999998</v>
       </c>
       <c r="K149" t="n">
-        <v>-2.127659574468145</v>
+        <v>11.99999999999999</v>
       </c>
       <c r="L149" t="n">
         <v>5.902000000000002</v>
@@ -7878,7 +7886,7 @@
         <v>2.999999999999998</v>
       </c>
       <c r="K150" t="n">
-        <v>2.222222222222187</v>
+        <v>-2.325581395348799</v>
       </c>
       <c r="L150" t="n">
         <v>5.908000000000001</v>
@@ -7929,7 +7937,7 @@
         <v>3.049999999999998</v>
       </c>
       <c r="K151" t="n">
-        <v>-4.255319148936197</v>
+        <v>2.43902439024386</v>
       </c>
       <c r="L151" t="n">
         <v>5.902000000000002</v>
@@ -7980,7 +7988,7 @@
         <v>3.069999999999998</v>
       </c>
       <c r="K152" t="n">
-        <v>2.173913043478227</v>
+        <v>-11.11111111111117</v>
       </c>
       <c r="L152" t="n">
         <v>5.905000000000001</v>
@@ -8031,7 +8039,7 @@
         <v>3.099999999999997</v>
       </c>
       <c r="K153" t="n">
-        <v>-4.347826086956555</v>
+        <v>0</v>
       </c>
       <c r="L153" t="n">
         <v>5.898000000000001</v>
@@ -8082,7 +8090,7 @@
         <v>3.099999999999997</v>
       </c>
       <c r="K154" t="n">
-        <v>0</v>
+        <v>-23.07692307692303</v>
       </c>
       <c r="L154" t="n">
         <v>5.898000000000001</v>
@@ -8133,7 +8141,7 @@
         <v>3.149999999999998</v>
       </c>
       <c r="K155" t="n">
-        <v>-5.376344086021614</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L155" t="n">
         <v>5.887000000000002</v>
@@ -8184,7 +8192,7 @@
         <v>3.159999999999998</v>
       </c>
       <c r="K156" t="n">
-        <v>-12.64367816091954</v>
+        <v>-66.6666666666665</v>
       </c>
       <c r="L156" t="n">
         <v>5.883000000000003</v>
@@ -8235,7 +8243,7 @@
         <v>3.229999999999998</v>
       </c>
       <c r="K157" t="n">
-        <v>3.448275862068909</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L157" t="n">
         <v>5.878000000000003</v>
@@ -8286,7 +8294,7 @@
         <v>3.299999999999997</v>
       </c>
       <c r="K158" t="n">
-        <v>-5.376344086021514</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L158" t="n">
         <v>5.866000000000002</v>
@@ -8337,7 +8345,7 @@
         <v>3.309999999999998</v>
       </c>
       <c r="K159" t="n">
-        <v>-13.6363636363637</v>
+        <v>-35.48387096774208</v>
       </c>
       <c r="L159" t="n">
         <v>5.855000000000002</v>
@@ -8388,7 +8396,7 @@
         <v>3.319999999999999</v>
       </c>
       <c r="K160" t="n">
-        <v>-4.878048780487823</v>
+        <v>-18.51851851851842</v>
       </c>
       <c r="L160" t="n">
         <v>5.845000000000003</v>
@@ -8439,7 +8447,7 @@
         <v>3.319999999999999</v>
       </c>
       <c r="K161" t="n">
-        <v>-14.66666666666663</v>
+        <v>-27.99999999999966</v>
       </c>
       <c r="L161" t="n">
         <v>5.840000000000004</v>
@@ -8490,7 +8498,7 @@
         <v>3.329999999999998</v>
       </c>
       <c r="K162" t="n">
-        <v>-4.347826086956567</v>
+        <v>-13.0434782608696</v>
       </c>
       <c r="L162" t="n">
         <v>5.834000000000005</v>
@@ -8541,7 +8549,7 @@
         <v>3.379999999999998</v>
       </c>
       <c r="K163" t="n">
-        <v>-7.462686567164163</v>
+        <v>7.142857142856962</v>
       </c>
       <c r="L163" t="n">
         <v>5.836000000000004</v>
@@ -8592,7 +8600,7 @@
         <v>3.439999999999998</v>
       </c>
       <c r="K164" t="n">
-        <v>-6.060606060606073</v>
+        <v>3.448275862069198</v>
       </c>
       <c r="L164" t="n">
         <v>5.832000000000003</v>
@@ -8643,7 +8651,7 @@
         <v>3.509999999999997</v>
       </c>
       <c r="K165" t="n">
-        <v>-4.477611940298551</v>
+        <v>19.9999999999999</v>
       </c>
       <c r="L165" t="n">
         <v>5.840000000000003</v>
@@ -8694,7 +8702,7 @@
         <v>3.509999999999997</v>
       </c>
       <c r="K166" t="n">
-        <v>4.918032786885146</v>
+        <v>0</v>
       </c>
       <c r="L166" t="n">
         <v>5.847000000000003</v>
@@ -8745,7 +8753,7 @@
         <v>3.519999999999997</v>
       </c>
       <c r="K167" t="n">
-        <v>-11.11111111111122</v>
+        <v>27.27272727272713</v>
       </c>
       <c r="L167" t="n">
         <v>5.846000000000004</v>
@@ -8796,7 +8804,7 @@
         <v>3.579999999999997</v>
       </c>
       <c r="K168" t="n">
-        <v>-20.00000000000006</v>
+        <v>3.703703703703972</v>
       </c>
       <c r="L168" t="n">
         <v>5.846000000000003</v>
@@ -8847,7 +8855,7 @@
         <v>3.579999999999997</v>
       </c>
       <c r="K169" t="n">
-        <v>-17.24137931034482</v>
+        <v>0</v>
       </c>
       <c r="L169" t="n">
         <v>5.847000000000003</v>
@@ -8898,7 +8906,7 @@
         <v>3.589999999999997</v>
       </c>
       <c r="K170" t="n">
-        <v>-18.64406779661025</v>
+        <v>-3.703703703703972</v>
       </c>
       <c r="L170" t="n">
         <v>5.846000000000003</v>
@@ -8949,7 +8957,7 @@
         <v>3.649999999999998</v>
       </c>
       <c r="K171" t="n">
-        <v>0</v>
+        <v>12.50000000000004</v>
       </c>
       <c r="L171" t="n">
         <v>5.851000000000003</v>
@@ -9000,7 +9008,7 @@
         <v>3.699999999999998</v>
       </c>
       <c r="K172" t="n">
-        <v>-11.11111111111102</v>
+        <v>-18.74999999999991</v>
       </c>
       <c r="L172" t="n">
         <v>5.850000000000003</v>
@@ -9051,7 +9059,7 @@
         <v>3.759999999999997</v>
       </c>
       <c r="K173" t="n">
-        <v>3.030303030302965</v>
+        <v>18.74999999999991</v>
       </c>
       <c r="L173" t="n">
         <v>5.850000000000002</v>
@@ -9102,7 +9110,7 @@
         <v>3.759999999999997</v>
       </c>
       <c r="K174" t="n">
-        <v>3.030303030302965</v>
+        <v>-3.999999999999915</v>
       </c>
       <c r="L174" t="n">
         <v>5.856000000000003</v>
@@ -9153,7 +9161,7 @@
         <v>3.759999999999997</v>
       </c>
       <c r="K175" t="n">
-        <v>11.47540983606563</v>
+        <v>-3.999999999999915</v>
       </c>
       <c r="L175" t="n">
         <v>5.855000000000002</v>
@@ -9204,7 +9212,7 @@
         <v>3.819999999999998</v>
       </c>
       <c r="K176" t="n">
-        <v>18.18181818181822</v>
+        <v>20.00000000000012</v>
       </c>
       <c r="L176" t="n">
         <v>5.860000000000002</v>
@@ -9255,7 +9263,7 @@
         <v>3.819999999999998</v>
       </c>
       <c r="K177" t="n">
-        <v>8.474576271186564</v>
+        <v>49.99999999999982</v>
       </c>
       <c r="L177" t="n">
         <v>5.866000000000001</v>
@@ -9306,7 +9314,7 @@
         <v>3.819999999999998</v>
       </c>
       <c r="K178" t="n">
-        <v>23.07692307692308</v>
+        <v>49.99999999999982</v>
       </c>
       <c r="L178" t="n">
         <v>5.878000000000002</v>
@@ -9357,7 +9365,7 @@
         <v>3.819999999999998</v>
       </c>
       <c r="K179" t="n">
-        <v>25.49019607843154</v>
+        <v>56.52173913043502</v>
       </c>
       <c r="L179" t="n">
         <v>5.890000000000002</v>
@@ -9408,7 +9416,7 @@
         <v>3.819999999999998</v>
       </c>
       <c r="K180" t="n">
-        <v>24.00000000000006</v>
+        <v>41.17647058823548</v>
       </c>
       <c r="L180" t="n">
         <v>5.903000000000003</v>
@@ -9459,7 +9467,7 @@
         <v>3.889999999999998</v>
       </c>
       <c r="K181" t="n">
-        <v>8.771929824561383</v>
+        <v>26.31578947368406</v>
       </c>
       <c r="L181" t="n">
         <v>5.903000000000004</v>
@@ -9510,7 +9518,7 @@
         <v>3.959999999999998</v>
       </c>
       <c r="K182" t="n">
-        <v>17.46031746031752</v>
+        <v>30.00000000000009</v>
       </c>
       <c r="L182" t="n">
         <v>5.915000000000004</v>
@@ -9561,7 +9569,7 @@
         <v>3.959999999999998</v>
       </c>
       <c r="K183" t="n">
-        <v>10.34482758620698</v>
+        <v>30.00000000000009</v>
       </c>
       <c r="L183" t="n">
         <v>5.921000000000005</v>
@@ -9612,7 +9620,7 @@
         <v>3.959999999999998</v>
       </c>
       <c r="K184" t="n">
-        <v>23.07692307692308</v>
+        <v>30.00000000000009</v>
       </c>
       <c r="L184" t="n">
         <v>5.927000000000005</v>
@@ -9663,7 +9671,7 @@
         <v>3.959999999999998</v>
       </c>
       <c r="K185" t="n">
-        <v>11.11111111111124</v>
+        <v>0</v>
       </c>
       <c r="L185" t="n">
         <v>5.933000000000005</v>
@@ -9714,7 +9722,7 @@
         <v>3.959999999999998</v>
       </c>
       <c r="K186" t="n">
-        <v>11.11111111111124</v>
+        <v>0</v>
       </c>
       <c r="L186" t="n">
         <v>5.933000000000005</v>
@@ -9765,7 +9773,7 @@
         <v>3.959999999999998</v>
       </c>
       <c r="K187" t="n">
-        <v>13.63636363636371</v>
+        <v>0</v>
       </c>
       <c r="L187" t="n">
         <v>5.933000000000005</v>
@@ -9816,7 +9824,7 @@
         <v>4.029999999999998</v>
       </c>
       <c r="K188" t="n">
-        <v>11.11111111111102</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L188" t="n">
         <v>5.926000000000006</v>
@@ -9867,7 +9875,7 @@
         <v>4.099999999999999</v>
       </c>
       <c r="K189" t="n">
-        <v>23.076923076923</v>
+        <v>0</v>
       </c>
       <c r="L189" t="n">
         <v>5.926000000000006</v>
@@ -9918,7 +9926,7 @@
         <v>4.179999999999999</v>
       </c>
       <c r="K190" t="n">
-        <v>8.474576271186537</v>
+        <v>-3.448275862068881</v>
       </c>
       <c r="L190" t="n">
         <v>5.918000000000006</v>
@@ -9969,7 +9977,7 @@
         <v>4.249999999999998</v>
       </c>
       <c r="K191" t="n">
-        <v>9.999999999999925</v>
+        <v>-3.448275862069198</v>
       </c>
       <c r="L191" t="n">
         <v>5.924000000000007</v>
@@ -10020,7 +10028,7 @@
         <v>4.249999999999998</v>
       </c>
       <c r="K192" t="n">
-        <v>19.99999999999987</v>
+        <v>-3.448275862069198</v>
       </c>
       <c r="L192" t="n">
         <v>5.923000000000007</v>
@@ -10071,7 +10079,7 @@
         <v>4.259999999999999</v>
       </c>
       <c r="K193" t="n">
-        <v>12.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="L193" t="n">
         <v>5.923000000000007</v>
@@ -10122,7 +10130,7 @@
         <v>4.259999999999999</v>
       </c>
       <c r="K194" t="n">
-        <v>12.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="L194" t="n">
         <v>5.923000000000007</v>
@@ -10173,7 +10181,7 @@
         <v>4.259999999999999</v>
       </c>
       <c r="K195" t="n">
-        <v>12.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="L195" t="n">
         <v>5.923000000000007</v>
@@ -10275,7 +10283,7 @@
         <v>4.259999999999999</v>
       </c>
       <c r="K197" t="n">
-        <v>0</v>
+        <v>30.43478260869572</v>
       </c>
       <c r="L197" t="n">
         <v>5.923000000000007</v>
@@ -10377,7 +10385,7 @@
         <v>4.269999999999999</v>
       </c>
       <c r="K199" t="n">
-        <v>2.222222222222169</v>
+        <v>100</v>
       </c>
       <c r="L199" t="n">
         <v>5.931000000000007</v>
@@ -10428,7 +10436,7 @@
         <v>4.279999999999998</v>
       </c>
       <c r="K200" t="n">
-        <v>4.347826086956421</v>
+        <v>100</v>
       </c>
       <c r="L200" t="n">
         <v>5.941000000000007</v>
@@ -10479,7 +10487,7 @@
         <v>4.279999999999998</v>
       </c>
       <c r="K201" t="n">
-        <v>23.07692307692301</v>
+        <v>100</v>
       </c>
       <c r="L201" t="n">
         <v>5.944000000000006</v>
@@ -10530,7 +10538,7 @@
         <v>4.319999999999999</v>
       </c>
       <c r="K202" t="n">
-        <v>16.66666666666654</v>
+        <v>100</v>
       </c>
       <c r="L202" t="n">
         <v>5.951000000000006</v>
@@ -10581,7 +10589,7 @@
         <v>4.339999999999998</v>
       </c>
       <c r="K203" t="n">
-        <v>21.05263157894716</v>
+        <v>100</v>
       </c>
       <c r="L203" t="n">
         <v>5.959000000000006</v>
@@ -10632,7 +10640,7 @@
         <v>4.339999999999998</v>
       </c>
       <c r="K204" t="n">
-        <v>21.05263157894716</v>
+        <v>100</v>
       </c>
       <c r="L204" t="n">
         <v>5.967000000000006</v>
@@ -10683,7 +10691,7 @@
         <v>4.339999999999998</v>
       </c>
       <c r="K205" t="n">
-        <v>21.05263157894716</v>
+        <v>100</v>
       </c>
       <c r="L205" t="n">
         <v>5.975000000000006</v>
@@ -10734,7 +10742,7 @@
         <v>4.349999999999999</v>
       </c>
       <c r="K206" t="n">
-        <v>23.07692307692301</v>
+        <v>100</v>
       </c>
       <c r="L206" t="n">
         <v>5.984000000000006</v>
@@ -10785,7 +10793,7 @@
         <v>4.359999999999999</v>
       </c>
       <c r="K207" t="n">
-        <v>24.99999999999989</v>
+        <v>100</v>
       </c>
       <c r="L207" t="n">
         <v>5.994000000000007</v>
@@ -10836,7 +10844,7 @@
         <v>4.369999999999998</v>
       </c>
       <c r="K208" t="n">
-        <v>52.94117647058817</v>
+        <v>100</v>
       </c>
       <c r="L208" t="n">
         <v>6.005000000000007</v>
@@ -10887,7 +10895,7 @@
         <v>4.369999999999998</v>
       </c>
       <c r="K209" t="n">
-        <v>40.74074074074059</v>
+        <v>100</v>
       </c>
       <c r="L209" t="n">
         <v>6.015000000000006</v>
@@ -11142,7 +11150,7 @@
         <v>4.379999999999998</v>
       </c>
       <c r="K214" t="n">
-        <v>83.33333333333358</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L214" t="n">
         <v>6.043000000000008</v>
@@ -11193,7 +11201,7 @@
         <v>4.389999999999998</v>
       </c>
       <c r="K215" t="n">
-        <v>84.61538461538483</v>
+        <v>50</v>
       </c>
       <c r="L215" t="n">
         <v>6.046000000000008</v>
@@ -11244,7 +11252,7 @@
         <v>4.389999999999998</v>
       </c>
       <c r="K216" t="n">
-        <v>84.61538461538483</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L216" t="n">
         <v>6.048000000000007</v>
@@ -11295,7 +11303,7 @@
         <v>4.389999999999998</v>
       </c>
       <c r="K217" t="n">
-        <v>84.61538461538483</v>
+        <v>0</v>
       </c>
       <c r="L217" t="n">
         <v>6.049000000000007</v>
@@ -11346,7 +11354,7 @@
         <v>4.389999999999998</v>
       </c>
       <c r="K218" t="n">
-        <v>84.61538461538483</v>
+        <v>0</v>
       </c>
       <c r="L218" t="n">
         <v>6.049000000000008</v>
@@ -11397,7 +11405,7 @@
         <v>4.389999999999998</v>
       </c>
       <c r="K219" t="n">
-        <v>83.33333333333358</v>
+        <v>0</v>
       </c>
       <c r="L219" t="n">
         <v>6.049000000000008</v>
@@ -11448,7 +11456,7 @@
         <v>4.389999999999998</v>
       </c>
       <c r="K220" t="n">
-        <v>81.81818181818211</v>
+        <v>0</v>
       </c>
       <c r="L220" t="n">
         <v>6.049000000000008</v>
@@ -11499,7 +11507,7 @@
         <v>4.389999999999998</v>
       </c>
       <c r="K221" t="n">
-        <v>81.81818181818211</v>
+        <v>0</v>
       </c>
       <c r="L221" t="n">
         <v>6.049000000000008</v>
@@ -11550,7 +11558,7 @@
         <v>4.389999999999998</v>
       </c>
       <c r="K222" t="n">
-        <v>71.4285714285718</v>
+        <v>0</v>
       </c>
       <c r="L222" t="n">
         <v>6.049000000000008</v>
@@ -11601,7 +11609,7 @@
         <v>4.389999999999998</v>
       </c>
       <c r="K223" t="n">
-        <v>60.00000000000071</v>
+        <v>100</v>
       </c>
       <c r="L223" t="n">
         <v>6.049000000000008</v>
@@ -11651,9 +11659,7 @@
       <c r="J224" t="n">
         <v>4.389999999999998</v>
       </c>
-      <c r="K224" t="n">
-        <v>60.00000000000071</v>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>6.050000000000008</v>
       </c>
@@ -11702,9 +11708,7 @@
       <c r="J225" t="n">
         <v>4.389999999999998</v>
       </c>
-      <c r="K225" t="n">
-        <v>60.00000000000071</v>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>6.050000000000009</v>
       </c>
@@ -11753,9 +11757,7 @@
       <c r="J226" t="n">
         <v>4.389999999999998</v>
       </c>
-      <c r="K226" t="n">
-        <v>50</v>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>6.050000000000009</v>
       </c>
@@ -11804,9 +11806,7 @@
       <c r="J227" t="n">
         <v>4.389999999999998</v>
       </c>
-      <c r="K227" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>6.050000000000009</v>
       </c>
@@ -11856,7 +11856,7 @@
         <v>4.429999999999998</v>
       </c>
       <c r="K228" t="n">
-        <v>66.66666666666717</v>
+        <v>100</v>
       </c>
       <c r="L228" t="n">
         <v>6.054000000000009</v>
@@ -11907,7 +11907,7 @@
         <v>4.439999999999998</v>
       </c>
       <c r="K229" t="n">
-        <v>71.4285714285718</v>
+        <v>100</v>
       </c>
       <c r="L229" t="n">
         <v>6.059000000000009</v>
@@ -11958,7 +11958,7 @@
         <v>4.439999999999998</v>
       </c>
       <c r="K230" t="n">
-        <v>71.4285714285718</v>
+        <v>100</v>
       </c>
       <c r="L230" t="n">
         <v>6.064000000000009</v>
@@ -12009,7 +12009,7 @@
         <v>4.449999999999998</v>
       </c>
       <c r="K231" t="n">
-        <v>50.00000000000055</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L231" t="n">
         <v>6.068000000000009</v>
@@ -12060,7 +12060,7 @@
         <v>4.499999999999997</v>
       </c>
       <c r="K232" t="n">
-        <v>-7.692307692307587</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L232" t="n">
         <v>6.06700000000001</v>
@@ -12111,7 +12111,7 @@
         <v>4.549999999999997</v>
       </c>
       <c r="K233" t="n">
-        <v>22.22222222222239</v>
+        <v>25.00000000000014</v>
       </c>
       <c r="L233" t="n">
         <v>6.07100000000001</v>
@@ -12162,7 +12162,7 @@
         <v>4.589999999999997</v>
       </c>
       <c r="K234" t="n">
-        <v>4.761904761904681</v>
+        <v>0</v>
       </c>
       <c r="L234" t="n">
         <v>6.07100000000001</v>
@@ -12315,7 +12315,7 @@
         <v>4.729999999999997</v>
       </c>
       <c r="K237" t="n">
-        <v>5.882352941176625</v>
+        <v>-6.666666666666549</v>
       </c>
       <c r="L237" t="n">
         <v>6.073000000000012</v>
@@ -12366,7 +12366,7 @@
         <v>4.749999999999997</v>
       </c>
       <c r="K238" t="n">
-        <v>0</v>
+        <v>-16.12903225806448</v>
       </c>
       <c r="L238" t="n">
         <v>6.069000000000011</v>
@@ -12417,7 +12417,7 @@
         <v>4.779999999999998</v>
       </c>
       <c r="K239" t="n">
-        <v>7.692307692307762</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L239" t="n">
         <v>6.067000000000011</v>
@@ -12468,7 +12468,7 @@
         <v>4.839999999999998</v>
       </c>
       <c r="K240" t="n">
-        <v>-6.666666666666719</v>
+        <v>-17.948717948718</v>
       </c>
       <c r="L240" t="n">
         <v>6.059000000000011</v>
@@ -12519,7 +12519,7 @@
         <v>4.899999999999999</v>
       </c>
       <c r="K241" t="n">
-        <v>5.882352941176512</v>
+        <v>9.999999999999979</v>
       </c>
       <c r="L241" t="n">
         <v>6.058000000000011</v>
@@ -12570,7 +12570,7 @@
         <v>4.909999999999998</v>
       </c>
       <c r="K242" t="n">
-        <v>3.846153846153932</v>
+        <v>-5.555555555555419</v>
       </c>
       <c r="L242" t="n">
         <v>6.061000000000012</v>
@@ -12621,7 +12621,7 @@
         <v>4.919999999999998</v>
       </c>
       <c r="K243" t="n">
-        <v>5.660377358490611</v>
+        <v>9.09090909090914</v>
       </c>
       <c r="L243" t="n">
         <v>6.060000000000012</v>
@@ -12672,7 +12672,7 @@
         <v>4.929999999999998</v>
       </c>
       <c r="K244" t="n">
-        <v>7.407407407407414</v>
+        <v>26.66666666666663</v>
       </c>
       <c r="L244" t="n">
         <v>6.064000000000012</v>
@@ -12723,7 +12723,7 @@
         <v>4.939999999999998</v>
       </c>
       <c r="K245" t="n">
-        <v>5.454545454545501</v>
+        <v>-4.347826086956421</v>
       </c>
       <c r="L245" t="n">
         <v>6.071000000000013</v>

--- a/BackTest/2019-10-25 BackTest FAB.xlsx
+++ b/BackTest/2019-10-25 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S245"/>
+  <dimension ref="A1:M224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.03000000000000025</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.03000000000000025</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03000000000000025</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.03000000000000025</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.07000000000000028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.08000000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.08000000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.08000000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.1599999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.1599999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.1599999999999993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>5.982999999999999</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.1599999999999993</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-23.07692307692276</v>
-      </c>
-      <c r="L12" t="n">
-        <v>5.976999999999999</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.1599999999999993</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-23.07692307692276</v>
-      </c>
-      <c r="L13" t="n">
-        <v>5.973999999999998</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1500000000000004</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-88.88888888888911</v>
-      </c>
-      <c r="L14" t="n">
-        <v>5.961999999999998</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1500000000000004</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L15" t="n">
-        <v>5.945999999999997</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.3300000000000001</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-35.99999999999994</v>
-      </c>
-      <c r="L16" t="n">
-        <v>5.936999999999998</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1600000000000001</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.4199999999999999</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-52.94117647058817</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5.918999999999999</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.1699999999999999</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.4299999999999997</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-40.74074074074079</v>
-      </c>
-      <c r="L18" t="n">
-        <v>5.899999999999999</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5099999999999998</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-8.57142857142863</v>
-      </c>
-      <c r="L19" t="n">
-        <v>5.896999999999998</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.1500000000000004</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5700000000000003</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-21.95121951219525</v>
-      </c>
-      <c r="L20" t="n">
-        <v>5.887999999999998</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.6300000000000008</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-6.382978723404288</v>
-      </c>
-      <c r="L21" t="n">
-        <v>5.884999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>5.933999999999998</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6300000000000008</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-6.382978723404288</v>
-      </c>
-      <c r="L22" t="n">
-        <v>5.881999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>5.929499999999998</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.6300000000000008</v>
-      </c>
-      <c r="K23" t="n">
-        <v>15.78947368421063</v>
-      </c>
-      <c r="L23" t="n">
-        <v>5.878999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>5.926499999999998</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6300000000000008</v>
-      </c>
-      <c r="K24" t="n">
-        <v>15.78947368421063</v>
-      </c>
-      <c r="L24" t="n">
-        <v>5.884999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>5.923499999999998</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.6300000000000008</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-6.666666666666508</v>
-      </c>
-      <c r="L25" t="n">
-        <v>5.890999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>5.918499999999997</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6300000000000008</v>
-      </c>
-      <c r="K26" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L26" t="n">
-        <v>5.888999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>5.912999999999998</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6300000000000008</v>
-      </c>
-      <c r="K27" t="n">
-        <v>39.99999999999982</v>
-      </c>
-      <c r="L27" t="n">
-        <v>5.895999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>5.907499999999997</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.6300000000000008</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>5.903999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>5.901999999999997</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.6300000000000008</v>
-      </c>
-      <c r="K29" t="n">
-        <v>100</v>
-      </c>
-      <c r="L29" t="n">
-        <v>5.903999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>5.900499999999997</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,24 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.6300000000000008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>5.909999999999997</v>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>5.898999999999997</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1823,26 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.6300000000000008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>5.909999999999998</v>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>5.897499999999997</v>
-      </c>
-      <c r="N31" t="n">
-        <v>5.925999999999998</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1872,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.1500000000000004</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.6900000000000013</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L32" t="n">
-        <v>5.903999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>5.892999999999997</v>
-      </c>
-      <c r="N32" t="n">
-        <v>5.920999999999998</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1923,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.7500000000000018</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>5.903999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>5.891499999999997</v>
-      </c>
-      <c r="N33" t="n">
-        <v>5.918999999999998</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1974,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.7500000000000018</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>5.903999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>5.894499999999997</v>
-      </c>
-      <c r="N34" t="n">
-        <v>5.916999999999998</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2025,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.7500000000000018</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>5.903999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>5.897499999999997</v>
-      </c>
-      <c r="N35" t="n">
-        <v>5.913666666666665</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2076,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.7500000000000018</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>5.903999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>5.896499999999998</v>
-      </c>
-      <c r="N36" t="n">
-        <v>5.909999999999997</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2127,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.7500000000000018</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>5.903999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>5.899999999999997</v>
-      </c>
-      <c r="N37" t="n">
-        <v>5.906333333333331</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2178,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.7500000000000018</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>5.903999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>5.903999999999997</v>
-      </c>
-      <c r="N38" t="n">
-        <v>5.902666666666663</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2229,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.7500000000000018</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>5.903999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>5.903999999999997</v>
-      </c>
-      <c r="N39" t="n">
-        <v>5.901666666666663</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2280,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.1500000000000004</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.8100000000000023</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L40" t="n">
-        <v>5.897999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>5.903999999999997</v>
-      </c>
-      <c r="N40" t="n">
-        <v>5.898666666666663</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2331,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.8700000000000028</v>
-      </c>
-      <c r="K41" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L41" t="n">
-        <v>5.897999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>5.903999999999997</v>
-      </c>
-      <c r="N41" t="n">
-        <v>5.897666666666663</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2382,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.1699999999999999</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.9500000000000028</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-39.99999999999982</v>
-      </c>
-      <c r="L42" t="n">
-        <v>5.895999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>5.899999999999997</v>
-      </c>
-      <c r="N42" t="n">
-        <v>5.893999999999997</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2433,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.1699999999999999</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.9500000000000028</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-39.99999999999982</v>
-      </c>
-      <c r="L43" t="n">
-        <v>5.887999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>5.895999999999997</v>
-      </c>
-      <c r="N43" t="n">
-        <v>5.890333333333331</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2484,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.1699999999999999</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.9500000000000028</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-39.99999999999982</v>
-      </c>
-      <c r="L44" t="n">
-        <v>5.879999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>5.891999999999998</v>
-      </c>
-      <c r="N44" t="n">
-        <v>5.889666666666665</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2535,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.1699999999999999</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.9500000000000028</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-39.99999999999982</v>
-      </c>
-      <c r="L45" t="n">
-        <v>5.871999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>5.887999999999997</v>
-      </c>
-      <c r="N45" t="n">
-        <v>5.888999999999998</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2586,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.1699999999999999</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.9500000000000028</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-39.99999999999982</v>
-      </c>
-      <c r="L46" t="n">
-        <v>5.863999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>5.883999999999998</v>
-      </c>
-      <c r="N46" t="n">
-        <v>5.885666666666665</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2637,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.1699999999999999</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.9500000000000028</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-39.99999999999982</v>
-      </c>
-      <c r="L47" t="n">
-        <v>5.855999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>5.879999999999997</v>
-      </c>
-      <c r="N47" t="n">
-        <v>5.885333333333333</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.1699999999999999</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.9500000000000028</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-39.99999999999982</v>
-      </c>
-      <c r="L48" t="n">
-        <v>5.847999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>5.875999999999998</v>
-      </c>
-      <c r="N48" t="n">
-        <v>5.885333333333333</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2739,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.1699999999999999</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.9500000000000028</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-14.28571428571392</v>
-      </c>
-      <c r="L49" t="n">
-        <v>5.839999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>5.871999999999998</v>
-      </c>
-      <c r="N49" t="n">
-        <v>5.882666666666666</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2790,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.1699999999999999</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.9500000000000028</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.837999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>5.867999999999998</v>
-      </c>
-      <c r="N50" t="n">
-        <v>5.882000000000001</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2841,26 +2169,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.1699999999999999</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.9500000000000028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>5.83</v>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>5.863999999999998</v>
-      </c>
-      <c r="N51" t="n">
-        <v>5.879333333333334</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2890,28 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1.030000000000003</v>
-      </c>
-      <c r="K52" t="n">
-        <v>100</v>
-      </c>
-      <c r="L52" t="n">
-        <v>5.837999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>5.866999999999998</v>
-      </c>
-      <c r="N52" t="n">
-        <v>5.879333333333334</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2941,28 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1.070000000000003</v>
-      </c>
-      <c r="K53" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L53" t="n">
-        <v>5.842000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>5.864999999999998</v>
-      </c>
-      <c r="N53" t="n">
-        <v>5.878000000000001</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2992,28 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1.070000000000003</v>
-      </c>
-      <c r="K54" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L54" t="n">
-        <v>5.846000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>5.862999999999999</v>
-      </c>
-      <c r="N54" t="n">
-        <v>5.876666666666668</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3043,28 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1.070000000000003</v>
-      </c>
-      <c r="K55" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L55" t="n">
-        <v>5.850000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>5.860999999999999</v>
-      </c>
-      <c r="N55" t="n">
-        <v>5.875333333333335</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3094,28 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.1699999999999999</v>
-      </c>
-      <c r="J56" t="n">
-        <v>1.110000000000003</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>5.850000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>5.856999999999999</v>
-      </c>
-      <c r="N56" t="n">
-        <v>5.872666666666669</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3145,28 +2379,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.1699999999999999</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1.110000000000003</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>5.850000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>5.853</v>
-      </c>
-      <c r="N57" t="n">
-        <v>5.870000000000003</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3196,28 +2414,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.1600000000000001</v>
-      </c>
-      <c r="J58" t="n">
-        <v>1.120000000000003</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5.882352941176348</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5.851000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>5.8495</v>
-      </c>
-      <c r="N58" t="n">
-        <v>5.867666666666669</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3247,28 +2449,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.1699999999999999</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1.130000000000003</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>5.851000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>5.845499999999999</v>
-      </c>
-      <c r="N59" t="n">
-        <v>5.865000000000004</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3298,28 +2484,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.1699999999999999</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1.130000000000003</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>5.851000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>5.8445</v>
-      </c>
-      <c r="N60" t="n">
-        <v>5.862333333333337</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3349,28 +2519,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.1699999999999999</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1.130000000000003</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-80.00000000000036</v>
-      </c>
-      <c r="L61" t="n">
-        <v>5.851000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>5.8405</v>
-      </c>
-      <c r="N61" t="n">
-        <v>5.859666666666671</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3397,31 +2551,19 @@
         <v>5.890000000000013</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.1699999999999999</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1.130000000000003</v>
+        <v>5.83</v>
       </c>
       <c r="K62" t="n">
-        <v>-66.66666666666717</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5.843000000000002</v>
-      </c>
+        <v>5.83</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>5.8405</v>
-      </c>
-      <c r="N62" t="n">
-        <v>5.859000000000005</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3448,31 +2590,23 @@
         <v>5.887666666666679</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.1699999999999999</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>1.130000000000003</v>
+        <v>5.83</v>
       </c>
       <c r="K63" t="n">
-        <v>-66.66666666666717</v>
-      </c>
-      <c r="L63" t="n">
-        <v>5.839000000000002</v>
+        <v>5.83</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>5.8405</v>
-      </c>
-      <c r="N63" t="n">
-        <v>5.856333333333339</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3499,31 +2633,23 @@
         <v>5.885333333333345</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.1699999999999999</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1.130000000000003</v>
+        <v>5.83</v>
       </c>
       <c r="K64" t="n">
-        <v>-66.66666666666717</v>
-      </c>
-      <c r="L64" t="n">
-        <v>5.835000000000003</v>
+        <v>5.83</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>5.8405</v>
-      </c>
-      <c r="N64" t="n">
-        <v>5.853666666666673</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3550,31 +2676,19 @@
         <v>5.882833333333346</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.1399999999999997</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1.160000000000003</v>
+        <v>5.86</v>
       </c>
       <c r="K65" t="n">
-        <v>60.00000000000071</v>
-      </c>
-      <c r="L65" t="n">
-        <v>5.834000000000004</v>
-      </c>
+        <v>5.86</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>5.842000000000001</v>
-      </c>
-      <c r="N65" t="n">
-        <v>5.852000000000007</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3601,31 +2715,23 @@
         <v>5.879666666666679</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.1699999999999999</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1.190000000000003</v>
+        <v>5.83</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>5.834000000000005</v>
+        <v>5.86</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>5.842000000000001</v>
-      </c>
-      <c r="N66" t="n">
-        <v>5.84933333333334</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3652,31 +2758,23 @@
         <v>5.877000000000012</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.1399999999999997</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1.220000000000003</v>
+        <v>5.83</v>
       </c>
       <c r="K67" t="n">
-        <v>20.00000000000036</v>
-      </c>
-      <c r="L67" t="n">
-        <v>5.837000000000005</v>
+        <v>5.86</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>5.843500000000001</v>
-      </c>
-      <c r="N67" t="n">
-        <v>5.847666666666674</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,31 +2801,23 @@
         <v>5.874333333333346</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.1399999999999997</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.220000000000003</v>
+        <v>5.86</v>
       </c>
       <c r="K68" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L68" t="n">
-        <v>5.839000000000004</v>
+        <v>5.86</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>5.845000000000001</v>
-      </c>
-      <c r="N68" t="n">
-        <v>5.846000000000008</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3754,31 +2844,23 @@
         <v>5.873000000000014</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.1399999999999997</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1.220000000000003</v>
+        <v>5.86</v>
       </c>
       <c r="K69" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L69" t="n">
-        <v>5.842000000000004</v>
+        <v>5.86</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>5.846500000000001</v>
-      </c>
-      <c r="N69" t="n">
-        <v>5.844333333333342</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3805,31 +2887,23 @@
         <v>5.871333333333346</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.1600000000000001</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>1.240000000000004</v>
+        <v>5.84</v>
       </c>
       <c r="K70" t="n">
-        <v>9.090909090908797</v>
-      </c>
-      <c r="L70" t="n">
-        <v>5.843000000000005</v>
+        <v>5.86</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>5.847</v>
-      </c>
-      <c r="N70" t="n">
-        <v>5.844000000000009</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3856,31 +2930,23 @@
         <v>5.869666666666679</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.1600000000000001</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>1.240000000000004</v>
+        <v>5.84</v>
       </c>
       <c r="K71" t="n">
-        <v>9.090909090908797</v>
-      </c>
-      <c r="L71" t="n">
-        <v>5.844000000000006</v>
+        <v>5.86</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>5.847500000000001</v>
-      </c>
-      <c r="N71" t="n">
-        <v>5.841666666666677</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3907,31 +2973,23 @@
         <v>5.867833333333346</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.1699999999999999</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>1.250000000000004</v>
+        <v>5.83</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>5.844000000000006</v>
+        <v>5.86</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>5.843500000000001</v>
-      </c>
-      <c r="N72" t="n">
-        <v>5.841666666666677</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3958,31 +3016,23 @@
         <v>5.866666666666679</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.1299999999999999</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1.290000000000004</v>
+        <v>5.86</v>
       </c>
       <c r="K73" t="n">
-        <v>24.99999999999986</v>
-      </c>
-      <c r="L73" t="n">
-        <v>5.848000000000006</v>
+        <v>5.86</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>5.843500000000001</v>
-      </c>
-      <c r="N73" t="n">
-        <v>5.843000000000009</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4009,31 +3059,23 @@
         <v>5.867000000000012</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.1299999999999999</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.290000000000004</v>
+        <v>5.87</v>
       </c>
       <c r="K74" t="n">
-        <v>7.692307692307482</v>
-      </c>
-      <c r="L74" t="n">
-        <v>5.852000000000007</v>
+        <v>5.86</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>5.843500000000001</v>
-      </c>
-      <c r="N74" t="n">
-        <v>5.844333333333342</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4060,31 +3102,23 @@
         <v>5.867333333333345</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.1299999999999999</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1.290000000000004</v>
+        <v>5.87</v>
       </c>
       <c r="K75" t="n">
-        <v>39.99999999999982</v>
-      </c>
-      <c r="L75" t="n">
-        <v>5.853000000000007</v>
+        <v>5.86</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>5.843500000000001</v>
-      </c>
-      <c r="N75" t="n">
-        <v>5.845666666666675</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4111,31 +3145,23 @@
         <v>5.866500000000012</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.1200000000000001</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.300000000000003</v>
+        <v>5.88</v>
       </c>
       <c r="K76" t="n">
-        <v>24.99999999999945</v>
-      </c>
-      <c r="L76" t="n">
-        <v>5.858000000000007</v>
+        <v>5.86</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>5.846000000000001</v>
-      </c>
-      <c r="N76" t="n">
-        <v>5.847333333333341</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,31 +3188,23 @@
         <v>5.868000000000012</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.07000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.350000000000003</v>
+        <v>5.9</v>
       </c>
       <c r="K77" t="n">
-        <v>53.84615384615342</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5.865000000000007</v>
+        <v>5.86</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>5.851000000000001</v>
-      </c>
-      <c r="N77" t="n">
-        <v>5.850666666666674</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4216,28 +3234,18 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1.360000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>57.14285714285696</v>
-      </c>
-      <c r="L78" t="n">
-        <v>5.873000000000007</v>
+        <v>5.86</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>5.856000000000001</v>
-      </c>
-      <c r="N78" t="n">
-        <v>5.854333333333341</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4267,28 +3275,18 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J79" t="n">
-        <v>1.420000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>22.22222222222217</v>
-      </c>
-      <c r="L79" t="n">
-        <v>5.875000000000007</v>
+        <v>5.86</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>5.858500000000001</v>
-      </c>
-      <c r="N79" t="n">
-        <v>5.856000000000007</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4318,28 +3316,18 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1.430000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>15.78947368421063</v>
-      </c>
-      <c r="L80" t="n">
-        <v>5.878000000000007</v>
+        <v>5.86</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>5.860500000000001</v>
-      </c>
-      <c r="N80" t="n">
-        <v>5.85733333333334</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4369,28 +3357,18 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1.490000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>41.66666666666648</v>
-      </c>
-      <c r="L81" t="n">
-        <v>5.887000000000006</v>
+        <v>5.86</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>5.865500000000001</v>
-      </c>
-      <c r="N81" t="n">
-        <v>5.860666666666673</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4420,28 +3398,18 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1.540000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>3.999999999999915</v>
-      </c>
-      <c r="L82" t="n">
-        <v>5.892000000000006</v>
+        <v>5.86</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>5.868</v>
-      </c>
-      <c r="N82" t="n">
-        <v>5.859666666666673</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4471,28 +3439,18 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1.570000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L83" t="n">
-        <v>5.896000000000006</v>
+        <v>5.86</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>5.872000000000001</v>
-      </c>
-      <c r="N83" t="n">
-        <v>5.861000000000006</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4522,28 +3480,18 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>-0.1100000000000003</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1.590000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>6.666666666666508</v>
-      </c>
-      <c r="L84" t="n">
-        <v>5.898000000000005</v>
+        <v>5.86</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>5.875000000000001</v>
-      </c>
-      <c r="N84" t="n">
-        <v>5.861666666666673</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4573,28 +3521,18 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>-0.1100000000000003</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1.590000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>3.448275862068881</v>
-      </c>
-      <c r="L85" t="n">
-        <v>5.900000000000005</v>
+        <v>5.86</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>5.876500000000001</v>
-      </c>
-      <c r="N85" t="n">
-        <v>5.862333333333338</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4624,28 +3562,18 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.1399999999999997</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1.620000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>-25.92592592592566</v>
-      </c>
-      <c r="L86" t="n">
-        <v>5.898000000000005</v>
+        <v>5.86</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>5.878000000000001</v>
-      </c>
-      <c r="N86" t="n">
-        <v>5.863333333333339</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4675,28 +3603,18 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.1100000000000003</v>
-      </c>
-      <c r="J87" t="n">
-        <v>1.650000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>-17.24137931034512</v>
-      </c>
-      <c r="L87" t="n">
-        <v>5.894000000000005</v>
+        <v>5.86</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>5.879500000000001</v>
-      </c>
-      <c r="N87" t="n">
-        <v>5.865333333333338</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4726,28 +3644,18 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>-0.1100000000000003</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1.650000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>4.347826086956454</v>
-      </c>
-      <c r="L88" t="n">
-        <v>5.889000000000005</v>
+        <v>5.86</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>5.881000000000001</v>
-      </c>
-      <c r="N88" t="n">
-        <v>5.867000000000004</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4777,28 +3685,18 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1.670000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>0</v>
-      </c>
-      <c r="L89" t="n">
-        <v>5.888000000000004</v>
+        <v>5.86</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>5.881500000000001</v>
-      </c>
-      <c r="N89" t="n">
-        <v>5.868333333333337</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4828,28 +3726,18 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1.670000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L90" t="n">
-        <v>5.888000000000004</v>
+        <v>5.86</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>5.883000000000001</v>
-      </c>
-      <c r="N90" t="n">
-        <v>5.86966666666667</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4879,28 +3767,18 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1.670000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>-7.692307692307587</v>
-      </c>
-      <c r="L91" t="n">
-        <v>5.882000000000004</v>
+        <v>5.86</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>5.884500000000001</v>
-      </c>
-      <c r="N91" t="n">
-        <v>5.871000000000003</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4930,28 +3808,18 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1.670000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>-40.00000000000053</v>
-      </c>
-      <c r="L92" t="n">
-        <v>5.881000000000004</v>
+        <v>5.86</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>5.886500000000002</v>
-      </c>
-      <c r="N92" t="n">
-        <v>5.872333333333335</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4981,28 +3849,18 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1.670000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L93" t="n">
-        <v>5.877000000000004</v>
+        <v>5.86</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>5.886500000000002</v>
-      </c>
-      <c r="N93" t="n">
-        <v>5.873666666666669</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5032,28 +3890,18 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1.670000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L94" t="n">
-        <v>5.875000000000004</v>
+        <v>5.86</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>5.886500000000002</v>
-      </c>
-      <c r="N94" t="n">
-        <v>5.875000000000002</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5083,28 +3931,18 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1.670000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>20</v>
-      </c>
-      <c r="L95" t="n">
-        <v>5.873000000000005</v>
+        <v>5.86</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>5.886500000000002</v>
-      </c>
-      <c r="N95" t="n">
-        <v>5.875333333333335</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5134,28 +3972,18 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1.670000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L96" t="n">
-        <v>5.874000000000005</v>
+        <v>5.86</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>5.886000000000002</v>
-      </c>
-      <c r="N96" t="n">
-        <v>5.876666666666668</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5185,28 +4013,18 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1.670000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L97" t="n">
-        <v>5.872000000000005</v>
+        <v>5.86</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>5.883000000000003</v>
-      </c>
-      <c r="N97" t="n">
-        <v>5.877000000000001</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5236,26 +4054,18 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1.670000000000003</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>5.870000000000006</v>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>5.879500000000003</v>
-      </c>
-      <c r="N98" t="n">
-        <v>5.877333333333334</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5285,28 +4095,18 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.1399999999999997</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1.680000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L99" t="n">
-        <v>5.869000000000006</v>
+        <v>5.86</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>5.878500000000003</v>
-      </c>
-      <c r="N99" t="n">
-        <v>5.877333333333334</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5336,28 +4136,18 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1.700000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L100" t="n">
-        <v>5.870000000000006</v>
+        <v>5.86</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>5.879000000000003</v>
-      </c>
-      <c r="N100" t="n">
-        <v>5.878666666666667</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5387,28 +4177,18 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.1600000000000001</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1.740000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>-42.85714285714358</v>
-      </c>
-      <c r="L101" t="n">
-        <v>5.867000000000006</v>
+        <v>5.86</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>5.874500000000003</v>
-      </c>
-      <c r="N101" t="n">
-        <v>5.878666666666667</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5438,28 +4218,18 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-0.1600000000000001</v>
-      </c>
-      <c r="J102" t="n">
-        <v>1.740000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>-42.85714285714358</v>
-      </c>
-      <c r="L102" t="n">
-        <v>5.864000000000006</v>
+        <v>5.86</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>5.872500000000004</v>
-      </c>
-      <c r="N102" t="n">
-        <v>5.879</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5489,28 +4259,18 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.1600000000000001</v>
-      </c>
-      <c r="J103" t="n">
-        <v>1.740000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>-42.85714285714358</v>
-      </c>
-      <c r="L103" t="n">
-        <v>5.861000000000006</v>
+        <v>5.86</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>5.869000000000004</v>
-      </c>
-      <c r="N103" t="n">
-        <v>5.878</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5537,31 +4297,23 @@
         <v>5.86066666666667</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>-0.1600000000000001</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>1.740000000000002</v>
+        <v>5.84</v>
       </c>
       <c r="K104" t="n">
-        <v>-42.85714285714358</v>
-      </c>
-      <c r="L104" t="n">
-        <v>5.858000000000006</v>
+        <v>5.86</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M104" t="n">
-        <v>5.866500000000004</v>
-      </c>
-      <c r="N104" t="n">
-        <v>5.877</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5588,31 +4340,23 @@
         <v>5.860833333333336</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>-0.1600000000000001</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>1.740000000000002</v>
+        <v>5.84</v>
       </c>
       <c r="K105" t="n">
-        <v>-42.85714285714358</v>
-      </c>
-      <c r="L105" t="n">
-        <v>5.855000000000006</v>
+        <v>5.86</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M105" t="n">
-        <v>5.864000000000004</v>
-      </c>
-      <c r="N105" t="n">
-        <v>5.876</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5639,31 +4383,23 @@
         <v>5.861000000000002</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.1600000000000001</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>1.740000000000002</v>
+        <v>5.84</v>
       </c>
       <c r="K106" t="n">
-        <v>-42.85714285714358</v>
-      </c>
-      <c r="L106" t="n">
-        <v>5.852000000000006</v>
+        <v>5.86</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M106" t="n">
-        <v>5.863000000000005</v>
-      </c>
-      <c r="N106" t="n">
-        <v>5.874666666666667</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5690,31 +4426,23 @@
         <v>5.861166666666668</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.1600000000000001</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>1.740000000000002</v>
+        <v>5.83</v>
       </c>
       <c r="K107" t="n">
-        <v>-42.85714285714358</v>
-      </c>
-      <c r="L107" t="n">
-        <v>5.849000000000006</v>
+        <v>5.86</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M107" t="n">
-        <v>5.860500000000004</v>
-      </c>
-      <c r="N107" t="n">
-        <v>5.871666666666667</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5741,31 +4469,23 @@
         <v>5.861333333333335</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.1600000000000001</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>1.740000000000002</v>
+        <v>5.84</v>
       </c>
       <c r="K108" t="n">
-        <v>-33.33333333333432</v>
-      </c>
-      <c r="L108" t="n">
-        <v>5.846000000000005</v>
+        <v>5.86</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M108" t="n">
-        <v>5.858000000000005</v>
-      </c>
-      <c r="N108" t="n">
-        <v>5.868333333333334</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5792,31 +4512,23 @@
         <v>5.861500000000002</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>-0.1600000000000001</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>1.740000000000002</v>
+        <v>5.84</v>
       </c>
       <c r="K109" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L109" t="n">
-        <v>5.844000000000006</v>
+        <v>5.86</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M109" t="n">
-        <v>5.856500000000005</v>
-      </c>
-      <c r="N109" t="n">
-        <v>5.867000000000001</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5843,29 +4555,23 @@
         <v>5.861666666666668</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>-0.1600000000000001</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>1.740000000000002</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>5.840000000000005</v>
+        <v>5.84</v>
+      </c>
+      <c r="K110" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M110" t="n">
-        <v>5.855000000000005</v>
-      </c>
-      <c r="N110" t="n">
-        <v>5.866000000000001</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5892,29 +4598,23 @@
         <v>5.861833333333335</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>-0.1600000000000001</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>1.740000000000002</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>5.840000000000005</v>
+        <v>5.84</v>
+      </c>
+      <c r="K111" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M111" t="n">
-        <v>5.853500000000005</v>
-      </c>
-      <c r="N111" t="n">
-        <v>5.863</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5941,29 +4641,23 @@
         <v>5.860666666666668</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>-0.1600000000000001</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>1.740000000000002</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>5.840000000000005</v>
+        <v>5.84</v>
+      </c>
+      <c r="K112" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M112" t="n">
-        <v>5.852000000000005</v>
-      </c>
-      <c r="N112" t="n">
-        <v>5.861666666666667</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5990,31 +4684,23 @@
         <v>5.860666666666668</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>-0.1299999999999999</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>1.770000000000002</v>
+        <v>5.87</v>
       </c>
       <c r="K113" t="n">
-        <v>100</v>
-      </c>
-      <c r="L113" t="n">
-        <v>5.843000000000005</v>
+        <v>5.86</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M113" t="n">
-        <v>5.852000000000005</v>
-      </c>
-      <c r="N113" t="n">
-        <v>5.860333333333334</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6041,31 +4727,23 @@
         <v>5.860166666666667</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>-0.1600000000000001</v>
+        <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>1.800000000000002</v>
+        <v>5.87</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
-      </c>
-      <c r="L114" t="n">
-        <v>5.843000000000005</v>
+        <v>5.86</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M114" t="n">
-        <v>5.850500000000005</v>
-      </c>
-      <c r="N114" t="n">
-        <v>5.858666666666668</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6092,31 +4770,23 @@
         <v>5.859666666666667</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>-0.1600000000000001</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>1.800000000000002</v>
+        <v>5.84</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
-      </c>
-      <c r="L115" t="n">
-        <v>5.843000000000005</v>
+        <v>5.86</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M115" t="n">
-        <v>5.849000000000005</v>
-      </c>
-      <c r="N115" t="n">
-        <v>5.857000000000002</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6143,31 +4813,23 @@
         <v>5.859833333333333</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>-0.1600000000000001</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>1.800000000000002</v>
+        <v>5.84</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
-      </c>
-      <c r="L116" t="n">
-        <v>5.843000000000005</v>
+        <v>5.86</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M116" t="n">
-        <v>5.847500000000005</v>
-      </c>
-      <c r="N116" t="n">
-        <v>5.856333333333335</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6194,31 +4856,23 @@
         <v>5.859999999999999</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>-0.1600000000000001</v>
+        <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>1.800000000000002</v>
+        <v>5.84</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
-      </c>
-      <c r="L117" t="n">
-        <v>5.843000000000005</v>
+        <v>5.86</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M117" t="n">
-        <v>5.846000000000005</v>
-      </c>
-      <c r="N117" t="n">
-        <v>5.854666666666669</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6245,31 +4899,23 @@
         <v>5.859999999999999</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>-0.1600000000000001</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>1.800000000000002</v>
+        <v>5.84</v>
       </c>
       <c r="K118" t="n">
-        <v>0</v>
-      </c>
-      <c r="L118" t="n">
-        <v>5.843000000000005</v>
+        <v>5.86</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M118" t="n">
-        <v>5.844500000000004</v>
-      </c>
-      <c r="N118" t="n">
-        <v>5.853000000000003</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6296,31 +4942,23 @@
         <v>5.860833333333333</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>-0.1200000000000001</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>1.840000000000003</v>
+        <v>5.87</v>
       </c>
       <c r="K119" t="n">
-        <v>39.99999999999982</v>
-      </c>
-      <c r="L119" t="n">
-        <v>5.847000000000004</v>
+        <v>5.86</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M119" t="n">
-        <v>5.845500000000004</v>
-      </c>
-      <c r="N119" t="n">
-        <v>5.853333333333336</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6347,31 +4985,23 @@
         <v>5.861666666666666</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>-0.1200000000000001</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1.840000000000003</v>
+        <v>5.88</v>
       </c>
       <c r="K120" t="n">
-        <v>39.99999999999982</v>
-      </c>
-      <c r="L120" t="n">
-        <v>5.851000000000004</v>
+        <v>5.86</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M120" t="n">
-        <v>5.845500000000004</v>
-      </c>
-      <c r="N120" t="n">
-        <v>5.853666666666669</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,31 +5028,23 @@
         <v>5.8625</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>-0.1200000000000001</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>1.840000000000003</v>
+        <v>5.88</v>
       </c>
       <c r="K121" t="n">
-        <v>39.99999999999982</v>
-      </c>
-      <c r="L121" t="n">
-        <v>5.855000000000002</v>
+        <v>5.86</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M121" t="n">
-        <v>5.847500000000004</v>
-      </c>
-      <c r="N121" t="n">
-        <v>5.854000000000002</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6449,31 +5071,23 @@
         <v>5.863333333333333</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
-        <v>-0.1200000000000001</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>1.840000000000003</v>
+        <v>5.88</v>
       </c>
       <c r="K122" t="n">
-        <v>14.28571428571392</v>
-      </c>
-      <c r="L122" t="n">
-        <v>5.859000000000002</v>
+        <v>5.86</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M122" t="n">
-        <v>5.849500000000003</v>
-      </c>
-      <c r="N122" t="n">
-        <v>5.854333333333335</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6500,31 +5114,23 @@
         <v>5.863833333333334</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>-0.1399999999999997</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>1.860000000000002</v>
+        <v>5.93</v>
       </c>
       <c r="K123" t="n">
-        <v>33.33333333333432</v>
-      </c>
-      <c r="L123" t="n">
-        <v>5.858000000000002</v>
+        <v>5.86</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M123" t="n">
-        <v>5.850500000000003</v>
-      </c>
-      <c r="N123" t="n">
-        <v>5.854000000000002</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6554,28 +5160,18 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>-0.1399999999999997</v>
-      </c>
-      <c r="J124" t="n">
-        <v>1.860000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>33.33333333333432</v>
-      </c>
-      <c r="L124" t="n">
-        <v>5.860000000000002</v>
+        <v>5.86</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M124" t="n">
-        <v>5.851500000000003</v>
-      </c>
-      <c r="N124" t="n">
-        <v>5.853666666666669</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6605,28 +5201,18 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J125" t="n">
-        <v>1.930000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>69.23076923076965</v>
-      </c>
-      <c r="L125" t="n">
-        <v>5.869000000000002</v>
+        <v>5.86</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M125" t="n">
-        <v>5.856000000000003</v>
-      </c>
-      <c r="N125" t="n">
-        <v>5.855666666666669</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6656,28 +5242,18 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J126" t="n">
-        <v>1.940000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>71.42857142857197</v>
-      </c>
-      <c r="L126" t="n">
-        <v>5.879000000000002</v>
+        <v>5.86</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M126" t="n">
-        <v>5.861000000000002</v>
-      </c>
-      <c r="N126" t="n">
-        <v>5.858000000000002</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6707,28 +5283,18 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J127" t="n">
-        <v>1.950000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>59.99999999999977</v>
-      </c>
-      <c r="L127" t="n">
-        <v>5.888000000000003</v>
+        <v>5.86</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M127" t="n">
-        <v>5.865500000000003</v>
-      </c>
-      <c r="N127" t="n">
-        <v>5.860000000000002</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6758,28 +5324,18 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J128" t="n">
-        <v>2.000000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>0</v>
-      </c>
-      <c r="L128" t="n">
-        <v>5.892000000000001</v>
+        <v>5.86</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M128" t="n">
-        <v>5.867500000000002</v>
-      </c>
-      <c r="N128" t="n">
-        <v>5.860333333333335</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6809,28 +5365,18 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J129" t="n">
-        <v>2.060000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>27.27272727272742</v>
-      </c>
-      <c r="L129" t="n">
-        <v>5.898000000000001</v>
+        <v>5.86</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M129" t="n">
-        <v>5.872500000000002</v>
-      </c>
-      <c r="N129" t="n">
-        <v>5.863000000000001</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6860,28 +5406,18 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J130" t="n">
-        <v>2.100000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>7.69230769230785</v>
-      </c>
-      <c r="L130" t="n">
-        <v>5.9</v>
+        <v>5.86</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M130" t="n">
-        <v>5.875500000000002</v>
-      </c>
-      <c r="N130" t="n">
-        <v>5.863666666666669</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6911,28 +5447,18 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J131" t="n">
-        <v>2.110000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>11.11111111111118</v>
-      </c>
-      <c r="L131" t="n">
-        <v>5.903</v>
+        <v>5.86</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M131" t="n">
-        <v>5.879000000000002</v>
-      </c>
-      <c r="N131" t="n">
-        <v>5.866000000000001</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6962,28 +5488,18 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J132" t="n">
-        <v>2.150000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>3.448275862068881</v>
-      </c>
-      <c r="L132" t="n">
-        <v>5.902</v>
+        <v>5.86</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M132" t="n">
-        <v>5.880500000000002</v>
-      </c>
-      <c r="N132" t="n">
-        <v>5.867000000000002</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7013,28 +5529,18 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J133" t="n">
-        <v>2.180000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>12.49999999999996</v>
-      </c>
-      <c r="L133" t="n">
-        <v>5.906000000000001</v>
+        <v>5.86</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M133" t="n">
-        <v>5.882000000000002</v>
-      </c>
-      <c r="N133" t="n">
-        <v>5.869000000000002</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7064,28 +5570,18 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>-0.1399999999999997</v>
-      </c>
-      <c r="J134" t="n">
-        <v>2.220000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>-24.1379310344824</v>
-      </c>
-      <c r="L134" t="n">
-        <v>5.906000000000001</v>
+        <v>5.86</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M134" t="n">
-        <v>5.883000000000002</v>
-      </c>
-      <c r="N134" t="n">
-        <v>5.869666666666669</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7115,28 +5611,18 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>-0.1399999999999997</v>
-      </c>
-      <c r="J135" t="n">
-        <v>2.220000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>-28.57142857142848</v>
-      </c>
-      <c r="L135" t="n">
-        <v>5.899</v>
+        <v>5.86</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M135" t="n">
-        <v>5.884000000000002</v>
-      </c>
-      <c r="N135" t="n">
-        <v>5.870333333333336</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7166,28 +5652,18 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J136" t="n">
-        <v>2.290000000000003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>0</v>
-      </c>
-      <c r="L136" t="n">
-        <v>5.898000000000001</v>
+        <v>5.86</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M136" t="n">
-        <v>5.888500000000002</v>
-      </c>
-      <c r="N136" t="n">
-        <v>5.873333333333336</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7217,28 +5693,18 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>-0.1399999999999997</v>
-      </c>
-      <c r="J137" t="n">
-        <v>2.360000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>-5.555555555555445</v>
-      </c>
-      <c r="L137" t="n">
-        <v>5.891</v>
+        <v>5.86</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M137" t="n">
-        <v>5.889500000000002</v>
-      </c>
-      <c r="N137" t="n">
-        <v>5.874000000000003</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7268,28 +5734,18 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J138" t="n">
-        <v>2.370000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>-22.58064516129051</v>
-      </c>
-      <c r="L138" t="n">
-        <v>5.89</v>
+        <v>5.86</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M138" t="n">
-        <v>5.891000000000002</v>
-      </c>
-      <c r="N138" t="n">
-        <v>5.875000000000003</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7319,28 +5775,18 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J139" t="n">
-        <v>2.430000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>9.090909090908944</v>
-      </c>
-      <c r="L139" t="n">
-        <v>5.889</v>
+        <v>5.86</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M139" t="n">
-        <v>5.893500000000001</v>
-      </c>
-      <c r="N139" t="n">
-        <v>5.878000000000003</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7370,28 +5816,18 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>-0.1399999999999997</v>
-      </c>
-      <c r="J140" t="n">
-        <v>2.500000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>-12.82051282051284</v>
-      </c>
-      <c r="L140" t="n">
-        <v>5.885</v>
+        <v>5.86</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M140" t="n">
-        <v>5.892500000000002</v>
-      </c>
-      <c r="N140" t="n">
-        <v>5.87866666666667</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7421,28 +5857,18 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J141" t="n">
-        <v>2.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L141" t="n">
-        <v>5.887</v>
+        <v>5.86</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M141" t="n">
-        <v>5.895000000000001</v>
-      </c>
-      <c r="N141" t="n">
-        <v>5.88166666666667</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7472,28 +5898,18 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>-0.1399999999999997</v>
-      </c>
-      <c r="J142" t="n">
-        <v>2.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>-8.695652173913119</v>
-      </c>
-      <c r="L142" t="n">
-        <v>5.886000000000001</v>
+        <v>5.86</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M142" t="n">
-        <v>5.894000000000002</v>
-      </c>
-      <c r="N142" t="n">
-        <v>5.882333333333337</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7523,28 +5939,18 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J143" t="n">
-        <v>2.709999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L143" t="n">
-        <v>5.889000000000001</v>
+        <v>5.86</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M143" t="n">
-        <v>5.897500000000002</v>
-      </c>
-      <c r="N143" t="n">
-        <v>5.884333333333337</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7574,28 +5980,18 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>-0.1399999999999997</v>
-      </c>
-      <c r="J144" t="n">
-        <v>2.779999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>0</v>
-      </c>
-      <c r="L144" t="n">
-        <v>5.889000000000001</v>
+        <v>5.86</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M144" t="n">
-        <v>5.897500000000002</v>
-      </c>
-      <c r="N144" t="n">
-        <v>5.885000000000004</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7625,28 +6021,18 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J145" t="n">
-        <v>2.839999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>-1.818181818181795</v>
-      </c>
-      <c r="L145" t="n">
-        <v>5.895000000000001</v>
+        <v>5.86</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M145" t="n">
-        <v>5.897000000000001</v>
-      </c>
-      <c r="N145" t="n">
-        <v>5.887666666666671</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7676,28 +6062,18 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>-0.1399999999999997</v>
-      </c>
-      <c r="J146" t="n">
-        <v>2.899999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>0</v>
-      </c>
-      <c r="L146" t="n">
-        <v>5.888000000000002</v>
+        <v>5.86</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M146" t="n">
-        <v>5.893000000000002</v>
-      </c>
-      <c r="N146" t="n">
-        <v>5.888333333333337</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7727,28 +6103,18 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J147" t="n">
-        <v>2.979999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>11.4754098360657</v>
-      </c>
-      <c r="L147" t="n">
-        <v>5.896000000000003</v>
+        <v>5.86</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M147" t="n">
-        <v>5.893500000000001</v>
-      </c>
-      <c r="N147" t="n">
-        <v>5.89166666666667</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7778,28 +6144,18 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J148" t="n">
-        <v>2.979999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>1.818181818181953</v>
-      </c>
-      <c r="L148" t="n">
-        <v>5.903000000000002</v>
+        <v>5.86</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M148" t="n">
-        <v>5.896500000000001</v>
-      </c>
-      <c r="N148" t="n">
-        <v>5.895000000000004</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7829,28 +6185,18 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J149" t="n">
-        <v>2.999999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>11.99999999999999</v>
-      </c>
-      <c r="L149" t="n">
-        <v>5.902000000000002</v>
+        <v>5.86</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M149" t="n">
-        <v>5.895500000000002</v>
-      </c>
-      <c r="N149" t="n">
-        <v>5.896333333333336</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7880,28 +6226,18 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J150" t="n">
-        <v>2.999999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>-2.325581395348799</v>
-      </c>
-      <c r="L150" t="n">
-        <v>5.908000000000001</v>
+        <v>5.86</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M150" t="n">
-        <v>5.896500000000001</v>
-      </c>
-      <c r="N150" t="n">
-        <v>5.897666666666669</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7931,28 +6267,18 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J151" t="n">
-        <v>3.049999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>2.43902439024386</v>
-      </c>
-      <c r="L151" t="n">
-        <v>5.902000000000002</v>
+        <v>5.86</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M151" t="n">
-        <v>5.894500000000003</v>
-      </c>
-      <c r="N151" t="n">
-        <v>5.897333333333337</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7982,28 +6308,18 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>-0.1100000000000003</v>
-      </c>
-      <c r="J152" t="n">
-        <v>3.069999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>-11.11111111111117</v>
-      </c>
-      <c r="L152" t="n">
-        <v>5.905000000000001</v>
+        <v>5.86</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M152" t="n">
-        <v>5.895500000000002</v>
-      </c>
-      <c r="N152" t="n">
-        <v>5.897666666666669</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8033,28 +6349,18 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>-0.1399999999999997</v>
-      </c>
-      <c r="J153" t="n">
-        <v>3.099999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>0</v>
-      </c>
-      <c r="L153" t="n">
-        <v>5.898000000000001</v>
+        <v>5.86</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M153" t="n">
-        <v>5.893500000000001</v>
-      </c>
-      <c r="N153" t="n">
-        <v>5.897666666666669</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8084,28 +6390,18 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>-0.1399999999999997</v>
-      </c>
-      <c r="J154" t="n">
-        <v>3.099999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>-23.07692307692303</v>
-      </c>
-      <c r="L154" t="n">
-        <v>5.898000000000001</v>
+        <v>5.86</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M154" t="n">
-        <v>5.893500000000001</v>
-      </c>
-      <c r="N154" t="n">
-        <v>5.897666666666669</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8135,28 +6431,18 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>-0.1900000000000004</v>
-      </c>
-      <c r="J155" t="n">
-        <v>3.149999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>-20.00000000000028</v>
-      </c>
-      <c r="L155" t="n">
-        <v>5.887000000000002</v>
+        <v>5.86</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M155" t="n">
-        <v>5.891000000000002</v>
-      </c>
-      <c r="N155" t="n">
-        <v>5.89366666666667</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8186,28 +6472,18 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>-0.1799999999999997</v>
-      </c>
-      <c r="J156" t="n">
-        <v>3.159999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>-66.6666666666665</v>
-      </c>
-      <c r="L156" t="n">
-        <v>5.883000000000003</v>
+        <v>5.86</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M156" t="n">
-        <v>5.885500000000002</v>
-      </c>
-      <c r="N156" t="n">
-        <v>5.889666666666669</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8237,28 +6513,18 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>-0.1100000000000003</v>
-      </c>
-      <c r="J157" t="n">
-        <v>3.229999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>-20.00000000000028</v>
-      </c>
-      <c r="L157" t="n">
-        <v>5.878000000000003</v>
+        <v>5.86</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M157" t="n">
-        <v>5.887000000000002</v>
-      </c>
-      <c r="N157" t="n">
-        <v>5.888333333333335</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8288,28 +6554,18 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>-0.1799999999999997</v>
-      </c>
-      <c r="J158" t="n">
-        <v>3.299999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L158" t="n">
-        <v>5.866000000000002</v>
+        <v>5.86</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M158" t="n">
-        <v>5.884500000000001</v>
-      </c>
-      <c r="N158" t="n">
-        <v>5.886333333333336</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8339,28 +6595,18 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>-0.1900000000000004</v>
-      </c>
-      <c r="J159" t="n">
-        <v>3.309999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>-35.48387096774208</v>
-      </c>
-      <c r="L159" t="n">
-        <v>5.855000000000002</v>
+        <v>5.86</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M159" t="n">
-        <v>5.878500000000001</v>
-      </c>
-      <c r="N159" t="n">
-        <v>5.882000000000002</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8390,28 +6636,18 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>-0.1799999999999997</v>
-      </c>
-      <c r="J160" t="n">
-        <v>3.319999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>-18.51851851851842</v>
-      </c>
-      <c r="L160" t="n">
-        <v>5.845000000000003</v>
+        <v>5.86</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M160" t="n">
-        <v>5.876500000000001</v>
-      </c>
-      <c r="N160" t="n">
-        <v>5.879333333333335</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8441,28 +6677,18 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>-0.1799999999999997</v>
-      </c>
-      <c r="J161" t="n">
-        <v>3.319999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>-27.99999999999966</v>
-      </c>
-      <c r="L161" t="n">
-        <v>5.840000000000004</v>
+        <v>5.86</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M161" t="n">
-        <v>5.871</v>
-      </c>
-      <c r="N161" t="n">
-        <v>5.876333333333335</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8489,31 +6715,23 @@
         <v>5.871000000000004</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
-        <v>-0.1699999999999999</v>
+        <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>3.329999999999998</v>
+        <v>5.83</v>
       </c>
       <c r="K162" t="n">
-        <v>-13.0434782608696</v>
-      </c>
-      <c r="L162" t="n">
-        <v>5.834000000000005</v>
+        <v>5.86</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M162" t="n">
-        <v>5.8695</v>
-      </c>
-      <c r="N162" t="n">
-        <v>5.875000000000002</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8543,28 +6761,18 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J163" t="n">
-        <v>3.379999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>7.142857142856962</v>
-      </c>
-      <c r="L163" t="n">
-        <v>5.836000000000004</v>
+        <v>5.86</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M163" t="n">
-        <v>5.867</v>
-      </c>
-      <c r="N163" t="n">
-        <v>5.874333333333335</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8591,31 +6799,23 @@
         <v>5.871333333333338</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
-        <v>-0.1799999999999997</v>
+        <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>3.439999999999998</v>
+        <v>5.82</v>
       </c>
       <c r="K164" t="n">
-        <v>3.448275862069198</v>
-      </c>
-      <c r="L164" t="n">
-        <v>5.832000000000003</v>
+        <v>5.86</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M164" t="n">
-        <v>5.865</v>
-      </c>
-      <c r="N164" t="n">
-        <v>5.873000000000001</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8645,28 +6845,18 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>-0.1100000000000003</v>
-      </c>
-      <c r="J165" t="n">
-        <v>3.509999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>19.9999999999999</v>
-      </c>
-      <c r="L165" t="n">
-        <v>5.840000000000003</v>
+        <v>5.86</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M165" t="n">
-        <v>5.8635</v>
-      </c>
-      <c r="N165" t="n">
-        <v>5.874</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8693,31 +6883,23 @@
         <v>5.873000000000005</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
-        <v>-0.1100000000000003</v>
+        <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>3.509999999999997</v>
+        <v>5.89</v>
       </c>
       <c r="K166" t="n">
-        <v>0</v>
-      </c>
-      <c r="L166" t="n">
-        <v>5.847000000000003</v>
+        <v>5.86</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M166" t="n">
-        <v>5.865</v>
-      </c>
-      <c r="N166" t="n">
-        <v>5.872666666666666</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8747,28 +6929,18 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J167" t="n">
-        <v>3.519999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>27.27272727272713</v>
-      </c>
-      <c r="L167" t="n">
-        <v>5.846000000000004</v>
+        <v>5.86</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M167" t="n">
-        <v>5.862</v>
-      </c>
-      <c r="N167" t="n">
-        <v>5.873333333333332</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8798,28 +6970,18 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>-0.1799999999999997</v>
-      </c>
-      <c r="J168" t="n">
-        <v>3.579999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>3.703703703703972</v>
-      </c>
-      <c r="L168" t="n">
-        <v>5.846000000000003</v>
+        <v>5.86</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M168" t="n">
-        <v>5.856</v>
-      </c>
-      <c r="N168" t="n">
-        <v>5.871666666666665</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8849,28 +7011,18 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>-0.1799999999999997</v>
-      </c>
-      <c r="J169" t="n">
-        <v>3.579999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>0</v>
-      </c>
-      <c r="L169" t="n">
-        <v>5.847000000000003</v>
+        <v>5.86</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M169" t="n">
-        <v>5.851</v>
-      </c>
-      <c r="N169" t="n">
-        <v>5.867999999999998</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8897,31 +7049,23 @@
         <v>5.872500000000006</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
-        <v>-0.1900000000000004</v>
+        <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>3.589999999999997</v>
+        <v>5.82</v>
       </c>
       <c r="K170" t="n">
-        <v>-3.703703703703972</v>
-      </c>
-      <c r="L170" t="n">
-        <v>5.846000000000003</v>
+        <v>5.86</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M170" t="n">
-        <v>5.845499999999999</v>
-      </c>
-      <c r="N170" t="n">
-        <v>5.866333333333331</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8948,31 +7092,23 @@
         <v>5.873000000000006</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
-        <v>-0.1299999999999999</v>
+        <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>3.649999999999998</v>
+        <v>5.81</v>
       </c>
       <c r="K171" t="n">
-        <v>12.50000000000004</v>
-      </c>
-      <c r="L171" t="n">
-        <v>5.851000000000003</v>
+        <v>5.86</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M171" t="n">
-        <v>5.845499999999999</v>
-      </c>
-      <c r="N171" t="n">
-        <v>5.864333333333331</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8999,31 +7135,23 @@
         <v>5.872666666666674</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
-        <v>-0.1799999999999997</v>
+        <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>3.699999999999998</v>
+        <v>5.81</v>
       </c>
       <c r="K172" t="n">
-        <v>-18.74999999999991</v>
-      </c>
-      <c r="L172" t="n">
-        <v>5.850000000000003</v>
+        <v>5.86</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M172" t="n">
-        <v>5.842</v>
-      </c>
-      <c r="N172" t="n">
-        <v>5.862999999999997</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9050,31 +7178,23 @@
         <v>5.87283333333334</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
-        <v>-0.1200000000000001</v>
+        <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>3.759999999999997</v>
+        <v>5.87</v>
       </c>
       <c r="K173" t="n">
-        <v>18.74999999999991</v>
-      </c>
-      <c r="L173" t="n">
-        <v>5.850000000000002</v>
+        <v>5.86</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M173" t="n">
-        <v>5.842999999999999</v>
-      </c>
-      <c r="N173" t="n">
-        <v>5.86133333333333</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9101,31 +7221,23 @@
         <v>5.873500000000007</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
-        <v>-0.1200000000000001</v>
+        <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>3.759999999999997</v>
+        <v>5.88</v>
       </c>
       <c r="K174" t="n">
-        <v>-3.999999999999915</v>
-      </c>
-      <c r="L174" t="n">
-        <v>5.856000000000003</v>
+        <v>5.86</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M174" t="n">
-        <v>5.843999999999999</v>
-      </c>
-      <c r="N174" t="n">
-        <v>5.861999999999996</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9152,31 +7264,23 @@
         <v>5.874166666666674</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
-        <v>-0.1200000000000001</v>
+        <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>3.759999999999997</v>
+        <v>5.88</v>
       </c>
       <c r="K175" t="n">
-        <v>-3.999999999999915</v>
-      </c>
-      <c r="L175" t="n">
-        <v>5.855000000000002</v>
+        <v>5.86</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M175" t="n">
-        <v>5.847499999999998</v>
-      </c>
-      <c r="N175" t="n">
-        <v>5.860666666666662</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9203,31 +7307,23 @@
         <v>5.875833333333341</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
-        <v>-0.05999999999999961</v>
+        <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>3.819999999999998</v>
+        <v>5.89</v>
       </c>
       <c r="K176" t="n">
-        <v>20.00000000000012</v>
-      </c>
-      <c r="L176" t="n">
-        <v>5.860000000000002</v>
+        <v>5.86</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M176" t="n">
-        <v>5.853499999999999</v>
-      </c>
-      <c r="N176" t="n">
-        <v>5.863333333333329</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9257,28 +7353,18 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J177" t="n">
-        <v>3.819999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>49.99999999999982</v>
-      </c>
-      <c r="L177" t="n">
-        <v>5.866000000000001</v>
+        <v>5.86</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M177" t="n">
-        <v>5.855999999999998</v>
-      </c>
-      <c r="N177" t="n">
-        <v>5.863333333333329</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9308,28 +7394,18 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J178" t="n">
-        <v>3.819999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>49.99999999999982</v>
-      </c>
-      <c r="L178" t="n">
-        <v>5.878000000000002</v>
+        <v>5.86</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M178" t="n">
-        <v>5.861999999999997</v>
-      </c>
-      <c r="N178" t="n">
-        <v>5.863333333333329</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9359,28 +7435,18 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J179" t="n">
-        <v>3.819999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>56.52173913043502</v>
-      </c>
-      <c r="L179" t="n">
-        <v>5.890000000000002</v>
+        <v>5.86</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M179" t="n">
-        <v>5.868499999999997</v>
-      </c>
-      <c r="N179" t="n">
-        <v>5.863999999999995</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9410,28 +7476,18 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J180" t="n">
-        <v>3.819999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>41.17647058823548</v>
-      </c>
-      <c r="L180" t="n">
-        <v>5.903000000000003</v>
+        <v>5.86</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M180" t="n">
-        <v>5.874499999999998</v>
-      </c>
-      <c r="N180" t="n">
-        <v>5.864666666666663</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9461,28 +7517,18 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J181" t="n">
-        <v>3.889999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>26.31578947368406</v>
-      </c>
-      <c r="L181" t="n">
-        <v>5.903000000000004</v>
+        <v>5.86</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M181" t="n">
-        <v>5.876999999999998</v>
-      </c>
-      <c r="N181" t="n">
-        <v>5.864666666666663</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9512,28 +7558,18 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J182" t="n">
-        <v>3.959999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>30.00000000000009</v>
-      </c>
-      <c r="L182" t="n">
-        <v>5.915000000000004</v>
+        <v>5.86</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M182" t="n">
-        <v>5.882499999999999</v>
-      </c>
-      <c r="N182" t="n">
-        <v>5.86633333333333</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9563,28 +7599,18 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J183" t="n">
-        <v>3.959999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>30.00000000000009</v>
-      </c>
-      <c r="L183" t="n">
-        <v>5.921000000000005</v>
+        <v>5.86</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M183" t="n">
-        <v>5.885499999999999</v>
-      </c>
-      <c r="N183" t="n">
-        <v>5.868999999999996</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9614,28 +7640,18 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J184" t="n">
-        <v>3.959999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>30.00000000000009</v>
-      </c>
-      <c r="L184" t="n">
-        <v>5.927000000000005</v>
+        <v>5.86</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M184" t="n">
-        <v>5.891499999999998</v>
-      </c>
-      <c r="N184" t="n">
-        <v>5.871666666666662</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9665,28 +7681,18 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J185" t="n">
-        <v>3.959999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>0</v>
-      </c>
-      <c r="L185" t="n">
-        <v>5.933000000000005</v>
+        <v>5.86</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M185" t="n">
-        <v>5.893999999999997</v>
-      </c>
-      <c r="N185" t="n">
-        <v>5.875999999999995</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9716,28 +7722,18 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J186" t="n">
-        <v>3.959999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>0</v>
-      </c>
-      <c r="L186" t="n">
-        <v>5.933000000000005</v>
+        <v>5.86</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M186" t="n">
-        <v>5.896499999999998</v>
-      </c>
-      <c r="N186" t="n">
-        <v>5.879999999999995</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9767,28 +7763,18 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J187" t="n">
-        <v>3.959999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>0</v>
-      </c>
-      <c r="L187" t="n">
-        <v>5.933000000000005</v>
+        <v>5.86</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M187" t="n">
-        <v>5.899499999999998</v>
-      </c>
-      <c r="N187" t="n">
-        <v>5.881666666666662</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9818,28 +7804,18 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J188" t="n">
-        <v>4.029999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L188" t="n">
-        <v>5.926000000000006</v>
+        <v>5.86</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M188" t="n">
-        <v>5.901999999999998</v>
-      </c>
-      <c r="N188" t="n">
-        <v>5.883333333333329</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9869,28 +7845,18 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J189" t="n">
-        <v>4.099999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>0</v>
-      </c>
-      <c r="L189" t="n">
-        <v>5.926000000000006</v>
+        <v>5.86</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M189" t="n">
-        <v>5.907999999999999</v>
-      </c>
-      <c r="N189" t="n">
-        <v>5.887666666666663</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9920,28 +7886,18 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>-0.1399999999999997</v>
-      </c>
-      <c r="J190" t="n">
-        <v>4.179999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>-3.448275862068881</v>
-      </c>
-      <c r="L190" t="n">
-        <v>5.918000000000006</v>
+        <v>5.86</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M190" t="n">
-        <v>5.910499999999998</v>
-      </c>
-      <c r="N190" t="n">
-        <v>5.888999999999997</v>
-      </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9971,28 +7927,18 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J191" t="n">
-        <v>4.249999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>-3.448275862069198</v>
-      </c>
-      <c r="L191" t="n">
-        <v>5.924000000000007</v>
+        <v>5.86</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M191" t="n">
-        <v>5.913499999999997</v>
-      </c>
-      <c r="N191" t="n">
-        <v>5.892666666666664</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10022,28 +7968,18 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J192" t="n">
-        <v>4.249999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>-3.448275862069198</v>
-      </c>
-      <c r="L192" t="n">
-        <v>5.923000000000007</v>
+        <v>5.86</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M192" t="n">
-        <v>5.918999999999999</v>
-      </c>
-      <c r="N192" t="n">
-        <v>5.895999999999997</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10073,28 +8009,18 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J193" t="n">
-        <v>4.259999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>0</v>
-      </c>
-      <c r="L193" t="n">
-        <v>5.923000000000007</v>
+        <v>5.86</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M193" t="n">
-        <v>5.921999999999999</v>
-      </c>
-      <c r="N193" t="n">
-        <v>5.897999999999997</v>
-      </c>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10124,28 +8050,18 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J194" t="n">
-        <v>4.259999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>0</v>
-      </c>
-      <c r="L194" t="n">
-        <v>5.923000000000007</v>
+        <v>5.86</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M194" t="n">
-        <v>5.924999999999999</v>
-      </c>
-      <c r="N194" t="n">
-        <v>5.901999999999997</v>
-      </c>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10175,28 +8091,18 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J195" t="n">
-        <v>4.259999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
-        <v>0</v>
-      </c>
-      <c r="L195" t="n">
-        <v>5.923000000000007</v>
+        <v>5.86</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M195" t="n">
-        <v>5.927999999999999</v>
-      </c>
-      <c r="N195" t="n">
-        <v>5.903666666666664</v>
-      </c>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10226,28 +8132,18 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J196" t="n">
-        <v>4.259999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
-        <v>0</v>
-      </c>
-      <c r="L196" t="n">
-        <v>5.923000000000007</v>
+        <v>5.86</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M196" t="n">
-        <v>5.927999999999999</v>
-      </c>
-      <c r="N196" t="n">
-        <v>5.905333333333331</v>
-      </c>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10277,28 +8173,18 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J197" t="n">
-        <v>4.259999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
-        <v>30.43478260869572</v>
-      </c>
-      <c r="L197" t="n">
-        <v>5.923000000000007</v>
+        <v>5.86</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M197" t="n">
-        <v>5.927999999999999</v>
-      </c>
-      <c r="N197" t="n">
-        <v>5.907333333333331</v>
-      </c>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10328,28 +8214,18 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>-0.05999999999999961</v>
-      </c>
-      <c r="J198" t="n">
-        <v>4.259999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
-        <v>0</v>
-      </c>
-      <c r="L198" t="n">
-        <v>5.930000000000008</v>
+        <v>5.86</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M198" t="n">
-        <v>5.927999999999999</v>
-      </c>
-      <c r="N198" t="n">
-        <v>5.911333333333332</v>
-      </c>
-      <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10379,28 +8255,18 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J199" t="n">
-        <v>4.269999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
-        <v>100</v>
-      </c>
-      <c r="L199" t="n">
-        <v>5.931000000000007</v>
+        <v>5.86</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M199" t="n">
-        <v>5.928499999999999</v>
-      </c>
-      <c r="N199" t="n">
-        <v>5.915666666666665</v>
-      </c>
-      <c r="O199" t="inlineStr"/>
-      <c r="P199" t="inlineStr"/>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
-      <c r="S199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10430,28 +8296,18 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J200" t="n">
-        <v>4.279999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="n">
-        <v>100</v>
-      </c>
-      <c r="L200" t="n">
-        <v>5.941000000000007</v>
+        <v>5.86</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M200" t="n">
-        <v>5.929499999999999</v>
-      </c>
-      <c r="N200" t="n">
-        <v>5.920666666666665</v>
-      </c>
-      <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
-      <c r="R200" t="inlineStr"/>
-      <c r="S200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10481,28 +8337,18 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J201" t="n">
-        <v>4.279999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="n">
-        <v>100</v>
-      </c>
-      <c r="L201" t="n">
-        <v>5.944000000000006</v>
+        <v>5.86</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M201" t="n">
-        <v>5.933999999999998</v>
-      </c>
-      <c r="N201" t="n">
-        <v>5.923666666666665</v>
-      </c>
-      <c r="O201" t="inlineStr"/>
-      <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr"/>
-      <c r="S201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10534,26 +8380,16 @@
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>4.319999999999999</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="n">
-        <v>100</v>
-      </c>
-      <c r="L202" t="n">
-        <v>5.951000000000006</v>
+        <v>5.86</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M202" t="n">
-        <v>5.936999999999999</v>
-      </c>
-      <c r="N202" t="n">
-        <v>5.929666666666665</v>
-      </c>
-      <c r="O202" t="inlineStr"/>
-      <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr"/>
-      <c r="S202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10583,28 +8419,18 @@
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J203" t="n">
-        <v>4.339999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="n">
-        <v>100</v>
-      </c>
-      <c r="L203" t="n">
-        <v>5.959000000000006</v>
+        <v>5.86</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M203" t="n">
-        <v>5.940999999999998</v>
-      </c>
-      <c r="N203" t="n">
-        <v>5.934333333333332</v>
-      </c>
-      <c r="O203" t="inlineStr"/>
-      <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr"/>
-      <c r="R203" t="inlineStr"/>
-      <c r="S203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10634,28 +8460,18 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J204" t="n">
-        <v>4.339999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="n">
-        <v>100</v>
-      </c>
-      <c r="L204" t="n">
-        <v>5.967000000000006</v>
+        <v>5.86</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M204" t="n">
-        <v>5.944999999999999</v>
-      </c>
-      <c r="N204" t="n">
-        <v>5.938999999999999</v>
-      </c>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="inlineStr"/>
-      <c r="R204" t="inlineStr"/>
-      <c r="S204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10685,28 +8501,18 @@
         <v>0</v>
       </c>
       <c r="I205" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J205" t="n">
-        <v>4.339999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
-        <v>100</v>
-      </c>
-      <c r="L205" t="n">
-        <v>5.975000000000006</v>
+        <v>5.86</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M205" t="n">
-        <v>5.948999999999998</v>
-      </c>
-      <c r="N205" t="n">
-        <v>5.943666666666667</v>
-      </c>
-      <c r="O205" t="inlineStr"/>
-      <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr"/>
-      <c r="R205" t="inlineStr"/>
-      <c r="S205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10736,28 +8542,18 @@
         <v>0</v>
       </c>
       <c r="I206" t="n">
-        <v>0.03000000000000025</v>
-      </c>
-      <c r="J206" t="n">
-        <v>4.349999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="n">
-        <v>100</v>
-      </c>
-      <c r="L206" t="n">
-        <v>5.984000000000006</v>
+        <v>5.86</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M206" t="n">
-        <v>5.953499999999998</v>
-      </c>
-      <c r="N206" t="n">
-        <v>5.946666666666667</v>
-      </c>
-      <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="inlineStr"/>
-      <c r="S206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10787,29 +8583,19 @@
         <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J207" t="n">
-        <v>4.359999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
-        <v>100</v>
-      </c>
-      <c r="L207" t="n">
-        <v>5.994000000000007</v>
+        <v>5.86</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M207" t="n">
-        <v>5.958499999999999</v>
-      </c>
-      <c r="N207" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
-      <c r="Q207" t="inlineStr"/>
-      <c r="R207" t="inlineStr"/>
-      <c r="S207" t="n">
-        <v>1</v>
+        <v>1.025716723549488</v>
       </c>
     </row>
     <row r="208">
@@ -10838,28 +8624,12 @@
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J208" t="n">
-        <v>4.369999999999998</v>
-      </c>
-      <c r="K208" t="n">
-        <v>100</v>
-      </c>
-      <c r="L208" t="n">
-        <v>6.005000000000007</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
-        <v>5.967499999999998</v>
-      </c>
-      <c r="N208" t="n">
-        <v>5.953666666666667</v>
-      </c>
-      <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
-      <c r="Q208" t="inlineStr"/>
-      <c r="R208" t="inlineStr"/>
-      <c r="S208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10889,28 +8659,12 @@
         <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J209" t="n">
-        <v>4.369999999999998</v>
-      </c>
-      <c r="K209" t="n">
-        <v>100</v>
-      </c>
-      <c r="L209" t="n">
-        <v>6.015000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
-        <v>5.972999999999998</v>
-      </c>
-      <c r="N209" t="n">
-        <v>5.957333333333334</v>
-      </c>
-      <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="inlineStr"/>
-      <c r="R209" t="inlineStr"/>
-      <c r="S209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10940,28 +8694,12 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J210" t="n">
-        <v>4.369999999999998</v>
-      </c>
-      <c r="K210" t="n">
-        <v>100</v>
-      </c>
-      <c r="L210" t="n">
-        <v>6.024000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
-        <v>5.982499999999998</v>
-      </c>
-      <c r="N210" t="n">
-        <v>5.961000000000001</v>
-      </c>
-      <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="inlineStr"/>
-      <c r="R210" t="inlineStr"/>
-      <c r="S210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10991,28 +8729,12 @@
         <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J211" t="n">
-        <v>4.369999999999998</v>
-      </c>
-      <c r="K211" t="n">
-        <v>100</v>
-      </c>
-      <c r="L211" t="n">
-        <v>6.033000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
-        <v>5.988499999999997</v>
-      </c>
-      <c r="N211" t="n">
-        <v>5.967000000000001</v>
-      </c>
-      <c r="O211" t="inlineStr"/>
-      <c r="P211" t="inlineStr"/>
-      <c r="Q211" t="inlineStr"/>
-      <c r="R211" t="inlineStr"/>
-      <c r="S211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11042,28 +8764,12 @@
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J212" t="n">
-        <v>4.369999999999998</v>
-      </c>
-      <c r="K212" t="n">
-        <v>100</v>
-      </c>
-      <c r="L212" t="n">
-        <v>6.038000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
-        <v>5.994499999999998</v>
-      </c>
-      <c r="N212" t="n">
-        <v>5.970666666666669</v>
-      </c>
-      <c r="O212" t="inlineStr"/>
-      <c r="P212" t="inlineStr"/>
-      <c r="Q212" t="inlineStr"/>
-      <c r="R212" t="inlineStr"/>
-      <c r="S212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11093,28 +8799,12 @@
         <v>0</v>
       </c>
       <c r="I213" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J213" t="n">
-        <v>4.369999999999998</v>
-      </c>
-      <c r="K213" t="n">
-        <v>100</v>
-      </c>
-      <c r="L213" t="n">
-        <v>6.041000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
-        <v>5.999999999999998</v>
-      </c>
-      <c r="N213" t="n">
-        <v>5.974333333333336</v>
-      </c>
-      <c r="O213" t="inlineStr"/>
-      <c r="P213" t="inlineStr"/>
-      <c r="Q213" t="inlineStr"/>
-      <c r="R213" t="inlineStr"/>
-      <c r="S213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11144,28 +8834,12 @@
         <v>0</v>
       </c>
       <c r="I214" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J214" t="n">
-        <v>4.379999999999998</v>
-      </c>
-      <c r="K214" t="n">
-        <v>50.00000000000111</v>
-      </c>
-      <c r="L214" t="n">
-        <v>6.043000000000008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
-        <v>6.004999999999998</v>
-      </c>
-      <c r="N214" t="n">
-        <v>5.977666666666669</v>
-      </c>
-      <c r="O214" t="inlineStr"/>
-      <c r="P214" t="inlineStr"/>
-      <c r="Q214" t="inlineStr"/>
-      <c r="R214" t="inlineStr"/>
-      <c r="S214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11195,28 +8869,12 @@
         <v>0</v>
       </c>
       <c r="I215" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J215" t="n">
-        <v>4.389999999999998</v>
-      </c>
-      <c r="K215" t="n">
-        <v>50</v>
-      </c>
-      <c r="L215" t="n">
-        <v>6.046000000000008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
-        <v>6.010499999999999</v>
-      </c>
-      <c r="N215" t="n">
-        <v>5.981333333333336</v>
-      </c>
-      <c r="O215" t="inlineStr"/>
-      <c r="P215" t="inlineStr"/>
-      <c r="Q215" t="inlineStr"/>
-      <c r="R215" t="inlineStr"/>
-      <c r="S215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11246,28 +8904,12 @@
         <v>0</v>
       </c>
       <c r="I216" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J216" t="n">
-        <v>4.389999999999998</v>
-      </c>
-      <c r="K216" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L216" t="n">
-        <v>6.048000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
-        <v>6.015999999999998</v>
-      </c>
-      <c r="N216" t="n">
-        <v>5.985000000000003</v>
-      </c>
-      <c r="O216" t="inlineStr"/>
-      <c r="P216" t="inlineStr"/>
-      <c r="Q216" t="inlineStr"/>
-      <c r="R216" t="inlineStr"/>
-      <c r="S216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11297,28 +8939,12 @@
         <v>0</v>
       </c>
       <c r="I217" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J217" t="n">
-        <v>4.389999999999998</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0</v>
-      </c>
-      <c r="L217" t="n">
-        <v>6.049000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
-        <v>6.021499999999998</v>
-      </c>
-      <c r="N217" t="n">
-        <v>5.988666666666671</v>
-      </c>
-      <c r="O217" t="inlineStr"/>
-      <c r="P217" t="inlineStr"/>
-      <c r="Q217" t="inlineStr"/>
-      <c r="R217" t="inlineStr"/>
-      <c r="S217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11348,28 +8974,12 @@
         <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J218" t="n">
-        <v>4.389999999999998</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0</v>
-      </c>
-      <c r="L218" t="n">
-        <v>6.049000000000008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
-        <v>6.026999999999998</v>
-      </c>
-      <c r="N218" t="n">
-        <v>5.994666666666671</v>
-      </c>
-      <c r="O218" t="inlineStr"/>
-      <c r="P218" t="inlineStr"/>
-      <c r="Q218" t="inlineStr"/>
-      <c r="R218" t="inlineStr"/>
-      <c r="S218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11399,28 +9009,12 @@
         <v>0</v>
       </c>
       <c r="I219" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J219" t="n">
-        <v>4.389999999999998</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0</v>
-      </c>
-      <c r="L219" t="n">
-        <v>6.049000000000008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
-        <v>6.031999999999998</v>
-      </c>
-      <c r="N219" t="n">
-        <v>5.998333333333338</v>
-      </c>
-      <c r="O219" t="inlineStr"/>
-      <c r="P219" t="inlineStr"/>
-      <c r="Q219" t="inlineStr"/>
-      <c r="R219" t="inlineStr"/>
-      <c r="S219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11450,28 +9044,12 @@
         <v>0</v>
       </c>
       <c r="I220" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J220" t="n">
-        <v>4.389999999999998</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0</v>
-      </c>
-      <c r="L220" t="n">
-        <v>6.049000000000008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
-        <v>6.036499999999998</v>
-      </c>
-      <c r="N220" t="n">
-        <v>6.004666666666671</v>
-      </c>
-      <c r="O220" t="inlineStr"/>
-      <c r="P220" t="inlineStr"/>
-      <c r="Q220" t="inlineStr"/>
-      <c r="R220" t="inlineStr"/>
-      <c r="S220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11501,28 +9079,12 @@
         <v>0</v>
       </c>
       <c r="I221" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J221" t="n">
-        <v>4.389999999999998</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0</v>
-      </c>
-      <c r="L221" t="n">
-        <v>6.049000000000008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
-        <v>6.040999999999999</v>
-      </c>
-      <c r="N221" t="n">
-        <v>6.008666666666671</v>
-      </c>
-      <c r="O221" t="inlineStr"/>
-      <c r="P221" t="inlineStr"/>
-      <c r="Q221" t="inlineStr"/>
-      <c r="R221" t="inlineStr"/>
-      <c r="S221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11552,28 +9114,12 @@
         <v>0</v>
       </c>
       <c r="I222" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J222" t="n">
-        <v>4.389999999999998</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0</v>
-      </c>
-      <c r="L222" t="n">
-        <v>6.049000000000008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
-        <v>6.043499999999998</v>
-      </c>
-      <c r="N222" t="n">
-        <v>6.012666666666671</v>
-      </c>
-      <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr"/>
-      <c r="Q222" t="inlineStr"/>
-      <c r="R222" t="inlineStr"/>
-      <c r="S222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11603,28 +9149,12 @@
         <v>0</v>
       </c>
       <c r="I223" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J223" t="n">
-        <v>4.389999999999998</v>
-      </c>
-      <c r="K223" t="n">
-        <v>100</v>
-      </c>
-      <c r="L223" t="n">
-        <v>6.049000000000008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
-        <v>6.044999999999998</v>
-      </c>
-      <c r="N223" t="n">
-        <v>6.016333333333338</v>
-      </c>
-      <c r="O223" t="inlineStr"/>
-      <c r="P223" t="inlineStr"/>
-      <c r="Q223" t="inlineStr"/>
-      <c r="R223" t="inlineStr"/>
-      <c r="S223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11654,1091 +9184,12 @@
         <v>0</v>
       </c>
       <c r="I224" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J224" t="n">
-        <v>4.389999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>6.050000000000008</v>
-      </c>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
-        <v>6.046499999999998</v>
-      </c>
-      <c r="N224" t="n">
-        <v>6.020000000000006</v>
-      </c>
-      <c r="O224" t="inlineStr"/>
-      <c r="P224" t="inlineStr"/>
-      <c r="Q224" t="inlineStr"/>
-      <c r="R224" t="inlineStr"/>
-      <c r="S224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C225" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D225" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E225" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F225" t="n">
-        <v>78505</v>
-      </c>
-      <c r="G225" t="n">
-        <v>5.963666666666675</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J225" t="n">
-        <v>4.389999999999998</v>
-      </c>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>6.050000000000009</v>
-      </c>
-      <c r="M225" t="n">
-        <v>6.047999999999998</v>
-      </c>
-      <c r="N225" t="n">
-        <v>6.023666666666672</v>
-      </c>
-      <c r="O225" t="inlineStr"/>
-      <c r="P225" t="inlineStr"/>
-      <c r="Q225" t="inlineStr"/>
-      <c r="R225" t="inlineStr"/>
-      <c r="S225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C226" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D226" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E226" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F226" t="n">
-        <v>45045</v>
-      </c>
-      <c r="G226" t="n">
-        <v>5.966333333333342</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J226" t="n">
-        <v>4.389999999999998</v>
-      </c>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>6.050000000000009</v>
-      </c>
-      <c r="M226" t="n">
-        <v>6.048999999999998</v>
-      </c>
-      <c r="N226" t="n">
-        <v>6.02733333333334</v>
-      </c>
-      <c r="O226" t="inlineStr"/>
-      <c r="P226" t="inlineStr"/>
-      <c r="Q226" t="inlineStr"/>
-      <c r="R226" t="inlineStr"/>
-      <c r="S226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C227" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D227" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E227" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F227" t="n">
-        <v>131714.985</v>
-      </c>
-      <c r="G227" t="n">
-        <v>5.969166666666676</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J227" t="n">
-        <v>4.389999999999998</v>
-      </c>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>6.050000000000009</v>
-      </c>
-      <c r="M227" t="n">
-        <v>6.049499999999997</v>
-      </c>
-      <c r="N227" t="n">
-        <v>6.031000000000007</v>
-      </c>
-      <c r="O227" t="inlineStr"/>
-      <c r="P227" t="inlineStr"/>
-      <c r="Q227" t="inlineStr"/>
-      <c r="R227" t="inlineStr"/>
-      <c r="S227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="C228" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="D228" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="E228" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="F228" t="n">
-        <v>410</v>
-      </c>
-      <c r="G228" t="n">
-        <v>5.973666666666675</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J228" t="n">
-        <v>4.429999999999998</v>
-      </c>
-      <c r="K228" t="n">
-        <v>100</v>
-      </c>
-      <c r="L228" t="n">
-        <v>6.054000000000009</v>
-      </c>
-      <c r="M228" t="n">
-        <v>6.051499999999998</v>
-      </c>
-      <c r="N228" t="n">
-        <v>6.036000000000007</v>
-      </c>
-      <c r="O228" t="inlineStr"/>
-      <c r="P228" t="inlineStr"/>
-      <c r="Q228" t="inlineStr"/>
-      <c r="R228" t="inlineStr"/>
-      <c r="S228" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="C229" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="D229" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="E229" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="F229" t="n">
-        <v>7000</v>
-      </c>
-      <c r="G229" t="n">
-        <v>5.978333333333342</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J229" t="n">
-        <v>4.439999999999998</v>
-      </c>
-      <c r="K229" t="n">
-        <v>100</v>
-      </c>
-      <c r="L229" t="n">
-        <v>6.059000000000009</v>
-      </c>
-      <c r="M229" t="n">
-        <v>6.053999999999998</v>
-      </c>
-      <c r="N229" t="n">
-        <v>6.041000000000007</v>
-      </c>
-      <c r="O229" t="inlineStr"/>
-      <c r="P229" t="inlineStr"/>
-      <c r="Q229" t="inlineStr"/>
-      <c r="R229" t="inlineStr"/>
-      <c r="S229" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="C230" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="D230" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="E230" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="F230" t="n">
-        <v>12233.2786</v>
-      </c>
-      <c r="G230" t="n">
-        <v>5.983166666666676</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J230" t="n">
-        <v>4.439999999999998</v>
-      </c>
-      <c r="K230" t="n">
-        <v>100</v>
-      </c>
-      <c r="L230" t="n">
-        <v>6.064000000000009</v>
-      </c>
-      <c r="M230" t="n">
-        <v>6.056499999999998</v>
-      </c>
-      <c r="N230" t="n">
-        <v>6.045666666666674</v>
-      </c>
-      <c r="O230" t="inlineStr"/>
-      <c r="P230" t="inlineStr"/>
-      <c r="Q230" t="inlineStr"/>
-      <c r="R230" t="inlineStr"/>
-      <c r="S230" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="C231" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="D231" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="E231" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="F231" t="n">
-        <v>1111</v>
-      </c>
-      <c r="G231" t="n">
-        <v>5.986833333333342</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J231" t="n">
-        <v>4.449999999999998</v>
-      </c>
-      <c r="K231" t="n">
-        <v>66.66666666666717</v>
-      </c>
-      <c r="L231" t="n">
-        <v>6.068000000000009</v>
-      </c>
-      <c r="M231" t="n">
-        <v>6.058499999999998</v>
-      </c>
-      <c r="N231" t="n">
-        <v>6.050000000000007</v>
-      </c>
-      <c r="O231" t="inlineStr"/>
-      <c r="P231" t="inlineStr"/>
-      <c r="Q231" t="inlineStr"/>
-      <c r="R231" t="inlineStr"/>
-      <c r="S231" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C232" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D232" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E232" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F232" t="n">
-        <v>25334.755</v>
-      </c>
-      <c r="G232" t="n">
-        <v>5.99050000000001</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J232" t="n">
-        <v>4.499999999999997</v>
-      </c>
-      <c r="K232" t="n">
-        <v>-9.090909090908944</v>
-      </c>
-      <c r="L232" t="n">
-        <v>6.06700000000001</v>
-      </c>
-      <c r="M232" t="n">
-        <v>6.057999999999998</v>
-      </c>
-      <c r="N232" t="n">
-        <v>6.05133333333334</v>
-      </c>
-      <c r="O232" t="inlineStr"/>
-      <c r="P232" t="inlineStr"/>
-      <c r="Q232" t="inlineStr"/>
-      <c r="R232" t="inlineStr"/>
-      <c r="S232" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="C233" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="D233" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="E233" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="F233" t="n">
-        <v>59301.257</v>
-      </c>
-      <c r="G233" t="n">
-        <v>5.99400000000001</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J233" t="n">
-        <v>4.549999999999997</v>
-      </c>
-      <c r="K233" t="n">
-        <v>25.00000000000014</v>
-      </c>
-      <c r="L233" t="n">
-        <v>6.07100000000001</v>
-      </c>
-      <c r="M233" t="n">
-        <v>6.059999999999999</v>
-      </c>
-      <c r="N233" t="n">
-        <v>6.053666666666673</v>
-      </c>
-      <c r="O233" t="inlineStr"/>
-      <c r="P233" t="inlineStr"/>
-      <c r="Q233" t="inlineStr"/>
-      <c r="R233" t="inlineStr"/>
-      <c r="S233" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C234" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D234" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E234" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F234" t="n">
-        <v>13270</v>
-      </c>
-      <c r="G234" t="n">
-        <v>5.996833333333343</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J234" t="n">
-        <v>4.589999999999997</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0</v>
-      </c>
-      <c r="L234" t="n">
-        <v>6.07100000000001</v>
-      </c>
-      <c r="M234" t="n">
-        <v>6.060499999999998</v>
-      </c>
-      <c r="N234" t="n">
-        <v>6.054666666666673</v>
-      </c>
-      <c r="O234" t="inlineStr"/>
-      <c r="P234" t="inlineStr"/>
-      <c r="Q234" t="inlineStr"/>
-      <c r="R234" t="inlineStr"/>
-      <c r="S234" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C235" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D235" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E235" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F235" t="n">
-        <v>47878</v>
-      </c>
-      <c r="G235" t="n">
-        <v>5.999000000000009</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J235" t="n">
-        <v>4.629999999999997</v>
-      </c>
-      <c r="K235" t="n">
-        <v>-16.66666666666673</v>
-      </c>
-      <c r="L235" t="n">
-        <v>6.067000000000012</v>
-      </c>
-      <c r="M235" t="n">
-        <v>6.058499999999999</v>
-      </c>
-      <c r="N235" t="n">
-        <v>6.054333333333338</v>
-      </c>
-      <c r="O235" t="inlineStr"/>
-      <c r="P235" t="inlineStr"/>
-      <c r="Q235" t="inlineStr"/>
-      <c r="R235" t="inlineStr"/>
-      <c r="S235" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C236" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="D236" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="E236" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F236" t="n">
-        <v>30013</v>
-      </c>
-      <c r="G236" t="n">
-        <v>6.001500000000009</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J236" t="n">
-        <v>4.709999999999997</v>
-      </c>
-      <c r="K236" t="n">
-        <v>12.50000000000004</v>
-      </c>
-      <c r="L236" t="n">
-        <v>6.071000000000012</v>
-      </c>
-      <c r="M236" t="n">
-        <v>6.060499999999999</v>
-      </c>
-      <c r="N236" t="n">
-        <v>6.056333333333339</v>
-      </c>
-      <c r="O236" t="inlineStr"/>
-      <c r="P236" t="inlineStr"/>
-      <c r="Q236" t="inlineStr"/>
-      <c r="R236" t="inlineStr"/>
-      <c r="S236" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="C237" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="D237" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="E237" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="F237" t="n">
-        <v>95855</v>
-      </c>
-      <c r="G237" t="n">
-        <v>6.003666666666676</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0.07000000000000028</v>
-      </c>
-      <c r="J237" t="n">
-        <v>4.729999999999997</v>
-      </c>
-      <c r="K237" t="n">
-        <v>-6.666666666666549</v>
-      </c>
-      <c r="L237" t="n">
-        <v>6.073000000000012</v>
-      </c>
-      <c r="M237" t="n">
-        <v>6.061499999999999</v>
-      </c>
-      <c r="N237" t="n">
-        <v>6.057333333333339</v>
-      </c>
-      <c r="O237" t="inlineStr"/>
-      <c r="P237" t="inlineStr"/>
-      <c r="Q237" t="inlineStr"/>
-      <c r="R237" t="inlineStr"/>
-      <c r="S237" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="C238" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D238" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="E238" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F238" t="n">
-        <v>33</v>
-      </c>
-      <c r="G238" t="n">
-        <v>6.005500000000009</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J238" t="n">
-        <v>4.749999999999997</v>
-      </c>
-      <c r="K238" t="n">
-        <v>-16.12903225806448</v>
-      </c>
-      <c r="L238" t="n">
-        <v>6.069000000000011</v>
-      </c>
-      <c r="M238" t="n">
-        <v>6.061499999999999</v>
-      </c>
-      <c r="N238" t="n">
-        <v>6.057333333333339</v>
-      </c>
-      <c r="O238" t="inlineStr"/>
-      <c r="P238" t="inlineStr"/>
-      <c r="Q238" t="inlineStr"/>
-      <c r="R238" t="inlineStr"/>
-      <c r="S238" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="C239" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="D239" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="E239" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="F239" t="n">
-        <v>41</v>
-      </c>
-      <c r="G239" t="n">
-        <v>6.007833333333342</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J239" t="n">
-        <v>4.779999999999998</v>
-      </c>
-      <c r="K239" t="n">
-        <v>-5.882352941176348</v>
-      </c>
-      <c r="L239" t="n">
-        <v>6.067000000000011</v>
-      </c>
-      <c r="M239" t="n">
-        <v>6.062999999999999</v>
-      </c>
-      <c r="N239" t="n">
-        <v>6.058333333333339</v>
-      </c>
-      <c r="O239" t="inlineStr"/>
-      <c r="P239" t="inlineStr"/>
-      <c r="Q239" t="inlineStr"/>
-      <c r="R239" t="inlineStr"/>
-      <c r="S239" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="C240" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="D240" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="E240" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="F240" t="n">
-        <v>469.6477</v>
-      </c>
-      <c r="G240" t="n">
-        <v>6.009166666666675</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J240" t="n">
-        <v>4.839999999999998</v>
-      </c>
-      <c r="K240" t="n">
-        <v>-17.948717948718</v>
-      </c>
-      <c r="L240" t="n">
-        <v>6.059000000000011</v>
-      </c>
-      <c r="M240" t="n">
-        <v>6.061499999999999</v>
-      </c>
-      <c r="N240" t="n">
-        <v>6.057333333333339</v>
-      </c>
-      <c r="O240" t="inlineStr"/>
-      <c r="P240" t="inlineStr"/>
-      <c r="Q240" t="inlineStr"/>
-      <c r="R240" t="inlineStr"/>
-      <c r="S240" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="C241" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="D241" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="E241" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="F241" t="n">
-        <v>10</v>
-      </c>
-      <c r="G241" t="n">
-        <v>6.012666666666675</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J241" t="n">
-        <v>4.899999999999999</v>
-      </c>
-      <c r="K241" t="n">
-        <v>9.999999999999979</v>
-      </c>
-      <c r="L241" t="n">
-        <v>6.058000000000011</v>
-      </c>
-      <c r="M241" t="n">
-        <v>6.062999999999999</v>
-      </c>
-      <c r="N241" t="n">
-        <v>6.058333333333339</v>
-      </c>
-      <c r="O241" t="inlineStr"/>
-      <c r="P241" t="inlineStr"/>
-      <c r="Q241" t="inlineStr"/>
-      <c r="R241" t="inlineStr"/>
-      <c r="S241" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="C242" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="D242" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="E242" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="F242" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G242" t="n">
-        <v>6.014833333333342</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0.07000000000000028</v>
-      </c>
-      <c r="J242" t="n">
-        <v>4.909999999999998</v>
-      </c>
-      <c r="K242" t="n">
-        <v>-5.555555555555419</v>
-      </c>
-      <c r="L242" t="n">
-        <v>6.061000000000012</v>
-      </c>
-      <c r="M242" t="n">
-        <v>6.063999999999999</v>
-      </c>
-      <c r="N242" t="n">
-        <v>6.059000000000005</v>
-      </c>
-      <c r="O242" t="inlineStr"/>
-      <c r="P242" t="inlineStr"/>
-      <c r="Q242" t="inlineStr"/>
-      <c r="R242" t="inlineStr"/>
-      <c r="S242" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="C243" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="D243" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="E243" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="F243" t="n">
-        <v>44</v>
-      </c>
-      <c r="G243" t="n">
-        <v>6.017166666666674</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J243" t="n">
-        <v>4.919999999999998</v>
-      </c>
-      <c r="K243" t="n">
-        <v>9.09090909090914</v>
-      </c>
-      <c r="L243" t="n">
-        <v>6.060000000000012</v>
-      </c>
-      <c r="M243" t="n">
-        <v>6.065499999999999</v>
-      </c>
-      <c r="N243" t="n">
-        <v>6.060000000000005</v>
-      </c>
-      <c r="O243" t="inlineStr"/>
-      <c r="P243" t="inlineStr"/>
-      <c r="Q243" t="inlineStr"/>
-      <c r="R243" t="inlineStr"/>
-      <c r="S243" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="C244" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="D244" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="E244" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="F244" t="n">
-        <v>440</v>
-      </c>
-      <c r="G244" t="n">
-        <v>6.019666666666675</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0.08999999999999986</v>
-      </c>
-      <c r="J244" t="n">
-        <v>4.929999999999998</v>
-      </c>
-      <c r="K244" t="n">
-        <v>26.66666666666663</v>
-      </c>
-      <c r="L244" t="n">
-        <v>6.064000000000012</v>
-      </c>
-      <c r="M244" t="n">
-        <v>6.0675</v>
-      </c>
-      <c r="N244" t="n">
-        <v>6.061666666666672</v>
-      </c>
-      <c r="O244" t="inlineStr"/>
-      <c r="P244" t="inlineStr"/>
-      <c r="Q244" t="inlineStr"/>
-      <c r="R244" t="inlineStr"/>
-      <c r="S244" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="C245" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="D245" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="E245" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="F245" t="n">
-        <v>11</v>
-      </c>
-      <c r="G245" t="n">
-        <v>6.022000000000007</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0.08000000000000007</v>
-      </c>
-      <c r="J245" t="n">
-        <v>4.939999999999998</v>
-      </c>
-      <c r="K245" t="n">
-        <v>-4.347826086956421</v>
-      </c>
-      <c r="L245" t="n">
-        <v>6.071000000000013</v>
-      </c>
-      <c r="M245" t="n">
-        <v>6.069</v>
-      </c>
-      <c r="N245" t="n">
-        <v>6.062666666666672</v>
-      </c>
-      <c r="O245" t="inlineStr"/>
-      <c r="P245" t="inlineStr"/>
-      <c r="Q245" t="inlineStr"/>
-      <c r="R245" t="inlineStr"/>
-      <c r="S245" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-25 BackTest FAB.xlsx
+++ b/BackTest/2019-10-25 BackTest FAB.xlsx
@@ -2551,17 +2551,13 @@
         <v>5.890000000000013</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K62" t="n">
-        <v>5.83</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
@@ -2590,22 +2586,14 @@
         <v>5.887666666666679</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K63" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2633,22 +2621,14 @@
         <v>5.885333333333345</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K64" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2676,17 +2656,13 @@
         <v>5.882833333333346</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="K65" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
@@ -2715,22 +2691,14 @@
         <v>5.879666666666679</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K66" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2758,22 +2726,14 @@
         <v>5.877000000000012</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K67" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2801,22 +2761,14 @@
         <v>5.874333333333346</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="K68" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2844,22 +2796,14 @@
         <v>5.873000000000014</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="K69" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2887,22 +2831,14 @@
         <v>5.871333333333346</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K70" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2930,22 +2866,14 @@
         <v>5.869666666666679</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K71" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2973,22 +2901,14 @@
         <v>5.867833333333346</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K72" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3016,22 +2936,14 @@
         <v>5.866666666666679</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="K73" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3059,22 +2971,14 @@
         <v>5.867000000000012</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K74" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3102,22 +3006,14 @@
         <v>5.867333333333345</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K75" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3145,22 +3041,14 @@
         <v>5.866500000000012</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="K76" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3188,22 +3076,14 @@
         <v>5.868000000000012</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K77" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3237,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3278,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3319,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3360,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3401,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3442,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3483,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3524,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3565,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3606,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3647,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3688,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3729,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3770,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3811,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3852,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3893,14 +3677,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3934,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3975,14 +3747,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4016,14 +3782,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4057,14 +3817,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4098,14 +3852,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4139,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4180,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4221,14 +3957,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4262,14 +3992,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4297,22 +4021,14 @@
         <v>5.86066666666667</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K104" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4340,22 +4056,14 @@
         <v>5.860833333333336</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K105" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4383,22 +4091,14 @@
         <v>5.861000000000002</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K106" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4426,22 +4126,14 @@
         <v>5.861166666666668</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K107" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4469,22 +4161,14 @@
         <v>5.861333333333335</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K108" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4512,22 +4196,14 @@
         <v>5.861500000000002</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K109" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4555,22 +4231,14 @@
         <v>5.861666666666668</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K110" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4598,22 +4266,14 @@
         <v>5.861833333333335</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K111" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4641,22 +4301,14 @@
         <v>5.860666666666668</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K112" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4684,22 +4336,14 @@
         <v>5.860666666666668</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K113" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4735,12 +4379,10 @@
       <c r="J114" t="n">
         <v>5.87</v>
       </c>
-      <c r="K114" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M114" t="n">
@@ -4778,9 +4420,7 @@
       <c r="J115" t="n">
         <v>5.84</v>
       </c>
-      <c r="K115" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4813,17 +4453,13 @@
         <v>5.859833333333333</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K116" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4856,17 +4492,13 @@
         <v>5.859999999999999</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K117" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4899,17 +4531,13 @@
         <v>5.859999999999999</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K118" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4942,17 +4570,13 @@
         <v>5.860833333333333</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K119" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4985,17 +4609,13 @@
         <v>5.861666666666666</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="K120" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5028,17 +4648,13 @@
         <v>5.8625</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="K121" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5071,17 +4687,13 @@
         <v>5.863333333333333</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="K122" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5114,17 +4726,13 @@
         <v>5.863833333333334</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="K123" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5163,9 +4771,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5204,9 +4810,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5245,9 +4849,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5286,9 +4888,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5327,9 +4927,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5368,9 +4966,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5409,9 +5005,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5450,9 +5044,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5491,9 +5083,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5532,9 +5122,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5573,9 +5161,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5614,9 +5200,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5655,9 +5239,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5696,9 +5278,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5737,9 +5317,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5778,9 +5356,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5819,9 +5395,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5860,9 +5434,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5901,9 +5473,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5942,9 +5512,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5983,9 +5551,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6024,9 +5590,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6065,9 +5629,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6106,9 +5668,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6147,9 +5707,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6188,9 +5746,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6229,9 +5785,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6270,9 +5824,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6311,9 +5863,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6352,9 +5902,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6393,9 +5941,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6434,9 +5980,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6475,9 +6019,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6516,9 +6058,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6557,9 +6097,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6598,9 +6136,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6639,9 +6175,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6680,9 +6214,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6715,17 +6247,13 @@
         <v>5.871000000000004</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K162" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6764,9 +6292,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6799,17 +6325,13 @@
         <v>5.871333333333338</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K164" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6848,9 +6370,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6883,17 +6403,13 @@
         <v>5.873000000000005</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K166" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6932,9 +6448,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6973,9 +6487,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7014,9 +6526,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7049,17 +6559,13 @@
         <v>5.872500000000006</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K170" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7092,17 +6598,13 @@
         <v>5.873000000000006</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="K171" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7135,17 +6637,13 @@
         <v>5.872666666666674</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="K172" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7178,17 +6676,13 @@
         <v>5.87283333333334</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K173" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7221,17 +6715,13 @@
         <v>5.873500000000007</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="K174" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7264,17 +6754,13 @@
         <v>5.874166666666674</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="K175" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7307,17 +6793,13 @@
         <v>5.875833333333341</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="K176" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7356,9 +6838,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7397,9 +6877,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7438,9 +6916,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7479,9 +6955,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7520,9 +6994,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7561,9 +7033,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7602,9 +7072,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7643,9 +7111,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7684,9 +7150,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7725,9 +7189,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7766,9 +7228,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7807,9 +7267,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7848,9 +7306,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7889,9 +7345,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7930,9 +7384,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7971,9 +7423,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8012,9 +7462,7 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8053,9 +7501,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8094,9 +7540,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8135,9 +7579,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8176,9 +7618,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8217,9 +7657,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8258,9 +7696,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8299,9 +7735,7 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8340,9 +7774,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8381,9 +7813,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8422,9 +7852,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8463,9 +7891,7 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8504,9 +7930,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8545,9 +7969,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8586,17 +8008,13 @@
         <v>1</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>5.86</v>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1.025716723549488</v>
-      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8624,7 +8042,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
@@ -8764,7 +8182,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>

--- a/BackTest/2019-10-25 BackTest FAB.xlsx
+++ b/BackTest/2019-10-25 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M224"/>
+  <dimension ref="A1:M225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5.91</v>
       </c>
       <c r="C2" t="n">
         <v>6</v>
@@ -442,13 +442,13 @@
         <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>5.85</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>14854.396</v>
       </c>
       <c r="G2" t="n">
-        <v>5.928166666666667</v>
+        <v>5.926166666666666</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>5.97</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>5.96</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>85416.2458</v>
+        <v>400</v>
       </c>
       <c r="G3" t="n">
-        <v>5.929666666666667</v>
+        <v>5.928166666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.97</v>
+        <v>6.01</v>
       </c>
       <c r="C4" t="n">
         <v>5.97</v>
       </c>
       <c r="D4" t="n">
-        <v>5.97</v>
+        <v>6.01</v>
       </c>
       <c r="E4" t="n">
-        <v>5.97</v>
+        <v>5.96</v>
       </c>
       <c r="F4" t="n">
-        <v>69411</v>
+        <v>85416.2458</v>
       </c>
       <c r="G4" t="n">
-        <v>5.931166666666668</v>
+        <v>5.929666666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.96</v>
+        <v>5.97</v>
       </c>
       <c r="C5" t="n">
-        <v>6.01</v>
+        <v>5.97</v>
       </c>
       <c r="D5" t="n">
-        <v>6.01</v>
+        <v>5.97</v>
       </c>
       <c r="E5" t="n">
-        <v>5.96</v>
+        <v>5.97</v>
       </c>
       <c r="F5" t="n">
-        <v>7303.3026</v>
+        <v>69411</v>
       </c>
       <c r="G5" t="n">
-        <v>5.934000000000001</v>
+        <v>5.931166666666668</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.02</v>
+        <v>5.96</v>
       </c>
       <c r="C6" t="n">
-        <v>6.02</v>
+        <v>6.01</v>
       </c>
       <c r="D6" t="n">
-        <v>6.02</v>
+        <v>6.01</v>
       </c>
       <c r="E6" t="n">
-        <v>6.02</v>
+        <v>5.96</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>7303.3026</v>
       </c>
       <c r="G6" t="n">
-        <v>5.936000000000002</v>
+        <v>5.934000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>5.938000000000001</v>
+        <v>5.936000000000002</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>5.940000000000001</v>
+        <v>5.938000000000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.95</v>
+        <v>6.02</v>
       </c>
       <c r="C9" t="n">
-        <v>5.94</v>
+        <v>6.02</v>
       </c>
       <c r="D9" t="n">
-        <v>5.95</v>
+        <v>6.02</v>
       </c>
       <c r="E9" t="n">
-        <v>5.94</v>
+        <v>6.02</v>
       </c>
       <c r="F9" t="n">
-        <v>190080.7979</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>5.940666666666669</v>
+        <v>5.940000000000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.88</v>
+        <v>5.95</v>
       </c>
       <c r="C10" t="n">
         <v>5.94</v>
       </c>
       <c r="D10" t="n">
-        <v>5.94</v>
+        <v>5.95</v>
       </c>
       <c r="E10" t="n">
-        <v>5.88</v>
+        <v>5.94</v>
       </c>
       <c r="F10" t="n">
-        <v>41.9625</v>
+        <v>190080.7979</v>
       </c>
       <c r="G10" t="n">
-        <v>5.941833333333335</v>
+        <v>5.940666666666669</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.94</v>
+        <v>5.88</v>
       </c>
       <c r="C11" t="n">
         <v>5.94</v>
@@ -757,13 +757,13 @@
         <v>5.94</v>
       </c>
       <c r="E11" t="n">
-        <v>5.94</v>
+        <v>5.88</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>41.9625</v>
       </c>
       <c r="G11" t="n">
-        <v>5.943500000000002</v>
+        <v>5.941833333333335</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>5.945333333333336</v>
+        <v>5.943500000000002</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>5.94</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>5.947000000000003</v>
+        <v>5.945333333333336</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>5.94</v>
       </c>
       <c r="C14" t="n">
-        <v>5.85</v>
+        <v>5.94</v>
       </c>
       <c r="D14" t="n">
         <v>5.94</v>
       </c>
       <c r="E14" t="n">
-        <v>5.85</v>
+        <v>5.94</v>
       </c>
       <c r="F14" t="n">
-        <v>111323.6199</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>5.94616666666667</v>
+        <v>5.947000000000003</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.86</v>
+        <v>5.94</v>
       </c>
       <c r="C15" t="n">
         <v>5.85</v>
       </c>
       <c r="D15" t="n">
-        <v>5.86</v>
+        <v>5.94</v>
       </c>
       <c r="E15" t="n">
         <v>5.85</v>
       </c>
       <c r="F15" t="n">
-        <v>95645.3253</v>
+        <v>111323.6199</v>
       </c>
       <c r="G15" t="n">
-        <v>5.945333333333338</v>
+        <v>5.94616666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="C16" t="n">
-        <v>5.93</v>
+        <v>5.85</v>
       </c>
       <c r="D16" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="E16" t="n">
-        <v>5.93</v>
+        <v>5.85</v>
       </c>
       <c r="F16" t="n">
-        <v>18</v>
+        <v>95645.3253</v>
       </c>
       <c r="G16" t="n">
-        <v>5.946833333333339</v>
+        <v>5.945333333333338</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="C17" t="n">
-        <v>5.84</v>
+        <v>5.93</v>
       </c>
       <c r="D17" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="E17" t="n">
-        <v>5.84</v>
+        <v>5.93</v>
       </c>
       <c r="F17" t="n">
-        <v>58818.791</v>
+        <v>18</v>
       </c>
       <c r="G17" t="n">
-        <v>5.946000000000004</v>
+        <v>5.946833333333339</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.83</v>
+        <v>5.86</v>
       </c>
       <c r="C18" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="D18" t="n">
-        <v>5.83</v>
+        <v>5.86</v>
       </c>
       <c r="E18" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="F18" t="n">
-        <v>133595.061</v>
+        <v>58818.791</v>
       </c>
       <c r="G18" t="n">
-        <v>5.945166666666671</v>
+        <v>5.946000000000004</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.91</v>
+        <v>5.83</v>
       </c>
       <c r="C19" t="n">
-        <v>5.91</v>
+        <v>5.83</v>
       </c>
       <c r="D19" t="n">
-        <v>5.91</v>
+        <v>5.83</v>
       </c>
       <c r="E19" t="n">
-        <v>5.91</v>
+        <v>5.83</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>133595.061</v>
       </c>
       <c r="G19" t="n">
-        <v>5.945666666666671</v>
+        <v>5.945166666666671</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>5.91</v>
       </c>
       <c r="C20" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="D20" t="n">
         <v>5.91</v>
       </c>
       <c r="E20" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="F20" t="n">
-        <v>36628.168</v>
+        <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>5.945166666666672</v>
+        <v>5.945666666666671</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>5.91</v>
       </c>
       <c r="C21" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="D21" t="n">
         <v>5.91</v>
       </c>
       <c r="E21" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>36628.168</v>
       </c>
       <c r="G21" t="n">
-        <v>5.945666666666672</v>
+        <v>5.945166666666672</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>5.946166666666673</v>
+        <v>5.945666666666672</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>5.946666666666673</v>
+        <v>5.946166666666673</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>5.948000000000008</v>
+        <v>5.946666666666673</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>5.949333333333342</v>
+        <v>5.948000000000008</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>5.950666666666676</v>
+        <v>5.949333333333342</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
         <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>5.95200000000001</v>
+        <v>5.950666666666676</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1358,7 +1358,7 @@
         <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>5.953333333333344</v>
+        <v>5.95200000000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>5.91</v>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>5.953833333333344</v>
+        <v>5.953333333333344</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>5.91</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G30" t="n">
-        <v>5.954333333333344</v>
+        <v>5.953833333333344</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>5.91</v>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>5.955666666666678</v>
+        <v>5.954333333333344</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="C32" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="D32" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="E32" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="F32" t="n">
-        <v>20652.1657</v>
+        <v>100</v>
       </c>
       <c r="G32" t="n">
-        <v>5.956000000000013</v>
+        <v>5.955666666666678</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="C33" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="D33" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="E33" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="F33" t="n">
-        <v>20</v>
+        <v>20652.1657</v>
       </c>
       <c r="G33" t="n">
-        <v>5.956500000000013</v>
+        <v>5.956000000000013</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>5.91</v>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G34" t="n">
-        <v>5.957000000000013</v>
+        <v>5.956500000000013</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>5.91</v>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G35" t="n">
-        <v>5.957166666666681</v>
+        <v>5.957000000000013</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>100</v>
       </c>
       <c r="G36" t="n">
-        <v>5.957333333333349</v>
+        <v>5.957166666666681</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>5.91</v>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G37" t="n">
-        <v>5.957500000000016</v>
+        <v>5.957333333333349</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>5.956500000000016</v>
+        <v>5.957500000000016</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1743,7 +1743,7 @@
         <v>10</v>
       </c>
       <c r="G39" t="n">
-        <v>5.954666666666683</v>
+        <v>5.956500000000016</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="C40" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="D40" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="E40" t="n">
-        <v>5.84</v>
+        <v>5.91</v>
       </c>
       <c r="F40" t="n">
-        <v>66768.4679</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>5.951500000000016</v>
+        <v>5.954666666666683</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="C41" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="D41" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="E41" t="n">
-        <v>5.91</v>
+        <v>5.84</v>
       </c>
       <c r="F41" t="n">
-        <v>10</v>
+        <v>66768.4679</v>
       </c>
       <c r="G41" t="n">
-        <v>5.949500000000017</v>
+        <v>5.951500000000016</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5.83</v>
+        <v>5.91</v>
       </c>
       <c r="C42" t="n">
-        <v>5.83</v>
+        <v>5.91</v>
       </c>
       <c r="D42" t="n">
-        <v>5.83</v>
+        <v>5.91</v>
       </c>
       <c r="E42" t="n">
-        <v>5.83</v>
+        <v>5.91</v>
       </c>
       <c r="F42" t="n">
-        <v>32652.5768</v>
+        <v>10</v>
       </c>
       <c r="G42" t="n">
-        <v>5.946333333333351</v>
+        <v>5.949500000000017</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>5.83</v>
       </c>
       <c r="F43" t="n">
-        <v>102169</v>
+        <v>32652.5768</v>
       </c>
       <c r="G43" t="n">
-        <v>5.942833333333351</v>
+        <v>5.946333333333351</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>5.83</v>
       </c>
       <c r="F44" t="n">
-        <v>70401</v>
+        <v>102169</v>
       </c>
       <c r="G44" t="n">
-        <v>5.93933333333335</v>
+        <v>5.942833333333351</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>5.83</v>
       </c>
       <c r="F45" t="n">
-        <v>47573</v>
+        <v>70401</v>
       </c>
       <c r="G45" t="n">
-        <v>5.935833333333349</v>
+        <v>5.93933333333335</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>5.83</v>
       </c>
       <c r="F46" t="n">
-        <v>43460</v>
+        <v>47573</v>
       </c>
       <c r="G46" t="n">
-        <v>5.932333333333348</v>
+        <v>5.935833333333349</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>5.83</v>
       </c>
       <c r="F47" t="n">
-        <v>73622</v>
+        <v>43460</v>
       </c>
       <c r="G47" t="n">
-        <v>5.928833333333348</v>
+        <v>5.932333333333348</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>5.83</v>
       </c>
       <c r="F48" t="n">
-        <v>58756</v>
+        <v>73622</v>
       </c>
       <c r="G48" t="n">
-        <v>5.925500000000015</v>
+        <v>5.928833333333348</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>5.83</v>
       </c>
       <c r="F49" t="n">
-        <v>41923.7761</v>
+        <v>58756</v>
       </c>
       <c r="G49" t="n">
-        <v>5.922333333333348</v>
+        <v>5.925500000000015</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>5.83</v>
       </c>
       <c r="F50" t="n">
-        <v>123256.1582</v>
+        <v>41923.7761</v>
       </c>
       <c r="G50" t="n">
-        <v>5.919833333333347</v>
+        <v>5.922333333333348</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>5.83</v>
       </c>
       <c r="F51" t="n">
-        <v>46143</v>
+        <v>123256.1582</v>
       </c>
       <c r="G51" t="n">
-        <v>5.917333333333347</v>
+        <v>5.919833333333347</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2186,19 +2186,19 @@
         <v>5.83</v>
       </c>
       <c r="C52" t="n">
-        <v>5.91</v>
+        <v>5.83</v>
       </c>
       <c r="D52" t="n">
-        <v>5.91</v>
+        <v>5.83</v>
       </c>
       <c r="E52" t="n">
         <v>5.83</v>
       </c>
       <c r="F52" t="n">
-        <v>35193</v>
+        <v>46143</v>
       </c>
       <c r="G52" t="n">
-        <v>5.916166666666681</v>
+        <v>5.917333333333347</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5.87</v>
+        <v>5.83</v>
       </c>
       <c r="C53" t="n">
-        <v>5.87</v>
+        <v>5.91</v>
       </c>
       <c r="D53" t="n">
-        <v>5.87</v>
+        <v>5.91</v>
       </c>
       <c r="E53" t="n">
-        <v>5.87</v>
+        <v>5.83</v>
       </c>
       <c r="F53" t="n">
-        <v>42.2487</v>
+        <v>35193</v>
       </c>
       <c r="G53" t="n">
-        <v>5.914333333333347</v>
+        <v>5.916166666666681</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>5.87</v>
       </c>
       <c r="F54" t="n">
-        <v>10</v>
+        <v>42.2487</v>
       </c>
       <c r="G54" t="n">
-        <v>5.912500000000013</v>
+        <v>5.914333333333347</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2303,7 +2303,7 @@
         <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>5.910000000000013</v>
+        <v>5.912500000000013</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5.83</v>
+        <v>5.87</v>
       </c>
       <c r="C56" t="n">
-        <v>5.83</v>
+        <v>5.87</v>
       </c>
       <c r="D56" t="n">
-        <v>5.83</v>
+        <v>5.87</v>
       </c>
       <c r="E56" t="n">
-        <v>5.83</v>
+        <v>5.87</v>
       </c>
       <c r="F56" t="n">
-        <v>138.1486</v>
+        <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>5.906833333333347</v>
+        <v>5.910000000000013</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2370,10 @@
         <v>5.83</v>
       </c>
       <c r="F57" t="n">
-        <v>62.4513</v>
+        <v>138.1486</v>
       </c>
       <c r="G57" t="n">
-        <v>5.90366666666668</v>
+        <v>5.906833333333347</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="C58" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="D58" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="E58" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="F58" t="n">
-        <v>10877.226</v>
+        <v>62.4513</v>
       </c>
       <c r="G58" t="n">
-        <v>5.900500000000013</v>
+        <v>5.90366666666668</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="C59" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="D59" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="E59" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="F59" t="n">
-        <v>2845.8334</v>
+        <v>10877.226</v>
       </c>
       <c r="G59" t="n">
-        <v>5.89716666666668</v>
+        <v>5.900500000000013</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         <v>5.83</v>
       </c>
       <c r="F60" t="n">
-        <v>20000</v>
+        <v>2845.8334</v>
       </c>
       <c r="G60" t="n">
-        <v>5.89566666666668</v>
+        <v>5.89716666666668</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>5.83</v>
       </c>
       <c r="F61" t="n">
-        <v>18268.2539</v>
+        <v>20000</v>
       </c>
       <c r="G61" t="n">
-        <v>5.892833333333346</v>
+        <v>5.89566666666668</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>5.83</v>
       </c>
       <c r="F62" t="n">
-        <v>61440.954</v>
+        <v>18268.2539</v>
       </c>
       <c r="G62" t="n">
-        <v>5.890000000000013</v>
+        <v>5.892833333333346</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>5.83</v>
       </c>
       <c r="F63" t="n">
-        <v>60122.3039</v>
+        <v>61440.954</v>
       </c>
       <c r="G63" t="n">
-        <v>5.887666666666679</v>
+        <v>5.890000000000013</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>5.83</v>
       </c>
       <c r="F64" t="n">
-        <v>30647.4628</v>
+        <v>60122.3039</v>
       </c>
       <c r="G64" t="n">
-        <v>5.885333333333345</v>
+        <v>5.887666666666679</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="C65" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="D65" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="E65" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="F65" t="n">
-        <v>10</v>
+        <v>30647.4628</v>
       </c>
       <c r="G65" t="n">
-        <v>5.882833333333346</v>
+        <v>5.885333333333345</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5.83</v>
+        <v>5.86</v>
       </c>
       <c r="C66" t="n">
-        <v>5.83</v>
+        <v>5.86</v>
       </c>
       <c r="D66" t="n">
-        <v>5.83</v>
+        <v>5.86</v>
       </c>
       <c r="E66" t="n">
-        <v>5.83</v>
+        <v>5.86</v>
       </c>
       <c r="F66" t="n">
-        <v>12582.2333</v>
+        <v>10</v>
       </c>
       <c r="G66" t="n">
-        <v>5.879666666666679</v>
+        <v>5.882833333333346</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2711,19 +2711,19 @@
         <v>5.83</v>
       </c>
       <c r="C67" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="D67" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="E67" t="n">
         <v>5.83</v>
       </c>
       <c r="F67" t="n">
-        <v>16503.5561</v>
+        <v>12582.2333</v>
       </c>
       <c r="G67" t="n">
-        <v>5.877000000000012</v>
+        <v>5.879666666666679</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,7 +2743,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="C68" t="n">
         <v>5.86</v>
@@ -2752,13 +2752,13 @@
         <v>5.86</v>
       </c>
       <c r="E68" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="F68" t="n">
-        <v>100</v>
+        <v>16503.5561</v>
       </c>
       <c r="G68" t="n">
-        <v>5.874333333333346</v>
+        <v>5.877000000000012</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2793,7 +2793,7 @@
         <v>100</v>
       </c>
       <c r="G69" t="n">
-        <v>5.873000000000014</v>
+        <v>5.874333333333346</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5.84</v>
+        <v>5.86</v>
       </c>
       <c r="C70" t="n">
-        <v>5.84</v>
+        <v>5.86</v>
       </c>
       <c r="D70" t="n">
-        <v>5.84</v>
+        <v>5.86</v>
       </c>
       <c r="E70" t="n">
-        <v>5.84</v>
+        <v>5.86</v>
       </c>
       <c r="F70" t="n">
-        <v>47.8632</v>
+        <v>100</v>
       </c>
       <c r="G70" t="n">
-        <v>5.871333333333346</v>
+        <v>5.873000000000014</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>5.84</v>
       </c>
       <c r="F71" t="n">
-        <v>3305.1369</v>
+        <v>47.8632</v>
       </c>
       <c r="G71" t="n">
-        <v>5.869666666666679</v>
+        <v>5.871333333333346</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="C72" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="D72" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="E72" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="F72" t="n">
-        <v>66018.7767</v>
+        <v>3305.1369</v>
       </c>
       <c r="G72" t="n">
-        <v>5.867833333333346</v>
+        <v>5.869666666666679</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="C73" t="n">
-        <v>5.87</v>
+        <v>5.83</v>
       </c>
       <c r="D73" t="n">
-        <v>5.87</v>
+        <v>5.83</v>
       </c>
       <c r="E73" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="F73" t="n">
-        <v>42080.5264</v>
+        <v>66018.7767</v>
       </c>
       <c r="G73" t="n">
-        <v>5.866666666666679</v>
+        <v>5.867833333333346</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="C74" t="n">
         <v>5.87</v>
@@ -2962,13 +2962,13 @@
         <v>5.87</v>
       </c>
       <c r="E74" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="F74" t="n">
-        <v>81874</v>
+        <v>42080.5264</v>
       </c>
       <c r="G74" t="n">
-        <v>5.867000000000012</v>
+        <v>5.866666666666679</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>5.87</v>
       </c>
       <c r="F75" t="n">
-        <v>28364</v>
+        <v>81874</v>
       </c>
       <c r="G75" t="n">
-        <v>5.867333333333345</v>
+        <v>5.867000000000012</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="C76" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="D76" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="E76" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="F76" t="n">
-        <v>559.7014</v>
+        <v>28364</v>
       </c>
       <c r="G76" t="n">
-        <v>5.866500000000012</v>
+        <v>5.867333333333345</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5.9</v>
+        <v>5.88</v>
       </c>
       <c r="C77" t="n">
-        <v>5.93</v>
+        <v>5.88</v>
       </c>
       <c r="D77" t="n">
-        <v>5.93</v>
+        <v>5.88</v>
       </c>
       <c r="E77" t="n">
-        <v>5.9</v>
+        <v>5.88</v>
       </c>
       <c r="F77" t="n">
-        <v>30</v>
+        <v>559.7014</v>
       </c>
       <c r="G77" t="n">
-        <v>5.868000000000012</v>
+        <v>5.866500000000012</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="C78" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="D78" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="E78" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="F78" t="n">
-        <v>74441.70699999999</v>
+        <v>30</v>
       </c>
       <c r="G78" t="n">
-        <v>5.869833333333346</v>
+        <v>5.868000000000012</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>5.88</v>
+        <v>5.94</v>
       </c>
       <c r="C79" t="n">
-        <v>5.88</v>
+        <v>5.94</v>
       </c>
       <c r="D79" t="n">
-        <v>5.88</v>
+        <v>5.94</v>
       </c>
       <c r="E79" t="n">
-        <v>5.88</v>
+        <v>5.94</v>
       </c>
       <c r="F79" t="n">
-        <v>25469</v>
+        <v>74441.70699999999</v>
       </c>
       <c r="G79" t="n">
-        <v>5.869333333333345</v>
+        <v>5.869833333333346</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="C80" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="D80" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="E80" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="F80" t="n">
-        <v>37663.4802</v>
+        <v>25469</v>
       </c>
       <c r="G80" t="n">
-        <v>5.869666666666678</v>
+        <v>5.869333333333345</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>5.93</v>
+        <v>5.87</v>
       </c>
       <c r="C81" t="n">
-        <v>5.93</v>
+        <v>5.87</v>
       </c>
       <c r="D81" t="n">
-        <v>5.93</v>
+        <v>5.87</v>
       </c>
       <c r="E81" t="n">
-        <v>5.93</v>
+        <v>5.87</v>
       </c>
       <c r="F81" t="n">
-        <v>83.3558</v>
+        <v>37663.4802</v>
       </c>
       <c r="G81" t="n">
-        <v>5.870000000000011</v>
+        <v>5.869666666666678</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>5.88</v>
+        <v>5.93</v>
       </c>
       <c r="C82" t="n">
-        <v>5.88</v>
+        <v>5.93</v>
       </c>
       <c r="D82" t="n">
-        <v>5.88</v>
+        <v>5.93</v>
       </c>
       <c r="E82" t="n">
-        <v>5.88</v>
+        <v>5.93</v>
       </c>
       <c r="F82" t="n">
-        <v>21967</v>
+        <v>83.3558</v>
       </c>
       <c r="G82" t="n">
-        <v>5.869500000000011</v>
+        <v>5.870000000000011</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,19 +3268,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5.91</v>
+        <v>5.88</v>
       </c>
       <c r="C83" t="n">
-        <v>5.91</v>
+        <v>5.88</v>
       </c>
       <c r="D83" t="n">
-        <v>5.91</v>
+        <v>5.88</v>
       </c>
       <c r="E83" t="n">
-        <v>5.91</v>
+        <v>5.88</v>
       </c>
       <c r="F83" t="n">
-        <v>10</v>
+        <v>21967</v>
       </c>
       <c r="G83" t="n">
         <v>5.869500000000011</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5.89</v>
+        <v>5.91</v>
       </c>
       <c r="C84" t="n">
-        <v>5.89</v>
+        <v>5.91</v>
       </c>
       <c r="D84" t="n">
-        <v>5.89</v>
+        <v>5.91</v>
       </c>
       <c r="E84" t="n">
-        <v>5.89</v>
+        <v>5.91</v>
       </c>
       <c r="F84" t="n">
-        <v>149744.3971</v>
+        <v>10</v>
       </c>
       <c r="G84" t="n">
-        <v>5.869166666666676</v>
+        <v>5.869500000000011</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3350,10 +3350,10 @@
         <v>5.89</v>
       </c>
       <c r="F85" t="n">
-        <v>63541.4261</v>
+        <v>149744.3971</v>
       </c>
       <c r="G85" t="n">
-        <v>5.868833333333343</v>
+        <v>5.869166666666676</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="C86" t="n">
-        <v>5.86</v>
+        <v>5.89</v>
       </c>
       <c r="D86" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="E86" t="n">
-        <v>5.86</v>
+        <v>5.89</v>
       </c>
       <c r="F86" t="n">
-        <v>59458.3083</v>
+        <v>63541.4261</v>
       </c>
       <c r="G86" t="n">
-        <v>5.868000000000009</v>
+        <v>5.868833333333343</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="C87" t="n">
-        <v>5.89</v>
+        <v>5.86</v>
       </c>
       <c r="D87" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="E87" t="n">
-        <v>5.89</v>
+        <v>5.86</v>
       </c>
       <c r="F87" t="n">
-        <v>10</v>
+        <v>59458.3083</v>
       </c>
       <c r="G87" t="n">
-        <v>5.867666666666675</v>
+        <v>5.868000000000009</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3455,10 +3455,10 @@
         <v>5.89</v>
       </c>
       <c r="F88" t="n">
-        <v>21487.691</v>
+        <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>5.867333333333341</v>
+        <v>5.867666666666675</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="C89" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="D89" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="E89" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="F89" t="n">
-        <v>121892</v>
+        <v>21487.691</v>
       </c>
       <c r="G89" t="n">
-        <v>5.866666666666674</v>
+        <v>5.867333333333341</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>5.87</v>
       </c>
       <c r="F90" t="n">
-        <v>73394</v>
+        <v>121892</v>
       </c>
       <c r="G90" t="n">
-        <v>5.866000000000008</v>
+        <v>5.866666666666674</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3557,13 +3557,13 @@
         <v>5.87</v>
       </c>
       <c r="E91" t="n">
-        <v>5.86</v>
+        <v>5.87</v>
       </c>
       <c r="F91" t="n">
-        <v>55323.4417</v>
+        <v>73394</v>
       </c>
       <c r="G91" t="n">
-        <v>5.86533333333334</v>
+        <v>5.866000000000008</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3592,13 +3592,13 @@
         <v>5.87</v>
       </c>
       <c r="E92" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="F92" t="n">
-        <v>84213</v>
+        <v>55323.4417</v>
       </c>
       <c r="G92" t="n">
-        <v>5.865666666666673</v>
+        <v>5.86533333333334</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>5.87</v>
       </c>
       <c r="F93" t="n">
-        <v>43989</v>
+        <v>84213</v>
       </c>
       <c r="G93" t="n">
-        <v>5.865000000000006</v>
+        <v>5.865666666666673</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,10 +3665,10 @@
         <v>5.87</v>
       </c>
       <c r="F94" t="n">
-        <v>47311</v>
+        <v>43989</v>
       </c>
       <c r="G94" t="n">
-        <v>5.864333333333339</v>
+        <v>5.865000000000006</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3700,10 +3700,10 @@
         <v>5.87</v>
       </c>
       <c r="F95" t="n">
-        <v>59969</v>
+        <v>47311</v>
       </c>
       <c r="G95" t="n">
-        <v>5.863666666666672</v>
+        <v>5.864333333333339</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3735,10 +3735,10 @@
         <v>5.87</v>
       </c>
       <c r="F96" t="n">
-        <v>67925</v>
+        <v>59969</v>
       </c>
       <c r="G96" t="n">
-        <v>5.863000000000005</v>
+        <v>5.863666666666672</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>5.87</v>
       </c>
       <c r="F97" t="n">
-        <v>66674</v>
+        <v>67925</v>
       </c>
       <c r="G97" t="n">
-        <v>5.862333333333338</v>
+        <v>5.863000000000005</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>5.87</v>
       </c>
       <c r="F98" t="n">
-        <v>68285</v>
+        <v>66674</v>
       </c>
       <c r="G98" t="n">
-        <v>5.861666666666671</v>
+        <v>5.862333333333338</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3831,19 +3831,19 @@
         <v>5.87</v>
       </c>
       <c r="C99" t="n">
-        <v>5.86</v>
+        <v>5.87</v>
       </c>
       <c r="D99" t="n">
         <v>5.87</v>
       </c>
       <c r="E99" t="n">
-        <v>5.86</v>
+        <v>5.87</v>
       </c>
       <c r="F99" t="n">
-        <v>57806</v>
+        <v>68285</v>
       </c>
       <c r="G99" t="n">
-        <v>5.860833333333337</v>
+        <v>5.861666666666671</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="C100" t="n">
-        <v>5.88</v>
+        <v>5.86</v>
       </c>
       <c r="D100" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="E100" t="n">
-        <v>5.88</v>
+        <v>5.86</v>
       </c>
       <c r="F100" t="n">
-        <v>5600</v>
+        <v>57806</v>
       </c>
       <c r="G100" t="n">
-        <v>5.861333333333337</v>
+        <v>5.860833333333337</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="C101" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="D101" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="E101" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="F101" t="n">
-        <v>90427.7521</v>
+        <v>5600</v>
       </c>
       <c r="G101" t="n">
-        <v>5.86016666666667</v>
+        <v>5.861333333333337</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>5.84</v>
       </c>
       <c r="F102" t="n">
-        <v>51807</v>
+        <v>90427.7521</v>
       </c>
       <c r="G102" t="n">
-        <v>5.860333333333336</v>
+        <v>5.86016666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>5.84</v>
       </c>
       <c r="F103" t="n">
-        <v>67877</v>
+        <v>51807</v>
       </c>
       <c r="G103" t="n">
-        <v>5.860500000000003</v>
+        <v>5.860333333333336</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4015,10 +4015,10 @@
         <v>5.84</v>
       </c>
       <c r="F104" t="n">
-        <v>68601</v>
+        <v>67877</v>
       </c>
       <c r="G104" t="n">
-        <v>5.86066666666667</v>
+        <v>5.860500000000003</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4050,10 +4050,10 @@
         <v>5.84</v>
       </c>
       <c r="F105" t="n">
-        <v>75595</v>
+        <v>68601</v>
       </c>
       <c r="G105" t="n">
-        <v>5.860833333333336</v>
+        <v>5.86066666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4085,10 +4085,10 @@
         <v>5.84</v>
       </c>
       <c r="F106" t="n">
-        <v>47410</v>
+        <v>75595</v>
       </c>
       <c r="G106" t="n">
-        <v>5.861000000000002</v>
+        <v>5.860833333333336</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,7 +4108,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="C107" t="n">
         <v>5.84</v>
@@ -4117,22 +4117,26 @@
         <v>5.84</v>
       </c>
       <c r="E107" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="F107" t="n">
-        <v>106857.4139</v>
+        <v>47410</v>
       </c>
       <c r="G107" t="n">
-        <v>5.861166666666668</v>
+        <v>5.861000000000002</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K107" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
@@ -4143,7 +4147,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="C108" t="n">
         <v>5.84</v>
@@ -4152,23 +4156,31 @@
         <v>5.84</v>
       </c>
       <c r="E108" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="F108" t="n">
-        <v>55707</v>
+        <v>106857.4139</v>
       </c>
       <c r="G108" t="n">
-        <v>5.861333333333335</v>
+        <v>5.861166666666668</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K108" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4187,23 +4199,31 @@
         <v>5.84</v>
       </c>
       <c r="E109" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="F109" t="n">
-        <v>52404.0574</v>
+        <v>55707</v>
       </c>
       <c r="G109" t="n">
-        <v>5.861500000000002</v>
+        <v>5.861333333333335</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K109" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4222,23 +4242,31 @@
         <v>5.84</v>
       </c>
       <c r="E110" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="F110" t="n">
-        <v>36869.1035</v>
+        <v>52404.0574</v>
       </c>
       <c r="G110" t="n">
-        <v>5.861666666666668</v>
+        <v>5.861500000000002</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K110" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4260,20 +4288,28 @@
         <v>5.84</v>
       </c>
       <c r="F111" t="n">
-        <v>346.7665</v>
+        <v>36869.1035</v>
       </c>
       <c r="G111" t="n">
-        <v>5.861833333333335</v>
+        <v>5.861666666666668</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K111" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4295,10 +4331,10 @@
         <v>5.84</v>
       </c>
       <c r="F112" t="n">
-        <v>15000</v>
+        <v>346.7665</v>
       </c>
       <c r="G112" t="n">
-        <v>5.860666666666668</v>
+        <v>5.861833333333335</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4307,8 +4343,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4318,19 +4360,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="C113" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="D113" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="E113" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="F113" t="n">
-        <v>100</v>
+        <v>15000</v>
       </c>
       <c r="G113" t="n">
         <v>5.860666666666668</v>
@@ -4342,8 +4384,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4356,19 +4404,19 @@
         <v>5.87</v>
       </c>
       <c r="C114" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="D114" t="n">
         <v>5.87</v>
       </c>
       <c r="E114" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="F114" t="n">
-        <v>39.95</v>
+        <v>100</v>
       </c>
       <c r="G114" t="n">
-        <v>5.860166666666667</v>
+        <v>5.860666666666668</v>
       </c>
       <c r="H114" t="n">
         <v>1</v>
@@ -4377,12 +4425,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="K114" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M114" t="n">
@@ -4394,22 +4444,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="C115" t="n">
         <v>5.84</v>
       </c>
       <c r="D115" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="E115" t="n">
         <v>5.84</v>
       </c>
       <c r="F115" t="n">
-        <v>11970</v>
+        <v>39.95</v>
       </c>
       <c r="G115" t="n">
-        <v>5.859666666666667</v>
+        <v>5.860166666666667</v>
       </c>
       <c r="H115" t="n">
         <v>1</v>
@@ -4418,9 +4468,11 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
+        <v>5.87</v>
+      </c>
+      <c r="K115" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4447,10 +4499,10 @@
         <v>5.84</v>
       </c>
       <c r="F116" t="n">
-        <v>84538.9186</v>
+        <v>11970</v>
       </c>
       <c r="G116" t="n">
-        <v>5.859833333333333</v>
+        <v>5.859666666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4459,7 +4511,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4483,22 +4537,26 @@
         <v>5.84</v>
       </c>
       <c r="E117" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="F117" t="n">
-        <v>87902.95</v>
+        <v>84538.9186</v>
       </c>
       <c r="G117" t="n">
-        <v>5.859999999999999</v>
+        <v>5.859833333333333</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K117" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4522,10 +4580,10 @@
         <v>5.84</v>
       </c>
       <c r="E118" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="F118" t="n">
-        <v>10250.776</v>
+        <v>87902.95</v>
       </c>
       <c r="G118" t="n">
         <v>5.859999999999999</v>
@@ -4537,7 +4595,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4552,22 +4612,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="C119" t="n">
-        <v>5.88</v>
+        <v>5.84</v>
       </c>
       <c r="D119" t="n">
-        <v>5.88</v>
+        <v>5.84</v>
       </c>
       <c r="E119" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="F119" t="n">
-        <v>69918.4127</v>
+        <v>10250.776</v>
       </c>
       <c r="G119" t="n">
-        <v>5.860833333333333</v>
+        <v>5.859999999999999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4576,7 +4636,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4591,7 +4653,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="C120" t="n">
         <v>5.88</v>
@@ -4600,22 +4662,26 @@
         <v>5.88</v>
       </c>
       <c r="E120" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="F120" t="n">
-        <v>62918</v>
+        <v>69918.4127</v>
       </c>
       <c r="G120" t="n">
-        <v>5.861666666666666</v>
+        <v>5.860833333333333</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K120" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4639,22 +4705,26 @@
         <v>5.88</v>
       </c>
       <c r="E121" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="F121" t="n">
-        <v>100383.95</v>
+        <v>62918</v>
       </c>
       <c r="G121" t="n">
-        <v>5.8625</v>
+        <v>5.861666666666666</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="K121" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4678,13 +4748,13 @@
         <v>5.88</v>
       </c>
       <c r="E122" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="F122" t="n">
-        <v>4544.5853</v>
+        <v>100383.95</v>
       </c>
       <c r="G122" t="n">
-        <v>5.863333333333333</v>
+        <v>5.8625</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4693,7 +4763,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4708,22 +4780,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.93</v>
+        <v>5.88</v>
       </c>
       <c r="C123" t="n">
-        <v>5.86</v>
+        <v>5.88</v>
       </c>
       <c r="D123" t="n">
-        <v>5.93</v>
+        <v>5.88</v>
       </c>
       <c r="E123" t="n">
-        <v>5.86</v>
+        <v>5.88</v>
       </c>
       <c r="F123" t="n">
-        <v>39.95</v>
+        <v>4544.5853</v>
       </c>
       <c r="G123" t="n">
-        <v>5.863833333333334</v>
+        <v>5.863333333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4732,7 +4804,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4747,22 +4821,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="C124" t="n">
         <v>5.86</v>
       </c>
       <c r="D124" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="E124" t="n">
         <v>5.86</v>
       </c>
       <c r="F124" t="n">
-        <v>5200</v>
+        <v>39.95</v>
       </c>
       <c r="G124" t="n">
-        <v>5.864333333333335</v>
+        <v>5.863833333333334</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4771,7 +4845,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4786,22 +4862,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="C125" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="D125" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="E125" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="F125" t="n">
-        <v>10</v>
+        <v>5200</v>
       </c>
       <c r="G125" t="n">
-        <v>5.865500000000001</v>
+        <v>5.864333333333335</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4810,7 +4886,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4828,19 +4906,19 @@
         <v>5.93</v>
       </c>
       <c r="C126" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="D126" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="E126" t="n">
         <v>5.93</v>
       </c>
       <c r="F126" t="n">
-        <v>161562.1582</v>
+        <v>10</v>
       </c>
       <c r="G126" t="n">
-        <v>5.867333333333335</v>
+        <v>5.865500000000001</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4849,7 +4927,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4864,10 +4944,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="C127" t="n">
-        <v>5.93</v>
+        <v>5.94</v>
       </c>
       <c r="D127" t="n">
         <v>5.94</v>
@@ -4876,10 +4956,10 @@
         <v>5.93</v>
       </c>
       <c r="F127" t="n">
-        <v>21</v>
+        <v>161562.1582</v>
       </c>
       <c r="G127" t="n">
-        <v>5.868500000000001</v>
+        <v>5.867333333333335</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4888,7 +4968,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4903,22 +4985,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="C128" t="n">
         <v>5.93</v>
       </c>
-      <c r="C128" t="n">
-        <v>5.88</v>
-      </c>
       <c r="D128" t="n">
         <v>5.94</v>
       </c>
       <c r="E128" t="n">
-        <v>5.88</v>
+        <v>5.93</v>
       </c>
       <c r="F128" t="n">
-        <v>78.84999999999999</v>
+        <v>21</v>
       </c>
       <c r="G128" t="n">
-        <v>5.868833333333334</v>
+        <v>5.868500000000001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4927,7 +5009,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4942,22 +5026,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="C129" t="n">
-        <v>5.94</v>
+        <v>5.88</v>
       </c>
       <c r="D129" t="n">
         <v>5.94</v>
       </c>
       <c r="E129" t="n">
-        <v>5.94</v>
+        <v>5.88</v>
       </c>
       <c r="F129" t="n">
-        <v>10</v>
+        <v>78.84999999999999</v>
       </c>
       <c r="G129" t="n">
-        <v>5.870166666666667</v>
+        <v>5.868833333333334</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4966,7 +5050,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4984,19 +5070,19 @@
         <v>5.94</v>
       </c>
       <c r="C130" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="D130" t="n">
         <v>5.94</v>
       </c>
       <c r="E130" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="F130" t="n">
-        <v>25676.987</v>
+        <v>10</v>
       </c>
       <c r="G130" t="n">
-        <v>5.871166666666667</v>
+        <v>5.870166666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5005,7 +5091,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5020,22 +5108,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.92</v>
+        <v>5.94</v>
       </c>
       <c r="C131" t="n">
-        <v>5.91</v>
+        <v>5.9</v>
       </c>
       <c r="D131" t="n">
-        <v>5.92</v>
+        <v>5.94</v>
       </c>
       <c r="E131" t="n">
-        <v>5.91</v>
+        <v>5.9</v>
       </c>
       <c r="F131" t="n">
-        <v>148081.4839</v>
+        <v>25676.987</v>
       </c>
       <c r="G131" t="n">
-        <v>5.872333333333335</v>
+        <v>5.871166666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5044,7 +5132,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5059,22 +5149,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.94</v>
+        <v>5.92</v>
       </c>
       <c r="C132" t="n">
-        <v>5.87</v>
+        <v>5.91</v>
       </c>
       <c r="D132" t="n">
-        <v>5.94</v>
+        <v>5.92</v>
       </c>
       <c r="E132" t="n">
-        <v>5.87</v>
+        <v>5.91</v>
       </c>
       <c r="F132" t="n">
-        <v>39.95</v>
+        <v>148081.4839</v>
       </c>
       <c r="G132" t="n">
-        <v>5.873000000000002</v>
+        <v>5.872333333333335</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5083,7 +5173,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5098,22 +5190,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="C133" t="n">
-        <v>5.9</v>
+        <v>5.87</v>
       </c>
       <c r="D133" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="E133" t="n">
-        <v>5.9</v>
+        <v>5.87</v>
       </c>
       <c r="F133" t="n">
-        <v>17398.706</v>
+        <v>39.95</v>
       </c>
       <c r="G133" t="n">
-        <v>5.873500000000002</v>
+        <v>5.873000000000002</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5122,7 +5214,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5137,22 +5231,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.93</v>
+        <v>5.9</v>
       </c>
       <c r="C134" t="n">
-        <v>5.86</v>
+        <v>5.9</v>
       </c>
       <c r="D134" t="n">
-        <v>5.93</v>
+        <v>5.9</v>
       </c>
       <c r="E134" t="n">
-        <v>5.86</v>
+        <v>5.9</v>
       </c>
       <c r="F134" t="n">
-        <v>39.95</v>
+        <v>17398.706</v>
       </c>
       <c r="G134" t="n">
-        <v>5.873333333333335</v>
+        <v>5.873500000000002</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5161,7 +5255,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5176,22 +5272,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="C135" t="n">
         <v>5.86</v>
       </c>
       <c r="D135" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="E135" t="n">
         <v>5.86</v>
       </c>
       <c r="F135" t="n">
-        <v>23371.1677</v>
+        <v>39.95</v>
       </c>
       <c r="G135" t="n">
-        <v>5.873166666666668</v>
+        <v>5.873333333333335</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5200,7 +5296,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5215,22 +5313,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="C136" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="D136" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="E136" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="F136" t="n">
-        <v>100</v>
+        <v>23371.1677</v>
       </c>
       <c r="G136" t="n">
-        <v>5.874000000000001</v>
+        <v>5.873166666666668</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5239,7 +5337,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5254,22 +5354,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="C137" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="D137" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="E137" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="F137" t="n">
-        <v>25572.9444</v>
+        <v>100</v>
       </c>
       <c r="G137" t="n">
-        <v>5.872833333333335</v>
+        <v>5.874000000000001</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5278,7 +5378,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5293,22 +5395,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="C138" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="D138" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="E138" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="F138" t="n">
-        <v>8939.2845</v>
+        <v>25572.9444</v>
       </c>
       <c r="G138" t="n">
-        <v>5.871666666666669</v>
+        <v>5.872833333333335</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5317,7 +5419,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5332,22 +5436,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.93</v>
+        <v>5.87</v>
       </c>
       <c r="C139" t="n">
-        <v>5.93</v>
+        <v>5.87</v>
       </c>
       <c r="D139" t="n">
-        <v>5.93</v>
+        <v>5.87</v>
       </c>
       <c r="E139" t="n">
-        <v>5.93</v>
+        <v>5.87</v>
       </c>
       <c r="F139" t="n">
-        <v>10</v>
+        <v>8939.2845</v>
       </c>
       <c r="G139" t="n">
-        <v>5.872500000000002</v>
+        <v>5.871666666666669</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5356,7 +5460,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5371,22 +5477,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="C140" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="D140" t="n">
         <v>5.93</v>
       </c>
       <c r="E140" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="F140" t="n">
-        <v>432.597</v>
+        <v>10</v>
       </c>
       <c r="G140" t="n">
-        <v>5.872333333333335</v>
+        <v>5.872500000000002</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5395,7 +5501,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5410,19 +5518,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="C141" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="D141" t="n">
         <v>5.93</v>
       </c>
       <c r="E141" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="F141" t="n">
-        <v>10</v>
+        <v>432.597</v>
       </c>
       <c r="G141" t="n">
         <v>5.872333333333335</v>
@@ -5434,7 +5542,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5452,19 +5562,19 @@
         <v>5.93</v>
       </c>
       <c r="C142" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="D142" t="n">
         <v>5.93</v>
       </c>
       <c r="E142" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="F142" t="n">
-        <v>39.95</v>
+        <v>10</v>
       </c>
       <c r="G142" t="n">
-        <v>5.872000000000003</v>
+        <v>5.872333333333335</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5473,7 +5583,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5491,19 +5603,19 @@
         <v>5.93</v>
       </c>
       <c r="C143" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="D143" t="n">
         <v>5.93</v>
       </c>
       <c r="E143" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="F143" t="n">
-        <v>10</v>
+        <v>39.95</v>
       </c>
       <c r="G143" t="n">
-        <v>5.872333333333335</v>
+        <v>5.872000000000003</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5512,7 +5624,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5530,19 +5644,19 @@
         <v>5.93</v>
       </c>
       <c r="C144" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="D144" t="n">
         <v>5.93</v>
       </c>
       <c r="E144" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="F144" t="n">
-        <v>39.95</v>
+        <v>10</v>
       </c>
       <c r="G144" t="n">
-        <v>5.871833333333337</v>
+        <v>5.872333333333335</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5551,7 +5665,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5566,22 +5682,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.92</v>
+        <v>5.93</v>
       </c>
       <c r="C145" t="n">
-        <v>5.92</v>
+        <v>5.86</v>
       </c>
       <c r="D145" t="n">
-        <v>5.92</v>
+        <v>5.93</v>
       </c>
       <c r="E145" t="n">
-        <v>5.92</v>
+        <v>5.86</v>
       </c>
       <c r="F145" t="n">
-        <v>10</v>
+        <v>39.95</v>
       </c>
       <c r="G145" t="n">
-        <v>5.872333333333336</v>
+        <v>5.871833333333337</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5590,7 +5706,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5605,19 +5723,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.91</v>
+        <v>5.92</v>
       </c>
       <c r="C146" t="n">
-        <v>5.86</v>
+        <v>5.92</v>
       </c>
       <c r="D146" t="n">
-        <v>5.91</v>
+        <v>5.92</v>
       </c>
       <c r="E146" t="n">
-        <v>5.86</v>
+        <v>5.92</v>
       </c>
       <c r="F146" t="n">
-        <v>30644.4003</v>
+        <v>10</v>
       </c>
       <c r="G146" t="n">
         <v>5.872333333333336</v>
@@ -5629,7 +5747,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5644,22 +5764,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="C147" t="n">
         <v>5.86</v>
       </c>
-      <c r="C147" t="n">
-        <v>5.94</v>
-      </c>
       <c r="D147" t="n">
-        <v>5.94</v>
+        <v>5.91</v>
       </c>
       <c r="E147" t="n">
-        <v>5.85</v>
+        <v>5.86</v>
       </c>
       <c r="F147" t="n">
-        <v>475188.517</v>
+        <v>30644.4003</v>
       </c>
       <c r="G147" t="n">
-        <v>5.873166666666671</v>
+        <v>5.872333333333336</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5668,7 +5788,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5683,7 +5805,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.94</v>
+        <v>5.86</v>
       </c>
       <c r="C148" t="n">
         <v>5.94</v>
@@ -5692,13 +5814,13 @@
         <v>5.94</v>
       </c>
       <c r="E148" t="n">
-        <v>5.94</v>
+        <v>5.85</v>
       </c>
       <c r="F148" t="n">
-        <v>20</v>
+        <v>475188.517</v>
       </c>
       <c r="G148" t="n">
-        <v>5.874000000000004</v>
+        <v>5.873166666666671</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5707,7 +5829,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5722,22 +5846,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.92</v>
+        <v>5.94</v>
       </c>
       <c r="C149" t="n">
-        <v>5.92</v>
+        <v>5.94</v>
       </c>
       <c r="D149" t="n">
-        <v>5.92</v>
+        <v>5.94</v>
       </c>
       <c r="E149" t="n">
-        <v>5.92</v>
+        <v>5.94</v>
       </c>
       <c r="F149" t="n">
-        <v>19.95</v>
+        <v>20</v>
       </c>
       <c r="G149" t="n">
-        <v>5.874833333333338</v>
+        <v>5.874000000000004</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5746,7 +5870,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5767,16 +5893,16 @@
         <v>5.92</v>
       </c>
       <c r="D150" t="n">
-        <v>5.94</v>
+        <v>5.92</v>
       </c>
       <c r="E150" t="n">
         <v>5.92</v>
       </c>
       <c r="F150" t="n">
-        <v>162.077</v>
+        <v>19.95</v>
       </c>
       <c r="G150" t="n">
-        <v>5.875666666666671</v>
+        <v>5.874833333333338</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5785,7 +5911,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5800,19 +5928,19 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.87</v>
+        <v>5.92</v>
       </c>
       <c r="C151" t="n">
-        <v>5.87</v>
+        <v>5.92</v>
       </c>
       <c r="D151" t="n">
-        <v>5.87</v>
+        <v>5.94</v>
       </c>
       <c r="E151" t="n">
-        <v>5.87</v>
+        <v>5.92</v>
       </c>
       <c r="F151" t="n">
-        <v>19.873</v>
+        <v>162.077</v>
       </c>
       <c r="G151" t="n">
         <v>5.875666666666671</v>
@@ -5824,7 +5952,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5839,22 +5969,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="C152" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="D152" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="E152" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="F152" t="n">
-        <v>24378.7841</v>
+        <v>19.873</v>
       </c>
       <c r="G152" t="n">
-        <v>5.876000000000004</v>
+        <v>5.875666666666671</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5863,7 +5993,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5881,19 +6013,19 @@
         <v>5.89</v>
       </c>
       <c r="C153" t="n">
-        <v>5.86</v>
+        <v>5.89</v>
       </c>
       <c r="D153" t="n">
         <v>5.89</v>
       </c>
       <c r="E153" t="n">
-        <v>5.86</v>
+        <v>5.89</v>
       </c>
       <c r="F153" t="n">
-        <v>39.95</v>
+        <v>24378.7841</v>
       </c>
       <c r="G153" t="n">
-        <v>5.875833333333337</v>
+        <v>5.876000000000004</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5902,7 +6034,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5917,22 +6051,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="C154" t="n">
         <v>5.86</v>
       </c>
       <c r="D154" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="E154" t="n">
         <v>5.86</v>
       </c>
       <c r="F154" t="n">
-        <v>41498.179</v>
+        <v>39.95</v>
       </c>
       <c r="G154" t="n">
-        <v>5.875666666666671</v>
+        <v>5.875833333333337</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5941,7 +6075,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5956,22 +6092,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C155" t="n">
         <v>5.86</v>
       </c>
-      <c r="C155" t="n">
-        <v>5.81</v>
-      </c>
       <c r="D155" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="E155" t="n">
         <v>5.86</v>
       </c>
-      <c r="E155" t="n">
-        <v>5.81</v>
-      </c>
       <c r="F155" t="n">
-        <v>423459.9159</v>
+        <v>41498.179</v>
       </c>
       <c r="G155" t="n">
-        <v>5.874666666666671</v>
+        <v>5.875666666666671</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5980,7 +6116,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5995,22 +6133,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.82</v>
+        <v>5.86</v>
       </c>
       <c r="C156" t="n">
-        <v>5.82</v>
+        <v>5.81</v>
       </c>
       <c r="D156" t="n">
-        <v>5.82</v>
+        <v>5.86</v>
       </c>
       <c r="E156" t="n">
-        <v>5.82</v>
+        <v>5.81</v>
       </c>
       <c r="F156" t="n">
-        <v>3296.874</v>
+        <v>423459.9159</v>
       </c>
       <c r="G156" t="n">
-        <v>5.873833333333337</v>
+        <v>5.874666666666671</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6019,7 +6157,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6034,22 +6174,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.89</v>
+        <v>5.82</v>
       </c>
       <c r="C157" t="n">
-        <v>5.89</v>
+        <v>5.82</v>
       </c>
       <c r="D157" t="n">
-        <v>5.89</v>
+        <v>5.82</v>
       </c>
       <c r="E157" t="n">
-        <v>5.89</v>
+        <v>5.82</v>
       </c>
       <c r="F157" t="n">
-        <v>10</v>
+        <v>3296.874</v>
       </c>
       <c r="G157" t="n">
-        <v>5.87416666666667</v>
+        <v>5.873833333333337</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6058,7 +6198,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6076,19 +6218,19 @@
         <v>5.89</v>
       </c>
       <c r="C158" t="n">
-        <v>5.82</v>
+        <v>5.89</v>
       </c>
       <c r="D158" t="n">
         <v>5.89</v>
       </c>
       <c r="E158" t="n">
-        <v>5.82</v>
+        <v>5.89</v>
       </c>
       <c r="F158" t="n">
-        <v>39.95</v>
+        <v>10</v>
       </c>
       <c r="G158" t="n">
-        <v>5.873333333333337</v>
+        <v>5.87416666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6097,7 +6239,9 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6112,22 +6256,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C159" t="n">
         <v>5.82</v>
       </c>
-      <c r="C159" t="n">
-        <v>5.81</v>
-      </c>
       <c r="D159" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="E159" t="n">
         <v>5.82</v>
       </c>
-      <c r="E159" t="n">
-        <v>5.81</v>
-      </c>
       <c r="F159" t="n">
-        <v>29637.3249</v>
+        <v>39.95</v>
       </c>
       <c r="G159" t="n">
-        <v>5.872500000000003</v>
+        <v>5.873333333333337</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6136,7 +6280,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6154,19 +6300,19 @@
         <v>5.82</v>
       </c>
       <c r="C160" t="n">
-        <v>5.82</v>
+        <v>5.81</v>
       </c>
       <c r="D160" t="n">
         <v>5.82</v>
       </c>
       <c r="E160" t="n">
-        <v>5.82</v>
+        <v>5.81</v>
       </c>
       <c r="F160" t="n">
-        <v>11409.8231</v>
+        <v>29637.3249</v>
       </c>
       <c r="G160" t="n">
-        <v>5.871500000000003</v>
+        <v>5.872500000000003</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6175,7 +6321,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6190,22 +6338,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.89</v>
+        <v>5.82</v>
       </c>
       <c r="C161" t="n">
         <v>5.82</v>
       </c>
       <c r="D161" t="n">
-        <v>5.89</v>
+        <v>5.82</v>
       </c>
       <c r="E161" t="n">
         <v>5.82</v>
       </c>
       <c r="F161" t="n">
-        <v>49.95</v>
+        <v>11409.8231</v>
       </c>
       <c r="G161" t="n">
-        <v>5.87116666666667</v>
+        <v>5.871500000000003</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6214,7 +6362,9 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6229,22 +6379,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.83</v>
+        <v>5.89</v>
       </c>
       <c r="C162" t="n">
-        <v>5.83</v>
+        <v>5.82</v>
       </c>
       <c r="D162" t="n">
-        <v>5.83</v>
+        <v>5.89</v>
       </c>
       <c r="E162" t="n">
-        <v>5.83</v>
+        <v>5.82</v>
       </c>
       <c r="F162" t="n">
-        <v>7000</v>
+        <v>49.95</v>
       </c>
       <c r="G162" t="n">
-        <v>5.871000000000004</v>
+        <v>5.87116666666667</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6253,7 +6403,9 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6268,22 +6420,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.88</v>
+        <v>5.83</v>
       </c>
       <c r="C163" t="n">
-        <v>5.88</v>
+        <v>5.83</v>
       </c>
       <c r="D163" t="n">
-        <v>5.88</v>
+        <v>5.83</v>
       </c>
       <c r="E163" t="n">
-        <v>5.88</v>
+        <v>5.83</v>
       </c>
       <c r="F163" t="n">
-        <v>20</v>
+        <v>7000</v>
       </c>
       <c r="G163" t="n">
-        <v>5.871666666666671</v>
+        <v>5.871000000000004</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6292,7 +6444,9 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6307,31 +6461,35 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.82</v>
+        <v>5.88</v>
       </c>
       <c r="C164" t="n">
-        <v>5.82</v>
+        <v>5.88</v>
       </c>
       <c r="D164" t="n">
-        <v>5.82</v>
+        <v>5.88</v>
       </c>
       <c r="E164" t="n">
-        <v>5.82</v>
+        <v>5.88</v>
       </c>
       <c r="F164" t="n">
-        <v>19.95</v>
+        <v>20</v>
       </c>
       <c r="G164" t="n">
-        <v>5.871333333333338</v>
+        <v>5.871666666666671</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="K164" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6346,22 +6504,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.88</v>
+        <v>5.82</v>
       </c>
       <c r="C165" t="n">
-        <v>5.89</v>
+        <v>5.82</v>
       </c>
       <c r="D165" t="n">
-        <v>5.89</v>
+        <v>5.82</v>
       </c>
       <c r="E165" t="n">
-        <v>5.88</v>
+        <v>5.82</v>
       </c>
       <c r="F165" t="n">
-        <v>11670.7035</v>
+        <v>19.95</v>
       </c>
       <c r="G165" t="n">
-        <v>5.872166666666671</v>
+        <v>5.871333333333338</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6370,7 +6528,9 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6385,7 +6545,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="C166" t="n">
         <v>5.89</v>
@@ -6394,13 +6554,13 @@
         <v>5.89</v>
       </c>
       <c r="E166" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="F166" t="n">
-        <v>12962</v>
+        <v>11670.7035</v>
       </c>
       <c r="G166" t="n">
-        <v>5.873000000000005</v>
+        <v>5.872166666666671</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6409,7 +6569,9 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6424,22 +6586,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="C167" t="n">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="D167" t="n">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="E167" t="n">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="F167" t="n">
-        <v>1385.2965</v>
+        <v>12962</v>
       </c>
       <c r="G167" t="n">
-        <v>5.873666666666671</v>
+        <v>5.873000000000005</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6448,7 +6610,9 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6463,22 +6627,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.82</v>
+        <v>5.88</v>
       </c>
       <c r="C168" t="n">
-        <v>5.82</v>
+        <v>5.88</v>
       </c>
       <c r="D168" t="n">
-        <v>5.82</v>
+        <v>5.88</v>
       </c>
       <c r="E168" t="n">
-        <v>5.82</v>
+        <v>5.88</v>
       </c>
       <c r="F168" t="n">
-        <v>36829</v>
+        <v>1385.2965</v>
       </c>
       <c r="G168" t="n">
-        <v>5.873333333333338</v>
+        <v>5.873666666666671</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6487,7 +6651,9 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6514,10 +6680,10 @@
         <v>5.82</v>
       </c>
       <c r="F169" t="n">
-        <v>47962</v>
+        <v>36829</v>
       </c>
       <c r="G169" t="n">
-        <v>5.873000000000006</v>
+        <v>5.873333333333338</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6526,7 +6692,9 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6544,19 +6712,19 @@
         <v>5.82</v>
       </c>
       <c r="C170" t="n">
-        <v>5.81</v>
+        <v>5.82</v>
       </c>
       <c r="D170" t="n">
         <v>5.82</v>
       </c>
       <c r="E170" t="n">
-        <v>5.81</v>
+        <v>5.82</v>
       </c>
       <c r="F170" t="n">
-        <v>66710</v>
+        <v>47962</v>
       </c>
       <c r="G170" t="n">
-        <v>5.872500000000006</v>
+        <v>5.873000000000006</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6565,7 +6733,9 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6580,22 +6750,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="C171" t="n">
         <v>5.81</v>
       </c>
-      <c r="C171" t="n">
-        <v>5.87</v>
-      </c>
       <c r="D171" t="n">
-        <v>5.87</v>
+        <v>5.82</v>
       </c>
       <c r="E171" t="n">
-        <v>5.8</v>
+        <v>5.81</v>
       </c>
       <c r="F171" t="n">
-        <v>66456</v>
+        <v>66710</v>
       </c>
       <c r="G171" t="n">
-        <v>5.873000000000006</v>
+        <v>5.872500000000006</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6604,7 +6774,9 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6622,19 +6794,19 @@
         <v>5.81</v>
       </c>
       <c r="C172" t="n">
-        <v>5.82</v>
+        <v>5.87</v>
       </c>
       <c r="D172" t="n">
-        <v>5.82</v>
+        <v>5.87</v>
       </c>
       <c r="E172" t="n">
-        <v>5.81</v>
+        <v>5.8</v>
       </c>
       <c r="F172" t="n">
-        <v>9984</v>
+        <v>66456</v>
       </c>
       <c r="G172" t="n">
-        <v>5.872666666666674</v>
+        <v>5.873000000000006</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6643,7 +6815,9 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6658,22 +6832,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.87</v>
+        <v>5.81</v>
       </c>
       <c r="C173" t="n">
-        <v>5.88</v>
+        <v>5.82</v>
       </c>
       <c r="D173" t="n">
-        <v>5.88</v>
+        <v>5.82</v>
       </c>
       <c r="E173" t="n">
-        <v>5.87</v>
+        <v>5.81</v>
       </c>
       <c r="F173" t="n">
-        <v>10</v>
+        <v>9984</v>
       </c>
       <c r="G173" t="n">
-        <v>5.87283333333334</v>
+        <v>5.872666666666674</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6682,7 +6856,9 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6697,7 +6873,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="C174" t="n">
         <v>5.88</v>
@@ -6706,13 +6882,13 @@
         <v>5.88</v>
       </c>
       <c r="E174" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="F174" t="n">
-        <v>136242</v>
+        <v>10</v>
       </c>
       <c r="G174" t="n">
-        <v>5.873500000000007</v>
+        <v>5.87283333333334</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6721,7 +6897,9 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6748,10 +6926,10 @@
         <v>5.88</v>
       </c>
       <c r="F175" t="n">
-        <v>0.4934</v>
+        <v>136242</v>
       </c>
       <c r="G175" t="n">
-        <v>5.874166666666674</v>
+        <v>5.873500000000007</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6760,7 +6938,9 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6775,22 +6955,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="C176" t="n">
-        <v>5.94</v>
+        <v>5.88</v>
       </c>
       <c r="D176" t="n">
-        <v>5.94</v>
+        <v>5.88</v>
       </c>
       <c r="E176" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="F176" t="n">
-        <v>110</v>
+        <v>0.4934</v>
       </c>
       <c r="G176" t="n">
-        <v>5.875833333333341</v>
+        <v>5.874166666666674</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6799,7 +6979,9 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6814,7 +6996,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.94</v>
+        <v>5.89</v>
       </c>
       <c r="C177" t="n">
         <v>5.94</v>
@@ -6823,13 +7005,13 @@
         <v>5.94</v>
       </c>
       <c r="E177" t="n">
-        <v>5.94</v>
+        <v>5.89</v>
       </c>
       <c r="F177" t="n">
-        <v>5674.3824</v>
+        <v>110</v>
       </c>
       <c r="G177" t="n">
-        <v>5.877500000000008</v>
+        <v>5.875833333333341</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6838,7 +7020,9 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6865,10 +7049,10 @@
         <v>5.94</v>
       </c>
       <c r="F178" t="n">
-        <v>153600.36</v>
+        <v>5674.3824</v>
       </c>
       <c r="G178" t="n">
-        <v>5.879166666666675</v>
+        <v>5.877500000000008</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6877,7 +7061,9 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6904,10 +7090,10 @@
         <v>5.94</v>
       </c>
       <c r="F179" t="n">
-        <v>56399.64</v>
+        <v>153600.36</v>
       </c>
       <c r="G179" t="n">
-        <v>5.880166666666676</v>
+        <v>5.879166666666675</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6916,7 +7102,9 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6943,10 +7131,10 @@
         <v>5.94</v>
       </c>
       <c r="F180" t="n">
-        <v>20</v>
+        <v>56399.64</v>
       </c>
       <c r="G180" t="n">
-        <v>5.881166666666675</v>
+        <v>5.880166666666676</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6955,7 +7143,9 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6970,22 +7160,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>5.87</v>
+        <v>5.94</v>
       </c>
       <c r="C181" t="n">
-        <v>5.87</v>
+        <v>5.94</v>
       </c>
       <c r="D181" t="n">
-        <v>5.87</v>
+        <v>5.94</v>
       </c>
       <c r="E181" t="n">
-        <v>5.87</v>
+        <v>5.94</v>
       </c>
       <c r="F181" t="n">
-        <v>19.95</v>
+        <v>20</v>
       </c>
       <c r="G181" t="n">
-        <v>5.881000000000009</v>
+        <v>5.881166666666675</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6994,7 +7184,9 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7009,22 +7201,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>5.94</v>
+        <v>5.87</v>
       </c>
       <c r="C182" t="n">
-        <v>5.94</v>
+        <v>5.87</v>
       </c>
       <c r="D182" t="n">
-        <v>5.94</v>
+        <v>5.87</v>
       </c>
       <c r="E182" t="n">
-        <v>5.94</v>
+        <v>5.87</v>
       </c>
       <c r="F182" t="n">
-        <v>55.4444</v>
+        <v>19.95</v>
       </c>
       <c r="G182" t="n">
-        <v>5.882000000000009</v>
+        <v>5.881000000000009</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7033,7 +7225,9 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7060,10 +7254,10 @@
         <v>5.94</v>
       </c>
       <c r="F183" t="n">
-        <v>88.8888</v>
+        <v>55.4444</v>
       </c>
       <c r="G183" t="n">
-        <v>5.883333333333342</v>
+        <v>5.882000000000009</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7072,7 +7266,9 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7099,10 +7295,10 @@
         <v>5.94</v>
       </c>
       <c r="F184" t="n">
-        <v>9835.666800000001</v>
+        <v>88.8888</v>
       </c>
       <c r="G184" t="n">
-        <v>5.884666666666675</v>
+        <v>5.883333333333342</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7111,7 +7307,9 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7126,7 +7324,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>5.93</v>
+        <v>5.94</v>
       </c>
       <c r="C185" t="n">
         <v>5.94</v>
@@ -7135,13 +7333,13 @@
         <v>5.94</v>
       </c>
       <c r="E185" t="n">
-        <v>5.93</v>
+        <v>5.94</v>
       </c>
       <c r="F185" t="n">
-        <v>11681</v>
+        <v>9835.666800000001</v>
       </c>
       <c r="G185" t="n">
-        <v>5.884833333333342</v>
+        <v>5.884666666666675</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7150,7 +7348,9 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7165,7 +7365,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="C186" t="n">
         <v>5.94</v>
@@ -7174,10 +7374,10 @@
         <v>5.94</v>
       </c>
       <c r="E186" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="F186" t="n">
-        <v>4444.1189</v>
+        <v>11681</v>
       </c>
       <c r="G186" t="n">
         <v>5.884833333333342</v>
@@ -7189,7 +7389,9 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7216,10 +7418,10 @@
         <v>5.94</v>
       </c>
       <c r="F187" t="n">
-        <v>9886.7171</v>
+        <v>4444.1189</v>
       </c>
       <c r="G187" t="n">
-        <v>5.885000000000008</v>
+        <v>5.884833333333342</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7228,7 +7430,9 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7243,22 +7447,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>5.87</v>
+        <v>5.94</v>
       </c>
       <c r="C188" t="n">
-        <v>5.87</v>
+        <v>5.94</v>
       </c>
       <c r="D188" t="n">
-        <v>5.87</v>
+        <v>5.94</v>
       </c>
       <c r="E188" t="n">
-        <v>5.87</v>
+        <v>5.94</v>
       </c>
       <c r="F188" t="n">
-        <v>20493.5536</v>
+        <v>9886.7171</v>
       </c>
       <c r="G188" t="n">
-        <v>5.884833333333342</v>
+        <v>5.885000000000008</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7267,7 +7471,9 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7282,19 +7488,19 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>5.86</v>
+        <v>5.87</v>
       </c>
       <c r="C189" t="n">
-        <v>5.94</v>
+        <v>5.87</v>
       </c>
       <c r="D189" t="n">
-        <v>5.94</v>
+        <v>5.87</v>
       </c>
       <c r="E189" t="n">
-        <v>5.86</v>
+        <v>5.87</v>
       </c>
       <c r="F189" t="n">
-        <v>56391</v>
+        <v>20493.5536</v>
       </c>
       <c r="G189" t="n">
         <v>5.884833333333342</v>
@@ -7306,7 +7512,9 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7321,22 +7529,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="C190" t="n">
-        <v>5.86</v>
+        <v>5.94</v>
       </c>
       <c r="D190" t="n">
-        <v>5.87</v>
+        <v>5.94</v>
       </c>
       <c r="E190" t="n">
         <v>5.86</v>
       </c>
       <c r="F190" t="n">
-        <v>78444.121</v>
+        <v>56391</v>
       </c>
       <c r="G190" t="n">
-        <v>5.884166666666675</v>
+        <v>5.884833333333342</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7345,7 +7553,9 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7360,22 +7570,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>5.93</v>
+        <v>5.87</v>
       </c>
       <c r="C191" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="D191" t="n">
-        <v>5.93</v>
+        <v>5.87</v>
       </c>
       <c r="E191" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="F191" t="n">
-        <v>221.9224283305228</v>
+        <v>78444.121</v>
       </c>
       <c r="G191" t="n">
-        <v>5.884500000000008</v>
+        <v>5.884166666666675</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7384,7 +7594,9 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7411,10 +7623,10 @@
         <v>5.93</v>
       </c>
       <c r="F192" t="n">
-        <v>13692.55857166948</v>
+        <v>221.9224283305228</v>
       </c>
       <c r="G192" t="n">
-        <v>5.885500000000008</v>
+        <v>5.884500000000008</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7423,7 +7635,9 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7438,22 +7652,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="C193" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="D193" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="E193" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="F193" t="n">
-        <v>1400</v>
+        <v>13692.55857166948</v>
       </c>
       <c r="G193" t="n">
-        <v>5.886166666666676</v>
+        <v>5.885500000000008</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7462,7 +7676,9 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7489,10 +7705,10 @@
         <v>5.94</v>
       </c>
       <c r="F194" t="n">
-        <v>208485.0168</v>
+        <v>1400</v>
       </c>
       <c r="G194" t="n">
-        <v>5.887500000000008</v>
+        <v>5.886166666666676</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7501,7 +7717,9 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7528,10 +7746,10 @@
         <v>5.94</v>
       </c>
       <c r="F195" t="n">
-        <v>721.8855</v>
+        <v>208485.0168</v>
       </c>
       <c r="G195" t="n">
-        <v>5.888833333333341</v>
+        <v>5.887500000000008</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7540,7 +7758,9 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7567,10 +7787,10 @@
         <v>5.94</v>
       </c>
       <c r="F196" t="n">
-        <v>4868.5102</v>
+        <v>721.8855</v>
       </c>
       <c r="G196" t="n">
-        <v>5.889000000000008</v>
+        <v>5.888833333333341</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7579,7 +7799,9 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7606,10 +7828,10 @@
         <v>5.94</v>
       </c>
       <c r="F197" t="n">
-        <v>193.3249</v>
+        <v>4868.5102</v>
       </c>
       <c r="G197" t="n">
-        <v>5.890333333333341</v>
+        <v>5.889000000000008</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7618,7 +7840,9 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7645,10 +7869,10 @@
         <v>5.94</v>
       </c>
       <c r="F198" t="n">
-        <v>60000</v>
+        <v>193.3249</v>
       </c>
       <c r="G198" t="n">
-        <v>5.891500000000008</v>
+        <v>5.890333333333341</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7657,7 +7881,9 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7672,22 +7898,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>5.95</v>
+        <v>5.94</v>
       </c>
       <c r="C199" t="n">
-        <v>5.95</v>
+        <v>5.94</v>
       </c>
       <c r="D199" t="n">
-        <v>5.95</v>
+        <v>5.94</v>
       </c>
       <c r="E199" t="n">
-        <v>5.95</v>
+        <v>5.94</v>
       </c>
       <c r="F199" t="n">
-        <v>10</v>
+        <v>60000</v>
       </c>
       <c r="G199" t="n">
-        <v>5.891833333333341</v>
+        <v>5.891500000000008</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7696,7 +7922,9 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7714,19 +7942,19 @@
         <v>5.95</v>
       </c>
       <c r="C200" t="n">
-        <v>5.96</v>
+        <v>5.95</v>
       </c>
       <c r="D200" t="n">
-        <v>5.96</v>
+        <v>5.95</v>
       </c>
       <c r="E200" t="n">
         <v>5.95</v>
       </c>
       <c r="F200" t="n">
-        <v>4925</v>
+        <v>10</v>
       </c>
       <c r="G200" t="n">
-        <v>5.893500000000007</v>
+        <v>5.891833333333341</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7735,7 +7963,9 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7750,7 +7980,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>5.96</v>
+        <v>5.95</v>
       </c>
       <c r="C201" t="n">
         <v>5.96</v>
@@ -7759,13 +7989,13 @@
         <v>5.96</v>
       </c>
       <c r="E201" t="n">
-        <v>5.96</v>
+        <v>5.95</v>
       </c>
       <c r="F201" t="n">
-        <v>41946.3087</v>
+        <v>4925</v>
       </c>
       <c r="G201" t="n">
-        <v>5.894000000000006</v>
+        <v>5.893500000000007</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7774,7 +8004,9 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7792,19 +8024,19 @@
         <v>5.96</v>
       </c>
       <c r="C202" t="n">
-        <v>6</v>
+        <v>5.96</v>
       </c>
       <c r="D202" t="n">
-        <v>6</v>
+        <v>5.96</v>
       </c>
       <c r="E202" t="n">
         <v>5.96</v>
       </c>
       <c r="F202" t="n">
-        <v>53877.5071</v>
+        <v>41946.3087</v>
       </c>
       <c r="G202" t="n">
-        <v>5.89633333333334</v>
+        <v>5.894000000000006</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7813,7 +8045,9 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7828,22 +8062,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>6.01</v>
+        <v>5.96</v>
       </c>
       <c r="C203" t="n">
-        <v>6.02</v>
+        <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>6.02</v>
+        <v>6</v>
       </c>
       <c r="E203" t="n">
-        <v>6.01</v>
+        <v>5.96</v>
       </c>
       <c r="F203" t="n">
-        <v>366745.9468</v>
+        <v>53877.5071</v>
       </c>
       <c r="G203" t="n">
-        <v>5.897833333333339</v>
+        <v>5.89633333333334</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7852,7 +8086,9 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7867,7 +8103,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>6.02</v>
+        <v>6.01</v>
       </c>
       <c r="C204" t="n">
         <v>6.02</v>
@@ -7876,13 +8112,13 @@
         <v>6.02</v>
       </c>
       <c r="E204" t="n">
-        <v>6.02</v>
+        <v>6.01</v>
       </c>
       <c r="F204" t="n">
-        <v>83651</v>
+        <v>366745.9468</v>
       </c>
       <c r="G204" t="n">
-        <v>5.900500000000005</v>
+        <v>5.897833333333339</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7891,7 +8127,9 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7918,10 +8156,10 @@
         <v>6.02</v>
       </c>
       <c r="F205" t="n">
-        <v>71494</v>
+        <v>83651</v>
       </c>
       <c r="G205" t="n">
-        <v>5.902166666666671</v>
+        <v>5.900500000000005</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7930,7 +8168,9 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7948,19 +8188,19 @@
         <v>6.02</v>
       </c>
       <c r="C206" t="n">
-        <v>6.03</v>
+        <v>6.02</v>
       </c>
       <c r="D206" t="n">
-        <v>6.03</v>
+        <v>6.02</v>
       </c>
       <c r="E206" t="n">
         <v>6.02</v>
       </c>
       <c r="F206" t="n">
-        <v>156093</v>
+        <v>71494</v>
       </c>
       <c r="G206" t="n">
-        <v>5.905000000000004</v>
+        <v>5.902166666666671</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7969,7 +8209,9 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7984,59 +8226,63 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="C207" t="n">
         <v>6.03</v>
       </c>
-      <c r="C207" t="n">
-        <v>6.04</v>
-      </c>
       <c r="D207" t="n">
-        <v>6.04</v>
+        <v>6.03</v>
       </c>
       <c r="E207" t="n">
-        <v>6.03</v>
+        <v>6.02</v>
       </c>
       <c r="F207" t="n">
-        <v>20000</v>
+        <v>156093</v>
       </c>
       <c r="G207" t="n">
-        <v>5.906666666666671</v>
+        <v>5.905000000000004</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>5.84</v>
+      </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M207" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="C208" t="n">
         <v>6.04</v>
       </c>
-      <c r="C208" t="n">
-        <v>6.05</v>
-      </c>
       <c r="D208" t="n">
-        <v>6.05</v>
+        <v>6.04</v>
       </c>
       <c r="E208" t="n">
-        <v>6.04</v>
+        <v>6.03</v>
       </c>
       <c r="F208" t="n">
-        <v>141593.2148</v>
+        <v>20000</v>
       </c>
       <c r="G208" t="n">
-        <v>5.908500000000005</v>
+        <v>5.906666666666671</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8045,8 +8291,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8056,7 +8308,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>6.05</v>
+        <v>6.04</v>
       </c>
       <c r="C209" t="n">
         <v>6.05</v>
@@ -8065,13 +8317,13 @@
         <v>6.05</v>
       </c>
       <c r="E209" t="n">
-        <v>6.05</v>
+        <v>6.04</v>
       </c>
       <c r="F209" t="n">
-        <v>48434.7698</v>
+        <v>141593.2148</v>
       </c>
       <c r="G209" t="n">
-        <v>5.910666666666671</v>
+        <v>5.908500000000005</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8080,8 +8332,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8103,22 +8361,28 @@
         <v>6.05</v>
       </c>
       <c r="F210" t="n">
-        <v>858855.6019</v>
+        <v>48434.7698</v>
       </c>
       <c r="G210" t="n">
-        <v>5.912833333333338</v>
+        <v>5.910666666666671</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M210" t="n">
-        <v>1</v>
+        <v>1.030958904109589</v>
       </c>
     </row>
     <row r="211">
@@ -8138,10 +8402,10 @@
         <v>6.05</v>
       </c>
       <c r="F211" t="n">
-        <v>115728.0578</v>
+        <v>858855.6019</v>
       </c>
       <c r="G211" t="n">
-        <v>5.915833333333338</v>
+        <v>5.912833333333338</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8173,16 +8437,16 @@
         <v>6.05</v>
       </c>
       <c r="F212" t="n">
-        <v>66555</v>
+        <v>115728.0578</v>
       </c>
       <c r="G212" t="n">
-        <v>5.918500000000005</v>
+        <v>5.915833333333338</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
@@ -8205,13 +8469,13 @@
         <v>6.05</v>
       </c>
       <c r="E213" t="n">
-        <v>6.04</v>
+        <v>6.05</v>
       </c>
       <c r="F213" t="n">
-        <v>85583</v>
+        <v>66555</v>
       </c>
       <c r="G213" t="n">
-        <v>5.921666666666671</v>
+        <v>5.918500000000005</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8234,7 +8498,7 @@
         <v>6.05</v>
       </c>
       <c r="C214" t="n">
-        <v>6.04</v>
+        <v>6.05</v>
       </c>
       <c r="D214" t="n">
         <v>6.05</v>
@@ -8243,10 +8507,10 @@
         <v>6.04</v>
       </c>
       <c r="F214" t="n">
-        <v>54674</v>
+        <v>85583</v>
       </c>
       <c r="G214" t="n">
-        <v>5.924666666666671</v>
+        <v>5.921666666666671</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8269,19 +8533,19 @@
         <v>6.05</v>
       </c>
       <c r="C215" t="n">
-        <v>6.05</v>
+        <v>6.04</v>
       </c>
       <c r="D215" t="n">
         <v>6.05</v>
       </c>
       <c r="E215" t="n">
-        <v>6.05</v>
+        <v>6.04</v>
       </c>
       <c r="F215" t="n">
-        <v>10</v>
+        <v>54674</v>
       </c>
       <c r="G215" t="n">
-        <v>5.928666666666672</v>
+        <v>5.924666666666671</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8301,7 +8565,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>6.04</v>
+        <v>6.05</v>
       </c>
       <c r="C216" t="n">
         <v>6.05</v>
@@ -8310,13 +8574,13 @@
         <v>6.05</v>
       </c>
       <c r="E216" t="n">
-        <v>6.04</v>
+        <v>6.05</v>
       </c>
       <c r="F216" t="n">
-        <v>51345</v>
+        <v>10</v>
       </c>
       <c r="G216" t="n">
-        <v>5.932500000000005</v>
+        <v>5.928666666666672</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8336,7 +8600,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>6.05</v>
+        <v>6.04</v>
       </c>
       <c r="C217" t="n">
         <v>6.05</v>
@@ -8348,10 +8612,10 @@
         <v>6.04</v>
       </c>
       <c r="F217" t="n">
-        <v>91071.0281</v>
+        <v>51345</v>
       </c>
       <c r="G217" t="n">
-        <v>5.935166666666673</v>
+        <v>5.932500000000005</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8380,13 +8644,13 @@
         <v>6.05</v>
       </c>
       <c r="E218" t="n">
-        <v>6.05</v>
+        <v>6.04</v>
       </c>
       <c r="F218" t="n">
-        <v>31535</v>
+        <v>91071.0281</v>
       </c>
       <c r="G218" t="n">
-        <v>5.939000000000006</v>
+        <v>5.935166666666673</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8406,7 +8670,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>6.02</v>
+        <v>6.05</v>
       </c>
       <c r="C219" t="n">
         <v>6.05</v>
@@ -8415,13 +8679,13 @@
         <v>6.05</v>
       </c>
       <c r="E219" t="n">
-        <v>6.02</v>
+        <v>6.05</v>
       </c>
       <c r="F219" t="n">
-        <v>11111</v>
+        <v>31535</v>
       </c>
       <c r="G219" t="n">
-        <v>5.943000000000007</v>
+        <v>5.939000000000006</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8441,7 +8705,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>6.05</v>
+        <v>6.02</v>
       </c>
       <c r="C220" t="n">
         <v>6.05</v>
@@ -8450,13 +8714,13 @@
         <v>6.05</v>
       </c>
       <c r="E220" t="n">
-        <v>6.05</v>
+        <v>6.02</v>
       </c>
       <c r="F220" t="n">
-        <v>26979</v>
+        <v>11111</v>
       </c>
       <c r="G220" t="n">
-        <v>5.94683333333334</v>
+        <v>5.943000000000007</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8488,10 +8752,10 @@
         <v>6.05</v>
       </c>
       <c r="F221" t="n">
-        <v>58572</v>
+        <v>26979</v>
       </c>
       <c r="G221" t="n">
-        <v>5.950666666666674</v>
+        <v>5.94683333333334</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8523,10 +8787,10 @@
         <v>6.05</v>
       </c>
       <c r="F222" t="n">
-        <v>34333</v>
+        <v>58572</v>
       </c>
       <c r="G222" t="n">
-        <v>5.954333333333341</v>
+        <v>5.950666666666674</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8558,10 +8822,10 @@
         <v>6.05</v>
       </c>
       <c r="F223" t="n">
-        <v>105645</v>
+        <v>34333</v>
       </c>
       <c r="G223" t="n">
-        <v>5.957166666666675</v>
+        <v>5.954333333333341</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8593,10 +8857,10 @@
         <v>6.05</v>
       </c>
       <c r="F224" t="n">
-        <v>71683</v>
+        <v>105645</v>
       </c>
       <c r="G224" t="n">
-        <v>5.961000000000008</v>
+        <v>5.957166666666675</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8611,6 +8875,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C225" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D225" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E225" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F225" t="n">
+        <v>71683</v>
+      </c>
+      <c r="G225" t="n">
+        <v>5.961000000000008</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-25 BackTest FAB.xlsx
+++ b/BackTest/2019-10-25 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M225"/>
+  <dimension ref="A1:N235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>14854.396</v>
       </c>
       <c r="G2" t="n">
+        <v>6.002000000000005</v>
+      </c>
+      <c r="H2" t="n">
         <v>5.926166666666666</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>400</v>
       </c>
       <c r="G3" t="n">
+        <v>5.999333333333338</v>
+      </c>
+      <c r="H3" t="n">
         <v>5.928166666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>85416.2458</v>
       </c>
       <c r="G4" t="n">
+        <v>5.995333333333337</v>
+      </c>
+      <c r="H4" t="n">
         <v>5.929666666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>69411</v>
       </c>
       <c r="G5" t="n">
+        <v>5.992000000000004</v>
+      </c>
+      <c r="H5" t="n">
         <v>5.931166666666668</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>7303.3026</v>
       </c>
       <c r="G6" t="n">
+        <v>5.994000000000004</v>
+      </c>
+      <c r="H6" t="n">
         <v>5.934000000000001</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>10</v>
       </c>
       <c r="G7" t="n">
+        <v>5.996666666666671</v>
+      </c>
+      <c r="H7" t="n">
         <v>5.936000000000002</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>10</v>
       </c>
       <c r="G8" t="n">
+        <v>5.999333333333337</v>
+      </c>
+      <c r="H8" t="n">
         <v>5.938000000000001</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>10</v>
       </c>
       <c r="G9" t="n">
+        <v>6.002000000000003</v>
+      </c>
+      <c r="H9" t="n">
         <v>5.940000000000001</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>190080.7979</v>
       </c>
       <c r="G10" t="n">
+        <v>5.999333333333336</v>
+      </c>
+      <c r="H10" t="n">
         <v>5.940666666666669</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>41.9625</v>
       </c>
       <c r="G11" t="n">
+        <v>5.994000000000002</v>
+      </c>
+      <c r="H11" t="n">
         <v>5.941833333333335</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>100</v>
       </c>
       <c r="G12" t="n">
+        <v>5.98866666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>5.943500000000002</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>100</v>
       </c>
       <c r="G13" t="n">
+        <v>5.983333333333336</v>
+      </c>
+      <c r="H13" t="n">
         <v>5.945333333333336</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>10</v>
       </c>
       <c r="G14" t="n">
+        <v>5.977333333333336</v>
+      </c>
+      <c r="H14" t="n">
         <v>5.947000000000003</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>111323.6199</v>
       </c>
       <c r="G15" t="n">
+        <v>5.965333333333335</v>
+      </c>
+      <c r="H15" t="n">
         <v>5.94616666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>95645.3253</v>
       </c>
       <c r="G16" t="n">
+        <v>5.960666666666668</v>
+      </c>
+      <c r="H16" t="n">
         <v>5.945333333333338</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>18</v>
       </c>
       <c r="G17" t="n">
+        <v>5.956000000000002</v>
+      </c>
+      <c r="H17" t="n">
         <v>5.946833333333339</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>58818.791</v>
       </c>
       <c r="G18" t="n">
+        <v>5.945333333333336</v>
+      </c>
+      <c r="H18" t="n">
         <v>5.946000000000004</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>133595.061</v>
       </c>
       <c r="G19" t="n">
+        <v>5.936000000000003</v>
+      </c>
+      <c r="H19" t="n">
         <v>5.945166666666671</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>10</v>
       </c>
       <c r="G20" t="n">
+        <v>5.932000000000002</v>
+      </c>
+      <c r="H20" t="n">
         <v>5.945666666666671</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>36628.168</v>
       </c>
       <c r="G21" t="n">
+        <v>5.921333333333335</v>
+      </c>
+      <c r="H21" t="n">
         <v>5.945166666666672</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>10</v>
       </c>
       <c r="G22" t="n">
+        <v>5.914000000000001</v>
+      </c>
+      <c r="H22" t="n">
         <v>5.945666666666672</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>10</v>
       </c>
       <c r="G23" t="n">
+        <v>5.906666666666668</v>
+      </c>
+      <c r="H23" t="n">
         <v>5.946166666666673</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>10</v>
       </c>
       <c r="G24" t="n">
+        <v>5.899333333333335</v>
+      </c>
+      <c r="H24" t="n">
         <v>5.946666666666673</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>10</v>
       </c>
       <c r="G25" t="n">
+        <v>5.897333333333335</v>
+      </c>
+      <c r="H25" t="n">
         <v>5.948000000000008</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>10</v>
       </c>
       <c r="G26" t="n">
+        <v>5.895333333333335</v>
+      </c>
+      <c r="H26" t="n">
         <v>5.949333333333342</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>10</v>
       </c>
       <c r="G27" t="n">
+        <v>5.893333333333334</v>
+      </c>
+      <c r="H27" t="n">
         <v>5.950666666666676</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>10</v>
       </c>
       <c r="G28" t="n">
+        <v>5.891333333333335</v>
+      </c>
+      <c r="H28" t="n">
         <v>5.95200000000001</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>10</v>
       </c>
       <c r="G29" t="n">
+        <v>5.889333333333335</v>
+      </c>
+      <c r="H29" t="n">
         <v>5.953333333333344</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>100</v>
       </c>
       <c r="G30" t="n">
+        <v>5.893333333333334</v>
+      </c>
+      <c r="H30" t="n">
         <v>5.953833333333344</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>10</v>
       </c>
       <c r="G31" t="n">
+        <v>5.897333333333335</v>
+      </c>
+      <c r="H31" t="n">
         <v>5.954333333333344</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>100</v>
       </c>
       <c r="G32" t="n">
+        <v>5.896000000000002</v>
+      </c>
+      <c r="H32" t="n">
         <v>5.955666666666678</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>20652.1657</v>
       </c>
       <c r="G33" t="n">
+        <v>5.896666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>5.956000000000013</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>20</v>
       </c>
       <c r="G34" t="n">
+        <v>5.902000000000001</v>
+      </c>
+      <c r="H34" t="n">
         <v>5.956500000000013</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>10</v>
       </c>
       <c r="G35" t="n">
+        <v>5.902000000000001</v>
+      </c>
+      <c r="H35" t="n">
         <v>5.957000000000013</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>100</v>
       </c>
       <c r="G36" t="n">
+        <v>5.906000000000001</v>
+      </c>
+      <c r="H36" t="n">
         <v>5.957166666666681</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>100</v>
       </c>
       <c r="G37" t="n">
+        <v>5.906000000000001</v>
+      </c>
+      <c r="H37" t="n">
         <v>5.957333333333349</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>10</v>
       </c>
       <c r="G38" t="n">
+        <v>5.906000000000001</v>
+      </c>
+      <c r="H38" t="n">
         <v>5.957500000000016</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>10</v>
       </c>
       <c r="G39" t="n">
+        <v>5.906000000000001</v>
+      </c>
+      <c r="H39" t="n">
         <v>5.956500000000016</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>10</v>
       </c>
       <c r="G40" t="n">
+        <v>5.906000000000001</v>
+      </c>
+      <c r="H40" t="n">
         <v>5.954666666666683</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>66768.4679</v>
       </c>
       <c r="G41" t="n">
+        <v>5.902000000000001</v>
+      </c>
+      <c r="H41" t="n">
         <v>5.951500000000016</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>10</v>
       </c>
       <c r="G42" t="n">
+        <v>5.902000000000001</v>
+      </c>
+      <c r="H42" t="n">
         <v>5.949500000000017</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>32652.5768</v>
       </c>
       <c r="G43" t="n">
+        <v>5.896666666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>5.946333333333351</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>102169</v>
       </c>
       <c r="G44" t="n">
+        <v>5.891333333333335</v>
+      </c>
+      <c r="H44" t="n">
         <v>5.942833333333351</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>70401</v>
       </c>
       <c r="G45" t="n">
+        <v>5.886000000000001</v>
+      </c>
+      <c r="H45" t="n">
         <v>5.93933333333335</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>47573</v>
       </c>
       <c r="G46" t="n">
+        <v>5.880666666666668</v>
+      </c>
+      <c r="H46" t="n">
         <v>5.935833333333349</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>43460</v>
       </c>
       <c r="G47" t="n">
+        <v>5.875333333333335</v>
+      </c>
+      <c r="H47" t="n">
         <v>5.932333333333348</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>73622</v>
       </c>
       <c r="G48" t="n">
+        <v>5.874000000000001</v>
+      </c>
+      <c r="H48" t="n">
         <v>5.928833333333348</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>58756</v>
       </c>
       <c r="G49" t="n">
+        <v>5.868666666666669</v>
+      </c>
+      <c r="H49" t="n">
         <v>5.925500000000015</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>41923.7761</v>
       </c>
       <c r="G50" t="n">
+        <v>5.863333333333335</v>
+      </c>
+      <c r="H50" t="n">
         <v>5.922333333333348</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>123256.1582</v>
       </c>
       <c r="G51" t="n">
+        <v>5.858000000000002</v>
+      </c>
+      <c r="H51" t="n">
         <v>5.919833333333347</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>46143</v>
       </c>
       <c r="G52" t="n">
+        <v>5.852666666666669</v>
+      </c>
+      <c r="H52" t="n">
         <v>5.917333333333347</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>35193</v>
       </c>
       <c r="G53" t="n">
+        <v>5.852666666666669</v>
+      </c>
+      <c r="H53" t="n">
         <v>5.916166666666681</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>42.2487</v>
       </c>
       <c r="G54" t="n">
+        <v>5.850000000000003</v>
+      </c>
+      <c r="H54" t="n">
         <v>5.914333333333347</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>10</v>
       </c>
       <c r="G55" t="n">
+        <v>5.847333333333337</v>
+      </c>
+      <c r="H55" t="n">
         <v>5.912500000000013</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>10</v>
       </c>
       <c r="G56" t="n">
+        <v>5.848666666666671</v>
+      </c>
+      <c r="H56" t="n">
         <v>5.910000000000013</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>138.1486</v>
       </c>
       <c r="G57" t="n">
+        <v>5.843333333333337</v>
+      </c>
+      <c r="H57" t="n">
         <v>5.906833333333347</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>62.4513</v>
       </c>
       <c r="G58" t="n">
+        <v>5.843333333333337</v>
+      </c>
+      <c r="H58" t="n">
         <v>5.90366666666668</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>10877.226</v>
       </c>
       <c r="G59" t="n">
+        <v>5.844000000000005</v>
+      </c>
+      <c r="H59" t="n">
         <v>5.900500000000013</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>2845.8334</v>
       </c>
       <c r="G60" t="n">
+        <v>5.844000000000005</v>
+      </c>
+      <c r="H60" t="n">
         <v>5.89716666666668</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>20000</v>
       </c>
       <c r="G61" t="n">
+        <v>5.844000000000005</v>
+      </c>
+      <c r="H61" t="n">
         <v>5.89566666666668</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>18268.2539</v>
       </c>
       <c r="G62" t="n">
+        <v>5.844000000000005</v>
+      </c>
+      <c r="H62" t="n">
         <v>5.892833333333346</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>61440.954</v>
       </c>
       <c r="G63" t="n">
+        <v>5.844000000000005</v>
+      </c>
+      <c r="H63" t="n">
         <v>5.890000000000013</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>60122.3039</v>
       </c>
       <c r="G64" t="n">
+        <v>5.844000000000005</v>
+      </c>
+      <c r="H64" t="n">
         <v>5.887666666666679</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>30647.4628</v>
       </c>
       <c r="G65" t="n">
+        <v>5.844000000000005</v>
+      </c>
+      <c r="H65" t="n">
         <v>5.885333333333345</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>10</v>
       </c>
       <c r="G66" t="n">
+        <v>5.846000000000005</v>
+      </c>
+      <c r="H66" t="n">
         <v>5.882833333333346</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>12582.2333</v>
       </c>
       <c r="G67" t="n">
+        <v>5.846000000000005</v>
+      </c>
+      <c r="H67" t="n">
         <v>5.879666666666679</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>16503.5561</v>
       </c>
       <c r="G68" t="n">
+        <v>5.842666666666672</v>
+      </c>
+      <c r="H68" t="n">
         <v>5.877000000000012</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>100</v>
       </c>
       <c r="G69" t="n">
+        <v>5.842000000000004</v>
+      </c>
+      <c r="H69" t="n">
         <v>5.874333333333346</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>100</v>
       </c>
       <c r="G70" t="n">
+        <v>5.841333333333337</v>
+      </c>
+      <c r="H70" t="n">
         <v>5.873000000000014</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>47.8632</v>
       </c>
       <c r="G71" t="n">
+        <v>5.839333333333338</v>
+      </c>
+      <c r="H71" t="n">
         <v>5.871333333333346</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>3305.1369</v>
       </c>
       <c r="G72" t="n">
+        <v>5.840000000000004</v>
+      </c>
+      <c r="H72" t="n">
         <v>5.869666666666679</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>66018.7767</v>
       </c>
       <c r="G73" t="n">
+        <v>5.840000000000004</v>
+      </c>
+      <c r="H73" t="n">
         <v>5.867833333333346</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>42080.5264</v>
       </c>
       <c r="G74" t="n">
+        <v>5.842000000000004</v>
+      </c>
+      <c r="H74" t="n">
         <v>5.866666666666679</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>81874</v>
       </c>
       <c r="G75" t="n">
+        <v>5.844666666666671</v>
+      </c>
+      <c r="H75" t="n">
         <v>5.867000000000012</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>28364</v>
       </c>
       <c r="G76" t="n">
+        <v>5.847333333333339</v>
+      </c>
+      <c r="H76" t="n">
         <v>5.867333333333345</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>559.7014</v>
       </c>
       <c r="G77" t="n">
+        <v>5.850666666666672</v>
+      </c>
+      <c r="H77" t="n">
         <v>5.866500000000012</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>30</v>
       </c>
       <c r="G78" t="n">
+        <v>5.857333333333339</v>
+      </c>
+      <c r="H78" t="n">
         <v>5.868000000000012</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>74441.70699999999</v>
       </c>
       <c r="G79" t="n">
+        <v>5.864666666666673</v>
+      </c>
+      <c r="H79" t="n">
         <v>5.869833333333346</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>25469</v>
       </c>
       <c r="G80" t="n">
+        <v>5.868000000000006</v>
+      </c>
+      <c r="H80" t="n">
         <v>5.869333333333345</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>37663.4802</v>
       </c>
       <c r="G81" t="n">
+        <v>5.868666666666672</v>
+      </c>
+      <c r="H81" t="n">
         <v>5.869666666666678</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>83.3558</v>
       </c>
       <c r="G82" t="n">
+        <v>5.87533333333334</v>
+      </c>
+      <c r="H82" t="n">
         <v>5.870000000000011</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>21967</v>
       </c>
       <c r="G83" t="n">
+        <v>5.876666666666673</v>
+      </c>
+      <c r="H83" t="n">
         <v>5.869500000000011</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>10</v>
       </c>
       <c r="G84" t="n">
+        <v>5.880000000000006</v>
+      </c>
+      <c r="H84" t="n">
         <v>5.869500000000011</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>149744.3971</v>
       </c>
       <c r="G85" t="n">
+        <v>5.882000000000006</v>
+      </c>
+      <c r="H85" t="n">
         <v>5.869166666666676</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>63541.4261</v>
       </c>
       <c r="G86" t="n">
+        <v>5.885333333333339</v>
+      </c>
+      <c r="H86" t="n">
         <v>5.868833333333343</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>59458.3083</v>
       </c>
       <c r="G87" t="n">
+        <v>5.886666666666672</v>
+      </c>
+      <c r="H87" t="n">
         <v>5.868000000000009</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>10</v>
       </c>
       <c r="G88" t="n">
+        <v>5.890666666666672</v>
+      </c>
+      <c r="H88" t="n">
         <v>5.867666666666675</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>21487.691</v>
       </c>
       <c r="G89" t="n">
+        <v>5.892000000000006</v>
+      </c>
+      <c r="H89" t="n">
         <v>5.867333333333341</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>121892</v>
       </c>
       <c r="G90" t="n">
+        <v>5.892000000000006</v>
+      </c>
+      <c r="H90" t="n">
         <v>5.866666666666674</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>73394</v>
       </c>
       <c r="G91" t="n">
+        <v>5.892000000000006</v>
+      </c>
+      <c r="H91" t="n">
         <v>5.866000000000008</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>55323.4417</v>
       </c>
       <c r="G92" t="n">
+        <v>5.891333333333339</v>
+      </c>
+      <c r="H92" t="n">
         <v>5.86533333333334</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>84213</v>
       </c>
       <c r="G93" t="n">
+        <v>5.88733333333334</v>
+      </c>
+      <c r="H93" t="n">
         <v>5.865666666666673</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>43989</v>
       </c>
       <c r="G94" t="n">
+        <v>5.882666666666673</v>
+      </c>
+      <c r="H94" t="n">
         <v>5.865000000000006</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>47311</v>
       </c>
       <c r="G95" t="n">
+        <v>5.882000000000007</v>
+      </c>
+      <c r="H95" t="n">
         <v>5.864333333333339</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>59969</v>
       </c>
       <c r="G96" t="n">
+        <v>5.882000000000007</v>
+      </c>
+      <c r="H96" t="n">
         <v>5.863666666666672</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>67925</v>
       </c>
       <c r="G97" t="n">
+        <v>5.878000000000006</v>
+      </c>
+      <c r="H97" t="n">
         <v>5.863000000000005</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>66674</v>
       </c>
       <c r="G98" t="n">
+        <v>5.877333333333341</v>
+      </c>
+      <c r="H98" t="n">
         <v>5.862333333333338</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>68285</v>
       </c>
       <c r="G99" t="n">
+        <v>5.874666666666674</v>
+      </c>
+      <c r="H99" t="n">
         <v>5.861666666666671</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>57806</v>
       </c>
       <c r="G100" t="n">
+        <v>5.872666666666674</v>
+      </c>
+      <c r="H100" t="n">
         <v>5.860833333333337</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>5600</v>
       </c>
       <c r="G101" t="n">
+        <v>5.872000000000008</v>
+      </c>
+      <c r="H101" t="n">
         <v>5.861333333333337</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>90427.7521</v>
       </c>
       <c r="G102" t="n">
+        <v>5.870666666666675</v>
+      </c>
+      <c r="H102" t="n">
         <v>5.86016666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>51807</v>
       </c>
       <c r="G103" t="n">
+        <v>5.867333333333341</v>
+      </c>
+      <c r="H103" t="n">
         <v>5.860333333333336</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,25 @@
         <v>67877</v>
       </c>
       <c r="G104" t="n">
+        <v>5.864000000000008</v>
+      </c>
+      <c r="H104" t="n">
         <v>5.860500000000003</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="L104" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4371,29 @@
         <v>68601</v>
       </c>
       <c r="G105" t="n">
+        <v>5.862000000000008</v>
+      </c>
+      <c r="H105" t="n">
         <v>5.86066666666667</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="L105" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4417,29 @@
         <v>75595</v>
       </c>
       <c r="G106" t="n">
+        <v>5.860000000000008</v>
+      </c>
+      <c r="H106" t="n">
         <v>5.860833333333336</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="L106" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,22 +4463,25 @@
         <v>47410</v>
       </c>
       <c r="G107" t="n">
+        <v>5.858000000000008</v>
+      </c>
+      <c r="H107" t="n">
         <v>5.861000000000002</v>
       </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>5.84</v>
+        <v>0</v>
       </c>
       <c r="K107" t="n">
         <v>5.84</v>
       </c>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,26 +4505,29 @@
         <v>106857.4139</v>
       </c>
       <c r="G108" t="n">
+        <v>5.856000000000008</v>
+      </c>
+      <c r="H108" t="n">
         <v>5.861166666666668</v>
       </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>5.84</v>
+        <v>0</v>
       </c>
       <c r="K108" t="n">
         <v>5.84</v>
       </c>
-      <c r="L108" t="inlineStr">
+      <c r="L108" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M108" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M108" t="n">
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4205,26 +4551,29 @@
         <v>55707</v>
       </c>
       <c r="G109" t="n">
+        <v>5.854000000000008</v>
+      </c>
+      <c r="H109" t="n">
         <v>5.861333333333335</v>
       </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>5.84</v>
+        <v>0</v>
       </c>
       <c r="K109" t="n">
         <v>5.84</v>
       </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4248,26 +4597,29 @@
         <v>52404.0574</v>
       </c>
       <c r="G110" t="n">
+        <v>5.852000000000007</v>
+      </c>
+      <c r="H110" t="n">
         <v>5.861500000000002</v>
       </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>5.84</v>
+        <v>0</v>
       </c>
       <c r="K110" t="n">
         <v>5.84</v>
       </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4291,26 +4643,29 @@
         <v>36869.1035</v>
       </c>
       <c r="G111" t="n">
+        <v>5.850000000000008</v>
+      </c>
+      <c r="H111" t="n">
         <v>5.861666666666668</v>
       </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>5.84</v>
+        <v>0</v>
       </c>
       <c r="K111" t="n">
         <v>5.84</v>
       </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4334,24 +4689,29 @@
         <v>346.7665</v>
       </c>
       <c r="G112" t="n">
+        <v>5.848000000000008</v>
+      </c>
+      <c r="H112" t="n">
         <v>5.861833333333335</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="n">
         <v>5.84</v>
       </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,24 +4735,29 @@
         <v>15000</v>
       </c>
       <c r="G113" t="n">
+        <v>5.846000000000007</v>
+      </c>
+      <c r="H113" t="n">
         <v>5.860666666666668</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="n">
         <v>5.84</v>
       </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4416,26 +4781,29 @@
         <v>100</v>
       </c>
       <c r="G114" t="n">
+        <v>5.846000000000007</v>
+      </c>
+      <c r="H114" t="n">
         <v>5.860666666666668</v>
       </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>5.84</v>
+        <v>0</v>
       </c>
       <c r="K114" t="n">
         <v>5.84</v>
       </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4459,26 +4827,29 @@
         <v>39.95</v>
       </c>
       <c r="G115" t="n">
+        <v>5.844666666666674</v>
+      </c>
+      <c r="H115" t="n">
         <v>5.860166666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>5.87</v>
+        <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="L115" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4502,24 +4873,29 @@
         <v>11970</v>
       </c>
       <c r="G116" t="n">
+        <v>5.842000000000009</v>
+      </c>
+      <c r="H116" t="n">
         <v>5.859666666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="n">
         <v>5.84</v>
       </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,26 +4919,29 @@
         <v>84538.9186</v>
       </c>
       <c r="G117" t="n">
+        <v>5.842000000000009</v>
+      </c>
+      <c r="H117" t="n">
         <v>5.859833333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>5.84</v>
+        <v>0</v>
       </c>
       <c r="K117" t="n">
         <v>5.84</v>
       </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4586,24 +4965,29 @@
         <v>87902.95</v>
       </c>
       <c r="G118" t="n">
+        <v>5.842000000000009</v>
+      </c>
+      <c r="H118" t="n">
         <v>5.859999999999999</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="n">
         <v>5.84</v>
       </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4627,24 +5011,29 @@
         <v>10250.776</v>
       </c>
       <c r="G119" t="n">
+        <v>5.842000000000009</v>
+      </c>
+      <c r="H119" t="n">
         <v>5.859999999999999</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="n">
         <v>5.84</v>
       </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4668,26 +5057,29 @@
         <v>69918.4127</v>
       </c>
       <c r="G120" t="n">
+        <v>5.844666666666674</v>
+      </c>
+      <c r="H120" t="n">
         <v>5.860833333333333</v>
       </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>5.84</v>
+        <v>0</v>
       </c>
       <c r="K120" t="n">
         <v>5.84</v>
       </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4711,26 +5103,29 @@
         <v>62918</v>
       </c>
       <c r="G121" t="n">
+        <v>5.84733333333334</v>
+      </c>
+      <c r="H121" t="n">
         <v>5.861666666666666</v>
       </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
         <v>5.88</v>
       </c>
-      <c r="K121" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4754,24 +5149,29 @@
         <v>100383.95</v>
       </c>
       <c r="G122" t="n">
+        <v>5.850000000000007</v>
+      </c>
+      <c r="H122" t="n">
         <v>5.8625</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="L122" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4795,24 +5195,29 @@
         <v>4544.5853</v>
       </c>
       <c r="G123" t="n">
+        <v>5.852666666666673</v>
+      </c>
+      <c r="H123" t="n">
         <v>5.863333333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="L123" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4836,24 +5241,29 @@
         <v>39.95</v>
       </c>
       <c r="G124" t="n">
+        <v>5.854000000000005</v>
+      </c>
+      <c r="H124" t="n">
         <v>5.863833333333334</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="L124" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4877,24 +5287,29 @@
         <v>5200</v>
       </c>
       <c r="G125" t="n">
+        <v>5.855333333333339</v>
+      </c>
+      <c r="H125" t="n">
         <v>5.864333333333335</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="L125" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4918,24 +5333,27 @@
         <v>10</v>
       </c>
       <c r="G126" t="n">
+        <v>5.861333333333338</v>
+      </c>
+      <c r="H126" t="n">
         <v>5.865500000000001</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4959,24 +5377,27 @@
         <v>161562.1582</v>
       </c>
       <c r="G127" t="n">
+        <v>5.868000000000005</v>
+      </c>
+      <c r="H127" t="n">
         <v>5.867333333333335</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5000,24 +5421,27 @@
         <v>21</v>
       </c>
       <c r="G128" t="n">
+        <v>5.874000000000005</v>
+      </c>
+      <c r="H128" t="n">
         <v>5.868500000000001</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5041,24 +5465,27 @@
         <v>78.84999999999999</v>
       </c>
       <c r="G129" t="n">
+        <v>5.874666666666671</v>
+      </c>
+      <c r="H129" t="n">
         <v>5.868833333333334</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5082,24 +5509,27 @@
         <v>10</v>
       </c>
       <c r="G130" t="n">
+        <v>5.881333333333337</v>
+      </c>
+      <c r="H130" t="n">
         <v>5.870166666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5123,24 +5553,27 @@
         <v>25676.987</v>
       </c>
       <c r="G131" t="n">
+        <v>5.885333333333337</v>
+      </c>
+      <c r="H131" t="n">
         <v>5.871166666666667</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5164,24 +5597,27 @@
         <v>148081.4839</v>
       </c>
       <c r="G132" t="n">
+        <v>5.890000000000003</v>
+      </c>
+      <c r="H132" t="n">
         <v>5.872333333333335</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5205,24 +5641,27 @@
         <v>39.95</v>
       </c>
       <c r="G133" t="n">
+        <v>5.892000000000004</v>
+      </c>
+      <c r="H133" t="n">
         <v>5.873000000000002</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5246,24 +5685,27 @@
         <v>17398.706</v>
       </c>
       <c r="G134" t="n">
+        <v>5.896000000000003</v>
+      </c>
+      <c r="H134" t="n">
         <v>5.873500000000002</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5287,24 +5729,27 @@
         <v>39.95</v>
       </c>
       <c r="G135" t="n">
+        <v>5.89466666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>5.873333333333335</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5328,24 +5773,29 @@
         <v>23371.1677</v>
       </c>
       <c r="G136" t="n">
+        <v>5.893333333333337</v>
+      </c>
+      <c r="H136" t="n">
         <v>5.873166666666668</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="L136" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5369,24 +5819,29 @@
         <v>100</v>
       </c>
       <c r="G137" t="n">
+        <v>5.896666666666672</v>
+      </c>
+      <c r="H137" t="n">
         <v>5.874000000000001</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="L137" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5410,24 +5865,27 @@
         <v>25572.9444</v>
       </c>
       <c r="G138" t="n">
+        <v>5.895333333333339</v>
+      </c>
+      <c r="H138" t="n">
         <v>5.872833333333335</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5451,24 +5909,27 @@
         <v>8939.2845</v>
       </c>
       <c r="G139" t="n">
+        <v>5.896000000000005</v>
+      </c>
+      <c r="H139" t="n">
         <v>5.871666666666669</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5492,24 +5953,27 @@
         <v>10</v>
       </c>
       <c r="G140" t="n">
+        <v>5.900666666666672</v>
+      </c>
+      <c r="H140" t="n">
         <v>5.872500000000002</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5533,24 +5997,27 @@
         <v>432.597</v>
       </c>
       <c r="G141" t="n">
+        <v>5.896000000000005</v>
+      </c>
+      <c r="H141" t="n">
         <v>5.872333333333335</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5574,24 +6041,27 @@
         <v>10</v>
       </c>
       <c r="G142" t="n">
+        <v>5.89533333333334</v>
+      </c>
+      <c r="H142" t="n">
         <v>5.872333333333335</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5615,24 +6085,27 @@
         <v>39.95</v>
       </c>
       <c r="G143" t="n">
+        <v>5.890666666666673</v>
+      </c>
+      <c r="H143" t="n">
         <v>5.872000000000003</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5656,24 +6129,27 @@
         <v>10</v>
       </c>
       <c r="G144" t="n">
+        <v>5.894000000000007</v>
+      </c>
+      <c r="H144" t="n">
         <v>5.872333333333335</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5697,24 +6173,27 @@
         <v>39.95</v>
       </c>
       <c r="G145" t="n">
+        <v>5.888666666666674</v>
+      </c>
+      <c r="H145" t="n">
         <v>5.871833333333337</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5738,24 +6217,27 @@
         <v>10</v>
       </c>
       <c r="G146" t="n">
+        <v>5.890000000000007</v>
+      </c>
+      <c r="H146" t="n">
         <v>5.872333333333336</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5779,24 +6261,27 @@
         <v>30644.4003</v>
       </c>
       <c r="G147" t="n">
+        <v>5.886666666666674</v>
+      </c>
+      <c r="H147" t="n">
         <v>5.872333333333336</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5820,24 +6305,27 @@
         <v>475188.517</v>
       </c>
       <c r="G148" t="n">
+        <v>5.89133333333334</v>
+      </c>
+      <c r="H148" t="n">
         <v>5.873166666666671</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5861,24 +6349,27 @@
         <v>20</v>
       </c>
       <c r="G149" t="n">
+        <v>5.894000000000006</v>
+      </c>
+      <c r="H149" t="n">
         <v>5.874000000000004</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5902,24 +6393,27 @@
         <v>19.95</v>
       </c>
       <c r="G150" t="n">
+        <v>5.898000000000007</v>
+      </c>
+      <c r="H150" t="n">
         <v>5.874833333333338</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,24 +6437,27 @@
         <v>162.077</v>
       </c>
       <c r="G151" t="n">
+        <v>5.902000000000006</v>
+      </c>
+      <c r="H151" t="n">
         <v>5.875666666666671</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5984,24 +6481,27 @@
         <v>19.873</v>
       </c>
       <c r="G152" t="n">
+        <v>5.898000000000008</v>
+      </c>
+      <c r="H152" t="n">
         <v>5.875666666666671</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6025,24 +6525,27 @@
         <v>24378.7841</v>
       </c>
       <c r="G153" t="n">
+        <v>5.900000000000007</v>
+      </c>
+      <c r="H153" t="n">
         <v>5.876000000000004</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6066,24 +6569,27 @@
         <v>39.95</v>
       </c>
       <c r="G154" t="n">
+        <v>5.899333333333341</v>
+      </c>
+      <c r="H154" t="n">
         <v>5.875833333333337</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6107,24 +6613,27 @@
         <v>41498.179</v>
       </c>
       <c r="G155" t="n">
+        <v>5.894666666666674</v>
+      </c>
+      <c r="H155" t="n">
         <v>5.875666666666671</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6148,24 +6657,27 @@
         <v>423459.9159</v>
       </c>
       <c r="G156" t="n">
+        <v>5.89133333333334</v>
+      </c>
+      <c r="H156" t="n">
         <v>5.874666666666671</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6189,24 +6701,27 @@
         <v>3296.874</v>
       </c>
       <c r="G157" t="n">
+        <v>5.884000000000007</v>
+      </c>
+      <c r="H157" t="n">
         <v>5.873833333333337</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6230,24 +6745,27 @@
         <v>10</v>
       </c>
       <c r="G158" t="n">
+        <v>5.886000000000007</v>
+      </c>
+      <c r="H158" t="n">
         <v>5.87416666666667</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6271,24 +6789,27 @@
         <v>39.95</v>
       </c>
       <c r="G159" t="n">
+        <v>5.878666666666673</v>
+      </c>
+      <c r="H159" t="n">
         <v>5.873333333333337</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6312,24 +6833,27 @@
         <v>29637.3249</v>
       </c>
       <c r="G160" t="n">
+        <v>5.87533333333334</v>
+      </c>
+      <c r="H160" t="n">
         <v>5.872500000000003</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6353,24 +6877,27 @@
         <v>11409.8231</v>
       </c>
       <c r="G161" t="n">
+        <v>5.868666666666673</v>
+      </c>
+      <c r="H161" t="n">
         <v>5.871500000000003</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6394,24 +6921,27 @@
         <v>49.95</v>
       </c>
       <c r="G162" t="n">
+        <v>5.866000000000008</v>
+      </c>
+      <c r="H162" t="n">
         <v>5.87116666666667</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6435,24 +6965,27 @@
         <v>7000</v>
       </c>
       <c r="G163" t="n">
+        <v>5.858666666666674</v>
+      </c>
+      <c r="H163" t="n">
         <v>5.871000000000004</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6476,26 +7009,27 @@
         <v>20</v>
       </c>
       <c r="G164" t="n">
+        <v>5.854666666666674</v>
+      </c>
+      <c r="H164" t="n">
         <v>5.871666666666671</v>
       </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K164" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6519,24 +7053,27 @@
         <v>19.95</v>
       </c>
       <c r="G165" t="n">
+        <v>5.848000000000007</v>
+      </c>
+      <c r="H165" t="n">
         <v>5.871333333333338</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6560,24 +7097,27 @@
         <v>11670.7035</v>
       </c>
       <c r="G166" t="n">
+        <v>5.846000000000006</v>
+      </c>
+      <c r="H166" t="n">
         <v>5.872166666666671</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6601,24 +7141,27 @@
         <v>12962</v>
       </c>
       <c r="G167" t="n">
+        <v>5.847333333333339</v>
+      </c>
+      <c r="H167" t="n">
         <v>5.873000000000005</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6642,24 +7185,27 @@
         <v>1385.2965</v>
       </c>
       <c r="G168" t="n">
+        <v>5.846666666666673</v>
+      </c>
+      <c r="H168" t="n">
         <v>5.873666666666671</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6683,24 +7229,27 @@
         <v>36829</v>
       </c>
       <c r="G169" t="n">
+        <v>5.844000000000007</v>
+      </c>
+      <c r="H169" t="n">
         <v>5.873333333333338</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6724,24 +7273,27 @@
         <v>47962</v>
       </c>
       <c r="G170" t="n">
+        <v>5.84133333333334</v>
+      </c>
+      <c r="H170" t="n">
         <v>5.873000000000006</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6765,24 +7317,27 @@
         <v>66710</v>
       </c>
       <c r="G171" t="n">
+        <v>5.84133333333334</v>
+      </c>
+      <c r="H171" t="n">
         <v>5.872500000000006</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6806,24 +7361,27 @@
         <v>66456</v>
       </c>
       <c r="G172" t="n">
+        <v>5.844666666666673</v>
+      </c>
+      <c r="H172" t="n">
         <v>5.873000000000006</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6847,24 +7405,27 @@
         <v>9984</v>
       </c>
       <c r="G173" t="n">
+        <v>5.840000000000006</v>
+      </c>
+      <c r="H173" t="n">
         <v>5.872666666666674</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,24 +7449,27 @@
         <v>10</v>
       </c>
       <c r="G174" t="n">
+        <v>5.844000000000006</v>
+      </c>
+      <c r="H174" t="n">
         <v>5.87283333333334</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6929,24 +7493,27 @@
         <v>136242</v>
       </c>
       <c r="G175" t="n">
+        <v>5.848666666666672</v>
+      </c>
+      <c r="H175" t="n">
         <v>5.873500000000007</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6970,24 +7537,27 @@
         <v>0.4934</v>
       </c>
       <c r="G176" t="n">
+        <v>5.852666666666672</v>
+      </c>
+      <c r="H176" t="n">
         <v>5.874166666666674</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7011,24 +7581,27 @@
         <v>110</v>
       </c>
       <c r="G177" t="n">
+        <v>5.860666666666672</v>
+      </c>
+      <c r="H177" t="n">
         <v>5.875833333333341</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7052,24 +7625,27 @@
         <v>5674.3824</v>
       </c>
       <c r="G178" t="n">
+        <v>5.868000000000006</v>
+      </c>
+      <c r="H178" t="n">
         <v>5.877500000000008</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7093,24 +7669,27 @@
         <v>153600.36</v>
       </c>
       <c r="G179" t="n">
+        <v>5.872000000000005</v>
+      </c>
+      <c r="H179" t="n">
         <v>5.879166666666675</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7134,24 +7713,27 @@
         <v>56399.64</v>
       </c>
       <c r="G180" t="n">
+        <v>5.880000000000005</v>
+      </c>
+      <c r="H180" t="n">
         <v>5.880166666666676</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7175,24 +7757,27 @@
         <v>20</v>
       </c>
       <c r="G181" t="n">
+        <v>5.883333333333338</v>
+      </c>
+      <c r="H181" t="n">
         <v>5.881166666666675</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7216,24 +7801,27 @@
         <v>19.95</v>
       </c>
       <c r="G182" t="n">
+        <v>5.882000000000005</v>
+      </c>
+      <c r="H182" t="n">
         <v>5.881000000000009</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7257,24 +7845,27 @@
         <v>55.4444</v>
       </c>
       <c r="G183" t="n">
+        <v>5.886000000000005</v>
+      </c>
+      <c r="H183" t="n">
         <v>5.882000000000009</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7298,24 +7889,27 @@
         <v>88.8888</v>
       </c>
       <c r="G184" t="n">
+        <v>5.894000000000005</v>
+      </c>
+      <c r="H184" t="n">
         <v>5.883333333333342</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7339,24 +7933,27 @@
         <v>9835.666800000001</v>
       </c>
       <c r="G185" t="n">
+        <v>5.902000000000005</v>
+      </c>
+      <c r="H185" t="n">
         <v>5.884666666666675</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7380,24 +7977,27 @@
         <v>11681</v>
       </c>
       <c r="G186" t="n">
+        <v>5.910666666666672</v>
+      </c>
+      <c r="H186" t="n">
         <v>5.884833333333342</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7421,24 +8021,27 @@
         <v>4444.1189</v>
       </c>
       <c r="G187" t="n">
+        <v>5.915333333333338</v>
+      </c>
+      <c r="H187" t="n">
         <v>5.884833333333342</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7462,24 +8065,27 @@
         <v>9886.7171</v>
       </c>
       <c r="G188" t="n">
+        <v>5.923333333333338</v>
+      </c>
+      <c r="H188" t="n">
         <v>5.885000000000008</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7503,24 +8109,27 @@
         <v>20493.5536</v>
       </c>
       <c r="G189" t="n">
+        <v>5.922666666666673</v>
+      </c>
+      <c r="H189" t="n">
         <v>5.884833333333342</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7544,24 +8153,27 @@
         <v>56391</v>
       </c>
       <c r="G190" t="n">
+        <v>5.926666666666673</v>
+      </c>
+      <c r="H190" t="n">
         <v>5.884833333333342</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7585,24 +8197,27 @@
         <v>78444.121</v>
       </c>
       <c r="G191" t="n">
+        <v>5.92533333333334</v>
+      </c>
+      <c r="H191" t="n">
         <v>5.884166666666675</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7626,24 +8241,27 @@
         <v>221.9224283305228</v>
       </c>
       <c r="G192" t="n">
+        <v>5.924666666666672</v>
+      </c>
+      <c r="H192" t="n">
         <v>5.884500000000008</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7667,24 +8285,27 @@
         <v>13692.55857166948</v>
       </c>
       <c r="G193" t="n">
+        <v>5.924000000000007</v>
+      </c>
+      <c r="H193" t="n">
         <v>5.885500000000008</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7708,24 +8329,27 @@
         <v>1400</v>
       </c>
       <c r="G194" t="n">
+        <v>5.924000000000007</v>
+      </c>
+      <c r="H194" t="n">
         <v>5.886166666666676</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7749,24 +8373,27 @@
         <v>208485.0168</v>
       </c>
       <c r="G195" t="n">
+        <v>5.924000000000007</v>
+      </c>
+      <c r="H195" t="n">
         <v>5.887500000000008</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7790,24 +8417,27 @@
         <v>721.8855</v>
       </c>
       <c r="G196" t="n">
+        <v>5.924000000000007</v>
+      </c>
+      <c r="H196" t="n">
         <v>5.888833333333341</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7831,24 +8461,27 @@
         <v>4868.5102</v>
       </c>
       <c r="G197" t="n">
+        <v>5.928666666666673</v>
+      </c>
+      <c r="H197" t="n">
         <v>5.889000000000008</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7872,24 +8505,27 @@
         <v>193.3249</v>
       </c>
       <c r="G198" t="n">
+        <v>5.928666666666673</v>
+      </c>
+      <c r="H198" t="n">
         <v>5.890333333333341</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7913,24 +8549,27 @@
         <v>60000</v>
       </c>
       <c r="G199" t="n">
+        <v>5.928666666666673</v>
+      </c>
+      <c r="H199" t="n">
         <v>5.891500000000008</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7954,24 +8593,27 @@
         <v>10</v>
       </c>
       <c r="G200" t="n">
+        <v>5.92933333333334</v>
+      </c>
+      <c r="H200" t="n">
         <v>5.891833333333341</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7995,24 +8637,27 @@
         <v>4925</v>
       </c>
       <c r="G201" t="n">
+        <v>5.930666666666673</v>
+      </c>
+      <c r="H201" t="n">
         <v>5.893500000000007</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8036,24 +8681,27 @@
         <v>41946.3087</v>
       </c>
       <c r="G202" t="n">
+        <v>5.932000000000006</v>
+      </c>
+      <c r="H202" t="n">
         <v>5.894000000000006</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8077,24 +8725,27 @@
         <v>53877.5071</v>
       </c>
       <c r="G203" t="n">
+        <v>5.936000000000006</v>
+      </c>
+      <c r="H203" t="n">
         <v>5.89633333333334</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8118,24 +8769,27 @@
         <v>366745.9468</v>
       </c>
       <c r="G204" t="n">
+        <v>5.946000000000006</v>
+      </c>
+      <c r="H204" t="n">
         <v>5.897833333333339</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8159,24 +8813,27 @@
         <v>83651</v>
       </c>
       <c r="G205" t="n">
+        <v>5.951333333333339</v>
+      </c>
+      <c r="H205" t="n">
         <v>5.900500000000005</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8200,24 +8857,27 @@
         <v>71494</v>
       </c>
       <c r="G206" t="n">
+        <v>5.962000000000005</v>
+      </c>
+      <c r="H206" t="n">
         <v>5.902166666666671</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8241,24 +8901,27 @@
         <v>156093</v>
       </c>
       <c r="G207" t="n">
+        <v>5.968666666666673</v>
+      </c>
+      <c r="H207" t="n">
         <v>5.905000000000004</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8282,24 +8945,27 @@
         <v>20000</v>
       </c>
       <c r="G208" t="n">
+        <v>5.976000000000007</v>
+      </c>
+      <c r="H208" t="n">
         <v>5.906666666666671</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8323,24 +8989,27 @@
         <v>141593.2148</v>
       </c>
       <c r="G209" t="n">
+        <v>5.98333333333334</v>
+      </c>
+      <c r="H209" t="n">
         <v>5.908500000000005</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8364,25 +9033,28 @@
         <v>48434.7698</v>
       </c>
       <c r="G210" t="n">
+        <v>5.990666666666673</v>
+      </c>
+      <c r="H210" t="n">
         <v>5.910666666666671</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
-        <v>1</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1.030958904109589</v>
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -8405,18 +9077,27 @@
         <v>858855.6019</v>
       </c>
       <c r="G211" t="n">
+        <v>5.998000000000006</v>
+      </c>
+      <c r="H211" t="n">
         <v>5.912833333333338</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="L211" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8440,18 +9121,27 @@
         <v>115728.0578</v>
       </c>
       <c r="G212" t="n">
+        <v>6.00533333333334</v>
+      </c>
+      <c r="H212" t="n">
         <v>5.915833333333338</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="L212" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8475,18 +9165,27 @@
         <v>66555</v>
       </c>
       <c r="G213" t="n">
+        <v>6.012666666666673</v>
+      </c>
+      <c r="H213" t="n">
         <v>5.918500000000005</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="L213" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8510,18 +9209,27 @@
         <v>85583</v>
       </c>
       <c r="G214" t="n">
+        <v>6.020000000000007</v>
+      </c>
+      <c r="H214" t="n">
         <v>5.921666666666671</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="L214" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8545,18 +9253,27 @@
         <v>54674</v>
       </c>
       <c r="G215" t="n">
+        <v>6.026000000000007</v>
+      </c>
+      <c r="H215" t="n">
         <v>5.924666666666671</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="L215" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8580,18 +9297,27 @@
         <v>10</v>
       </c>
       <c r="G216" t="n">
+        <v>6.032000000000007</v>
+      </c>
+      <c r="H216" t="n">
         <v>5.928666666666672</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="L216" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8615,18 +9341,27 @@
         <v>51345</v>
       </c>
       <c r="G217" t="n">
+        <v>6.038000000000007</v>
+      </c>
+      <c r="H217" t="n">
         <v>5.932500000000005</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="L217" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8650,18 +9385,27 @@
         <v>91071.0281</v>
       </c>
       <c r="G218" t="n">
+        <v>6.04133333333334</v>
+      </c>
+      <c r="H218" t="n">
         <v>5.935166666666673</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="L218" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8685,18 +9429,27 @@
         <v>31535</v>
       </c>
       <c r="G219" t="n">
+        <v>6.04333333333334</v>
+      </c>
+      <c r="H219" t="n">
         <v>5.939000000000006</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="L219" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8720,18 +9473,27 @@
         <v>11111</v>
       </c>
       <c r="G220" t="n">
+        <v>6.045333333333341</v>
+      </c>
+      <c r="H220" t="n">
         <v>5.943000000000007</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="L220" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8755,18 +9517,27 @@
         <v>26979</v>
       </c>
       <c r="G221" t="n">
+        <v>6.047333333333341</v>
+      </c>
+      <c r="H221" t="n">
         <v>5.94683333333334</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="L221" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8790,18 +9561,27 @@
         <v>58572</v>
       </c>
       <c r="G222" t="n">
+        <v>6.048666666666674</v>
+      </c>
+      <c r="H222" t="n">
         <v>5.950666666666674</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="L222" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8825,18 +9605,27 @@
         <v>34333</v>
       </c>
       <c r="G223" t="n">
+        <v>6.049333333333339</v>
+      </c>
+      <c r="H223" t="n">
         <v>5.954333333333341</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="L223" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8860,18 +9649,27 @@
         <v>105645</v>
       </c>
       <c r="G224" t="n">
+        <v>6.049333333333339</v>
+      </c>
+      <c r="H224" t="n">
         <v>5.957166666666675</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="L224" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8895,18 +9693,437 @@
         <v>71683</v>
       </c>
       <c r="G225" t="n">
+        <v>6.049333333333339</v>
+      </c>
+      <c r="H225" t="n">
         <v>5.961000000000008</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="L225" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C226" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D226" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E226" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F226" t="n">
+        <v>78505</v>
+      </c>
+      <c r="G226" t="n">
+        <v>6.049333333333339</v>
+      </c>
+      <c r="H226" t="n">
+        <v>5.963666666666675</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C227" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D227" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E227" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F227" t="n">
+        <v>45045</v>
+      </c>
+      <c r="G227" t="n">
+        <v>6.049333333333339</v>
+      </c>
+      <c r="H227" t="n">
+        <v>5.966333333333342</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C228" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D228" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E228" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F228" t="n">
+        <v>131714.985</v>
+      </c>
+      <c r="G228" t="n">
+        <v>6.049333333333339</v>
+      </c>
+      <c r="H228" t="n">
+        <v>5.969166666666676</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="C229" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="D229" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="E229" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="F229" t="n">
+        <v>410</v>
+      </c>
+      <c r="G229" t="n">
+        <v>6.052000000000007</v>
+      </c>
+      <c r="H229" t="n">
+        <v>5.973666666666675</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="C230" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D230" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E230" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="F230" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G230" t="n">
+        <v>6.056000000000006</v>
+      </c>
+      <c r="H230" t="n">
+        <v>5.978333333333342</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>1</v>
+      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
+        <v>1.039520547945206</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C231" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D231" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E231" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="F231" t="n">
+        <v>12233.2786</v>
+      </c>
+      <c r="G231" t="n">
+        <v>6.059333333333339</v>
+      </c>
+      <c r="H231" t="n">
+        <v>5.983166666666676</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>1</v>
+      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="C232" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="D232" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="E232" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1111</v>
+      </c>
+      <c r="G232" t="n">
+        <v>6.062000000000006</v>
+      </c>
+      <c r="H232" t="n">
+        <v>5.986833333333342</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>1</v>
+      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C233" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D233" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E233" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F233" t="n">
+        <v>25334.755</v>
+      </c>
+      <c r="G233" t="n">
+        <v>6.06133333333334</v>
+      </c>
+      <c r="H233" t="n">
+        <v>5.99050000000001</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>1</v>
+      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="C234" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="D234" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="E234" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="F234" t="n">
+        <v>59301.257</v>
+      </c>
+      <c r="G234" t="n">
+        <v>6.064000000000007</v>
+      </c>
+      <c r="H234" t="n">
+        <v>5.99400000000001</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>1</v>
+      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C235" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D235" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E235" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F235" t="n">
+        <v>13270</v>
+      </c>
+      <c r="G235" t="n">
+        <v>6.064000000000007</v>
+      </c>
+      <c r="H235" t="n">
+        <v>5.996833333333343</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>1</v>
+      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-25 BackTest FAB.xlsx
+++ b/BackTest/2019-10-25 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N293"/>
+  <dimension ref="A1:M293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,19 @@
         <v>-528680.0046816326</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>5.83</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5.83</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1313,23 @@
         <v>-528660.0046816326</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>5.83</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1356,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1395,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1428,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1461,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1494,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1527,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1560,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1593,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1626,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1659,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1692,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1723,15 @@
         <v>-395393.0495816326</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1756,15 @@
         <v>-411173.7803816326</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1789,15 @@
         <v>-411163.7803816326</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1932,18 +1822,15 @@
         <v>-411163.7803816326</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1857,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1890,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1923,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1954,15 @@
         <v>-413133.1003816326</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1987,15 @@
         <v>-413254.1003816326</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2020,15 @@
         <v>-414920.7854816326</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2053,15 @@
         <v>-414920.7854816326</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2086,15 @@
         <v>-414920.7854816326</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2121,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2154,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2187,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2218,15 @@
         <v>-414810.7854816326</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2251,15 @@
         <v>-414810.7854816326</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2284,15 @@
         <v>-414800.7854816326</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2319,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2350,15 @@
         <v>-529163.6037816326</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2385,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2418,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2451,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2482,15 @@
         <v>-599725.4535816326</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2515,15 @@
         <v>-592422.1509816325</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2550,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2583,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2614,15 @@
         <v>-592412.1509816325</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2647,15 @@
         <v>-782492.9488816325</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2682,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2713,15 @@
         <v>-782492.9488816325</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +2746,15 @@
         <v>-782492.9488816325</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +2779,15 @@
         <v>-782492.9488816325</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2814,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2847,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2880,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2913,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2946,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2979,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +3012,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3045,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3078,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3111,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3144,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3177,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3210,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3243,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3276,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3309,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3342,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3375,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3408,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3441,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3474,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3507,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3540,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3573,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3606,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3639,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3672,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3705,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3738,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3771,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3804,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3837,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3870,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3903,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3936,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3969,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +4002,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4035,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4068,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4101,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4134,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4167,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4200,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4233,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4266,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4299,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4332,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4365,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4398,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4776,18 +4429,19 @@
         <v>-1199819.803881632</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
+        <v>5.83</v>
+      </c>
+      <c r="J122" t="n">
+        <v>5.83</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4468,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4507,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4546,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4920,18 +4577,21 @@
         <v>-1195888.481081632</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>5.83</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4956,18 +4616,21 @@
         <v>-1195888.481081632</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>5.86</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4992,22 +4655,19 @@
         <v>-1195888.481081632</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="K128" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5034,22 +4694,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5074,26 +4729,21 @@
         <v>-1195936.344281632</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K130" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5118,22 +4768,21 @@
         <v>-1261955.120981632</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K131" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5158,26 +4807,21 @@
         <v>-1219874.594581632</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K132" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+        <v>5.83</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5204,22 +4848,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5244,22 +4883,21 @@
         <v>-1219874.594581632</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K134" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>5.87</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5286,22 +4924,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5328,22 +4961,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5370,16 +4998,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5406,16 +5035,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5442,16 +5072,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5478,16 +5109,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5514,16 +5146,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5550,16 +5183,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5586,16 +5220,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5622,16 +5257,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5658,16 +5294,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5694,16 +5331,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5730,16 +5368,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5766,16 +5405,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5800,18 +5440,21 @@
         <v>-1560934.015981633</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>5.87</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5836,18 +5479,21 @@
         <v>-1560934.015981633</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>5.87</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5872,18 +5518,21 @@
         <v>-1560934.015981633</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>5.87</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5908,18 +5557,21 @@
         <v>-1560934.015981633</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>5.87</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5946,16 +5598,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5980,22 +5633,21 @@
         <v>-1560934.015981633</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K154" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+        <v>5.87</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6020,26 +5672,21 @@
         <v>-1560934.015981633</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K155" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+        <v>5.87</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6064,26 +5711,19 @@
         <v>-1560934.015981633</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K156" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6108,22 +5748,19 @@
         <v>-1560934.015981633</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K157" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6148,26 +5785,19 @@
         <v>-1618740.015981633</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K158" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6192,26 +5822,21 @@
         <v>-1613140.015981633</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="n">
         <v>5.86</v>
       </c>
-      <c r="K159" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6236,26 +5861,19 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="K160" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6280,26 +5898,21 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K161" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6324,26 +5937,21 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K162" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6368,26 +5976,21 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K163" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6412,26 +6015,21 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K164" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6456,26 +6054,21 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K165" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6500,26 +6093,21 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K166" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6544,26 +6132,21 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K167" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6588,26 +6171,21 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K168" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6632,26 +6210,21 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K169" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6676,26 +6249,21 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K170" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6720,26 +6288,21 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K171" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6764,26 +6327,21 @@
         <v>-1703467.768081632</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K172" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6808,26 +6366,21 @@
         <v>-1703507.718081632</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K173" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+        <v>5.87</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6852,26 +6405,21 @@
         <v>-1703507.718081632</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K174" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6896,26 +6444,21 @@
         <v>-1703507.718081632</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K175" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6940,26 +6483,21 @@
         <v>-1703507.718081632</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K176" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6984,26 +6522,21 @@
         <v>-1703507.718081632</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K177" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7028,26 +6561,21 @@
         <v>-1633589.305381632</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K178" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7072,26 +6600,21 @@
         <v>-1633589.305381632</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
         <v>5.88</v>
       </c>
-      <c r="K179" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7116,26 +6639,21 @@
         <v>-1633589.305381632</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="n">
         <v>5.88</v>
       </c>
-      <c r="K180" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7160,26 +6678,21 @@
         <v>-1633589.305381632</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="n">
         <v>5.88</v>
       </c>
-      <c r="K181" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7204,24 +6717,21 @@
         <v>-1633629.255381632</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>5.88</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7246,26 +6756,19 @@
         <v>-1633629.255381632</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="K183" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7292,22 +6795,17 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7334,22 +6832,17 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7376,22 +6869,17 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7418,22 +6906,17 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7460,22 +6943,17 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7502,22 +6980,17 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7544,22 +7017,17 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7586,22 +7054,17 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7628,22 +7091,17 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7670,22 +7128,17 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7710,24 +7163,21 @@
         <v>-1332423.644281632</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>5.86</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7752,26 +7202,21 @@
         <v>-1332323.644281632</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="n">
         <v>5.86</v>
       </c>
-      <c r="K195" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7796,24 +7241,21 @@
         <v>-1357896.588681632</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>5.93</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7838,26 +7280,21 @@
         <v>-1348957.304181632</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="n">
         <v>5.86</v>
       </c>
-      <c r="K197" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7882,26 +7319,21 @@
         <v>-1348947.304181632</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K198" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+        <v>5.87</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7928,22 +7360,17 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7970,22 +7397,17 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8010,24 +7432,21 @@
         <v>-1349409.851181632</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>5.93</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8052,24 +7471,21 @@
         <v>-1349399.851181632</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
+        <v>5.86</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8096,22 +7512,17 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8138,22 +7549,17 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8180,22 +7586,17 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8222,22 +7623,17 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8264,22 +7660,17 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8306,22 +7697,17 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8348,22 +7734,17 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8390,22 +7771,17 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8430,24 +7806,21 @@
         <v>-880546.7233816324</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>5.87</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8474,22 +7847,17 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8516,22 +7884,17 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8558,22 +7921,17 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8598,24 +7956,21 @@
         <v>-1300749.715281632</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
+        <v>5.81</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8642,22 +7997,17 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8682,24 +8032,21 @@
         <v>-1300779.665281632</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
+        <v>5.89</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8724,24 +8071,21 @@
         <v>-1330416.990181632</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
+        <v>5.82</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8766,24 +8110,21 @@
         <v>-1319007.167081632</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="n">
-        <v>0</v>
+        <v>5.81</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8810,22 +8151,17 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8850,24 +8186,21 @@
         <v>-1312007.167081632</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
+        <v>5.82</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8894,22 +8227,17 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8934,24 +8262,21 @@
         <v>-1312007.117081632</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
+        <v>5.88</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8976,24 +8301,21 @@
         <v>-1300336.413581632</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
+        <v>5.82</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9018,24 +8340,21 @@
         <v>-1300336.413581632</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="n">
-        <v>0</v>
+        <v>5.89</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9062,22 +8381,17 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9104,22 +8418,17 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9146,22 +8455,17 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9186,24 +8490,21 @@
         <v>-1405260.710081632</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="n">
-        <v>0</v>
+        <v>5.82</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9228,24 +8529,21 @@
         <v>-1338804.710081632</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
+        <v>5.81</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9270,24 +8568,21 @@
         <v>-1348788.710081632</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
+        <v>5.87</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9312,24 +8607,21 @@
         <v>-1348778.710081632</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
+        <v>5.82</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9354,24 +8646,21 @@
         <v>-1348778.710081632</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
+        <v>5.88</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9398,22 +8687,17 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9440,22 +8724,17 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9482,22 +8761,17 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9524,22 +8798,17 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9566,22 +8835,17 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9608,22 +8872,17 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9650,22 +8909,17 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9692,22 +8946,17 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9734,22 +8983,17 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9776,22 +9020,17 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9818,22 +9057,17 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9860,22 +9094,17 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9902,22 +9131,17 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9944,22 +9168,17 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9986,22 +9205,17 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10028,22 +9242,17 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10070,22 +9279,17 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10112,22 +9316,17 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10154,22 +9353,17 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10196,22 +9390,17 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10238,22 +9427,17 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10280,22 +9464,17 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10322,22 +9501,17 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10364,22 +9538,17 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10406,22 +9575,17 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10448,22 +9612,17 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10490,22 +9649,17 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10532,22 +9686,17 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10574,22 +9723,17 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10616,22 +9760,17 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10656,24 +9795,17 @@
         <v>-963999.5139533016</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10698,24 +9830,15 @@
         <v>-807906.5139533016</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10742,22 +9865,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10784,22 +9898,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10826,22 +9931,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10866,24 +9962,15 @@
         <v>-646313.2991533016</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10910,22 +9997,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10950,24 +10028,15 @@
         <v>-646313.2991533016</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10992,24 +10061,15 @@
         <v>-646313.2991533016</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -11036,22 +10096,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -11076,24 +10127,15 @@
         <v>-700977.2991533016</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -11118,24 +10160,15 @@
         <v>-700977.2991533016</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -11162,22 +10195,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -11202,24 +10226,15 @@
         <v>-700977.2991533016</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -11244,24 +10259,15 @@
         <v>-700977.2991533016</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11288,22 +10294,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11330,22 +10327,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11372,22 +10360,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11414,22 +10393,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11454,24 +10424,15 @@
         <v>-700977.2991533016</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11496,24 +10457,15 @@
         <v>-700977.2991533016</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11538,24 +10490,15 @@
         <v>-700977.2991533016</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11580,24 +10523,15 @@
         <v>-700977.2991533016</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11622,24 +10556,15 @@
         <v>-700567.2991533016</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11664,24 +10589,15 @@
         <v>-693567.2991533016</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11706,24 +10622,15 @@
         <v>-693567.2991533016</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11748,24 +10655,15 @@
         <v>-694678.2991533016</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11790,24 +10688,15 @@
         <v>-720013.0541533016</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11834,22 +10723,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11874,26 +10754,17 @@
         <v>-673981.7971533017</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-25 BackTest FAB.xlsx
+++ b/BackTest/2019-10-25 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1276,14 +1276,10 @@
         <v>-528680.0046816326</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="J27" t="n">
-        <v>5.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
@@ -1313,19 +1309,11 @@
         <v>-528660.0046816326</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="J28" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1357,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1723,7 +1705,7 @@
         <v>-395393.0495816326</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1756,7 +1738,7 @@
         <v>-411173.7803816326</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1789,7 +1771,7 @@
         <v>-411163.7803816326</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1822,7 +1804,7 @@
         <v>-411163.7803816326</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1954,7 +1936,7 @@
         <v>-413133.1003816326</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1987,7 +1969,7 @@
         <v>-413254.1003816326</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2020,7 +2002,7 @@
         <v>-414920.7854816326</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2053,7 +2035,7 @@
         <v>-414920.7854816326</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2086,7 +2068,7 @@
         <v>-414920.7854816326</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2152,7 +2134,7 @@
         <v>-414920.7854816326</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2185,7 +2167,7 @@
         <v>-414810.7854816326</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2218,7 +2200,7 @@
         <v>-414810.7854816326</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2251,7 +2233,7 @@
         <v>-414810.7854816326</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2284,7 +2266,7 @@
         <v>-414800.7854816326</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2317,7 +2299,7 @@
         <v>-414800.7854816326</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2350,7 +2332,7 @@
         <v>-529163.6037816326</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2383,7 +2365,7 @@
         <v>-514309.2077816326</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2416,7 +2398,7 @@
         <v>-514309.2077816326</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2449,7 +2431,7 @@
         <v>-599725.4535816326</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2482,7 +2464,7 @@
         <v>-599725.4535816326</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2515,7 +2497,7 @@
         <v>-592422.1509816325</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2548,7 +2530,7 @@
         <v>-592412.1509816325</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2581,7 +2563,7 @@
         <v>-592412.1509816325</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2614,7 +2596,7 @@
         <v>-592412.1509816325</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2647,7 +2629,7 @@
         <v>-782492.9488816325</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2680,7 +2662,7 @@
         <v>-782492.9488816325</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2713,7 +2695,7 @@
         <v>-782492.9488816325</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2746,7 +2728,7 @@
         <v>-782492.9488816325</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2779,7 +2761,7 @@
         <v>-782492.9488816325</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2812,7 +2794,7 @@
         <v>-893816.5687816326</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2911,7 +2893,7 @@
         <v>-952617.3597816325</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2944,7 +2926,7 @@
         <v>-1086212.420781632</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2977,7 +2959,7 @@
         <v>-1086202.420781632</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3010,7 +2992,7 @@
         <v>-1122830.588781632</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -4429,14 +4411,10 @@
         <v>-1199819.803881632</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="J122" t="n">
-        <v>5.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
@@ -4469,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4508,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4577,17 +4543,11 @@
         <v>-1195888.481081632</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>5.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4616,17 +4576,11 @@
         <v>-1195888.481081632</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>5.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4659,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4696,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4729,17 +4675,11 @@
         <v>-1195936.344281632</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>5.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4768,17 +4708,11 @@
         <v>-1261955.120981632</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>5.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4807,17 +4741,11 @@
         <v>-1219874.594581632</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>5.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4850,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4883,17 +4807,11 @@
         <v>-1219874.594581632</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>5.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4926,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4963,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5000,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5037,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5074,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5111,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5148,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5185,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5222,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5259,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5296,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5329,15 +5203,15 @@
         <v>-1439042.015981633</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="J146" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5369,10 +5243,12 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>5.86</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L147" t="n">
@@ -5406,10 +5282,12 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>5.86</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L148" t="n">
@@ -5440,17 +5318,11 @@
         <v>-1560934.015981633</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>5.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5479,7 +5351,7 @@
         <v>-1560934.015981633</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>5.87</v>
@@ -5487,7 +5359,7 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L150" t="n">
@@ -5518,11 +5390,9 @@
         <v>-1560934.015981633</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>5.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
@@ -5557,7 +5427,7 @@
         <v>-1560934.015981633</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>5.87</v>
@@ -5633,7 +5503,7 @@
         <v>-1560934.015981633</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>5.87</v>
@@ -5672,7 +5542,7 @@
         <v>-1560934.015981633</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>5.87</v>
@@ -5711,9 +5581,11 @@
         <v>-1560934.015981633</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>5.87</v>
+      </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
@@ -5748,9 +5620,11 @@
         <v>-1560934.015981633</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>5.87</v>
+      </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
@@ -5785,9 +5659,11 @@
         <v>-1618740.015981633</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>5.87</v>
+      </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
@@ -5822,7 +5698,7 @@
         <v>-1613140.015981633</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>5.86</v>
@@ -5861,9 +5737,11 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>5.88</v>
+      </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
@@ -5898,7 +5776,7 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>5.84</v>
@@ -5937,7 +5815,7 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>5.84</v>
@@ -5976,7 +5854,7 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>5.84</v>
@@ -6015,7 +5893,7 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>5.84</v>
@@ -6054,7 +5932,7 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>5.84</v>
@@ -6093,7 +5971,7 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>5.84</v>
@@ -6132,7 +6010,7 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>5.84</v>
@@ -6171,7 +6049,7 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>5.84</v>
@@ -6210,7 +6088,7 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>5.84</v>
@@ -6249,7 +6127,7 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>5.84</v>
@@ -6288,7 +6166,7 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>5.84</v>
@@ -6327,7 +6205,7 @@
         <v>-1703467.768081632</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>5.84</v>
@@ -6366,7 +6244,7 @@
         <v>-1703507.718081632</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>5.87</v>
@@ -6405,7 +6283,7 @@
         <v>-1703507.718081632</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>5.84</v>
@@ -6444,7 +6322,7 @@
         <v>-1703507.718081632</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>5.84</v>
@@ -6483,7 +6361,7 @@
         <v>-1703507.718081632</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>5.84</v>
@@ -6522,7 +6400,7 @@
         <v>-1703507.718081632</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>5.84</v>
@@ -6561,7 +6439,7 @@
         <v>-1633589.305381632</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>5.84</v>
@@ -6600,7 +6478,7 @@
         <v>-1633589.305381632</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>5.88</v>
@@ -6639,7 +6517,7 @@
         <v>-1633589.305381632</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>5.88</v>
@@ -6678,7 +6556,7 @@
         <v>-1633589.305381632</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>5.88</v>
@@ -6717,7 +6595,7 @@
         <v>-1633629.255381632</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>5.88</v>
@@ -6756,9 +6634,11 @@
         <v>-1633629.255381632</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>5.86</v>
+      </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
@@ -6793,9 +6673,11 @@
         <v>-1633619.255381632</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>5.86</v>
+      </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
@@ -6830,9 +6712,11 @@
         <v>-1472057.097181632</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>5.93</v>
+      </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
@@ -7089,9 +6973,11 @@
         <v>-1332383.694281633</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>5.87</v>
+      </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
@@ -7126,9 +7012,11 @@
         <v>-1332423.644281632</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>5.9</v>
+      </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
@@ -7163,7 +7051,7 @@
         <v>-1332423.644281632</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>5.86</v>
@@ -7202,7 +7090,7 @@
         <v>-1332323.644281632</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>5.86</v>
@@ -7241,7 +7129,7 @@
         <v>-1357896.588681632</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>5.93</v>
@@ -7280,7 +7168,7 @@
         <v>-1348957.304181632</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>5.86</v>
@@ -7319,7 +7207,7 @@
         <v>-1348947.304181632</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>5.87</v>
@@ -7358,9 +7246,11 @@
         <v>-1349379.901181632</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>5.93</v>
+      </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
@@ -7432,11 +7322,9 @@
         <v>-1349409.851181632</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>5.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
@@ -7471,11 +7359,9 @@
         <v>-1349399.851181632</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="n">
-        <v>5.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
@@ -7621,9 +7507,11 @@
         <v>-904885.6844816324</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>5.86</v>
+      </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
@@ -7806,11 +7694,9 @@
         <v>-880546.7233816324</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
-      </c>
-      <c r="I211" t="n">
-        <v>5.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
@@ -7956,11 +7842,9 @@
         <v>-1300749.715281632</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="n">
-        <v>5.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
@@ -8032,11 +7916,9 @@
         <v>-1300779.665281632</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="n">
-        <v>5.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
@@ -8071,11 +7953,9 @@
         <v>-1330416.990181632</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="n">
-        <v>5.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
@@ -8110,11 +7990,9 @@
         <v>-1319007.167081632</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="n">
-        <v>5.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
@@ -8186,11 +8064,9 @@
         <v>-1312007.167081632</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="n">
-        <v>5.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
@@ -8262,11 +8138,9 @@
         <v>-1312007.117081632</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I223" t="n">
-        <v>5.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
@@ -8301,11 +8175,9 @@
         <v>-1300336.413581632</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I224" t="n">
-        <v>5.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
@@ -8340,11 +8212,9 @@
         <v>-1300336.413581632</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I225" t="n">
-        <v>5.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
@@ -8490,11 +8360,9 @@
         <v>-1405260.710081632</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="n">
-        <v>5.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
@@ -8529,11 +8397,9 @@
         <v>-1338804.710081632</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I230" t="n">
-        <v>5.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
@@ -8568,11 +8434,9 @@
         <v>-1348788.710081632</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
-      </c>
-      <c r="I231" t="n">
-        <v>5.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
@@ -8607,11 +8471,9 @@
         <v>-1348778.710081632</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I232" t="n">
-        <v>5.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
@@ -8646,11 +8508,9 @@
         <v>-1348778.710081632</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="n">
-        <v>5.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
@@ -9795,16 +9655,18 @@
         <v>-963999.5139533016</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L264" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
       <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
@@ -9830,11 +9692,15 @@
         <v>-807906.5139533016</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9867,7 +9733,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9900,7 +9770,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9933,7 +9807,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9962,11 +9840,15 @@
         <v>-646313.2991533016</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9999,7 +9881,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10028,11 +9914,15 @@
         <v>-646313.2991533016</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10061,11 +9951,15 @@
         <v>-646313.2991533016</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10098,7 +9992,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10127,11 +10025,15 @@
         <v>-700977.2991533016</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10160,11 +10062,15 @@
         <v>-700977.2991533016</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10197,7 +10103,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10226,11 +10136,15 @@
         <v>-700977.2991533016</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10259,11 +10173,15 @@
         <v>-700977.2991533016</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10296,7 +10214,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10329,7 +10251,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10362,7 +10288,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10395,7 +10325,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10424,11 +10358,15 @@
         <v>-700977.2991533016</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10457,11 +10395,15 @@
         <v>-700977.2991533016</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10490,11 +10432,15 @@
         <v>-700977.2991533016</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10523,11 +10469,15 @@
         <v>-700977.2991533016</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10556,14 +10506,16 @@
         <v>-700567.2991533016</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
@@ -10589,7 +10541,7 @@
         <v>-693567.2991533016</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10622,7 +10574,7 @@
         <v>-693567.2991533016</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10655,7 +10607,7 @@
         <v>-694678.2991533016</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10688,7 +10640,7 @@
         <v>-720013.0541533016</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10721,7 +10673,7 @@
         <v>-660711.7971533017</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10754,7 +10706,7 @@
         <v>-673981.7971533017</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10765,6 +10717,6 @@
       <c r="M293" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-25 BackTest FAB.xlsx
+++ b/BackTest/2019-10-25 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-539317.4688816327</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-539317.4688816327</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-542817.4688816327</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-329222.4703816327</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-329222.4703816327</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-329222.4703816327</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-329222.4703816327</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-362883.2329816327</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-411163.7803816326</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-411163.7803816326</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-414920.7854816326</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-414810.7854816326</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-414810.7854816326</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-414810.7854816326</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-414800.7854816326</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-414800.7854816326</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-529163.6037816326</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-514309.2077816326</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-514309.2077816326</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-599725.4535816326</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-599725.4535816326</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-592422.1509816325</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-592412.1509816325</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-592412.1509816325</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-592412.1509816325</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-782492.9488816325</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-782492.9488816325</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-782492.9488816325</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-893816.5687816326</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-952617.3597816325</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1086212.420781632</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-1086202.420781632</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-1122830.588781632</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -4411,10 +4411,14 @@
         <v>-1199819.803881632</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="J122" t="n">
+        <v>5.83</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
@@ -4447,8 +4451,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +4490,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4675,10 +4691,14 @@
         <v>-1195936.344281632</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J130" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
@@ -4708,11 +4728,19 @@
         <v>-1261955.120981632</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J131" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4741,11 +4769,19 @@
         <v>-1219874.594581632</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="J132" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4774,10 +4810,14 @@
         <v>-1219874.594581632</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="J133" t="n">
+        <v>5.87</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
@@ -4807,11 +4847,19 @@
         <v>-1219874.594581632</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="J134" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4840,11 +4888,19 @@
         <v>-1219314.893181633</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="J135" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5203,14 +5259,10 @@
         <v>-1439042.015981633</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="J146" t="n">
-        <v>5.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
@@ -5243,14 +5295,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5282,14 +5328,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5351,637 +5391,571 @@
         <v>-1560934.015981633</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>5.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C151" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="D151" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="E151" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F151" t="n">
+        <v>84213</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-1560934.015981633</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C152" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="D152" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="E152" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F152" t="n">
+        <v>43989</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-1560934.015981633</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C153" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="D153" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="E153" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F153" t="n">
+        <v>47311</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-1560934.015981633</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C154" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="D154" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="E154" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F154" t="n">
+        <v>59969</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-1560934.015981633</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C155" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="D155" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="E155" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F155" t="n">
+        <v>67925</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-1560934.015981633</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C156" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="D156" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="E156" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F156" t="n">
+        <v>66674</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-1560934.015981633</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C157" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="D157" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="E157" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F157" t="n">
+        <v>68285</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-1560934.015981633</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C158" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="D158" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="E158" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="F158" t="n">
+        <v>57806</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-1618740.015981633</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="C159" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="D159" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="E159" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="F159" t="n">
+        <v>5600</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-1613140.015981633</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C160" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="D160" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="E160" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="F160" t="n">
+        <v>90427.7521</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-1703567.768081632</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C161" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="D161" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="E161" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="F161" t="n">
+        <v>51807</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-1703567.768081632</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C162" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="D162" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="E162" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="F162" t="n">
+        <v>67877</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-1703567.768081632</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J162" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C163" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="D163" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="E163" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="F163" t="n">
+        <v>68601</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-1703567.768081632</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J163" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C164" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="D164" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="E164" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="F164" t="n">
+        <v>75595</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-1703567.768081632</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J164" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C165" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="D165" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="E165" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="F165" t="n">
+        <v>47410</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-1703567.768081632</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J165" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="C166" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="D166" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="E166" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="F166" t="n">
+        <v>106857.4139</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-1703567.768081632</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J166" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K166" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="C151" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D151" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="E151" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F151" t="n">
-        <v>84213</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-1560934.015981633</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="C152" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D152" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="E152" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F152" t="n">
-        <v>43989</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-1560934.015981633</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="C153" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D153" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="E153" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F153" t="n">
-        <v>47311</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-1560934.015981633</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="C154" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D154" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="E154" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F154" t="n">
-        <v>59969</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-1560934.015981633</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="C155" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D155" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="E155" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F155" t="n">
-        <v>67925</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-1560934.015981633</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="C156" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D156" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="E156" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F156" t="n">
-        <v>66674</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-1560934.015981633</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="C157" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D157" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="E157" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F157" t="n">
-        <v>68285</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-1560934.015981633</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="C158" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="D158" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="E158" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="F158" t="n">
-        <v>57806</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-1618740.015981633</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="C159" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="D159" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="E159" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="F159" t="n">
-        <v>5600</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-1613140.015981633</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="C160" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="D160" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="E160" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="F160" t="n">
-        <v>90427.7521</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-1703567.768081632</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="C161" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="D161" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="E161" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="F161" t="n">
-        <v>51807</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-1703567.768081632</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="C162" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="D162" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="E162" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="F162" t="n">
-        <v>67877</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-1703567.768081632</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="C163" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="D163" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="E163" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="F163" t="n">
-        <v>68601</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-1703567.768081632</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="C164" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="D164" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="E164" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="F164" t="n">
-        <v>75595</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-1703567.768081632</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="C165" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="D165" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="E165" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="F165" t="n">
-        <v>47410</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-1703567.768081632</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="C166" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="D166" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="E166" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="F166" t="n">
-        <v>106857.4139</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-1703567.768081632</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6015,7 +5989,9 @@
       <c r="I167" t="n">
         <v>5.84</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6054,7 +6030,9 @@
       <c r="I168" t="n">
         <v>5.84</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6093,7 +6071,9 @@
       <c r="I169" t="n">
         <v>5.84</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6127,12 +6107,12 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6171,7 +6151,9 @@
       <c r="I171" t="n">
         <v>5.84</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6205,12 +6187,12 @@
         <v>-1703467.768081632</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6244,12 +6226,12 @@
         <v>-1703507.718081632</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6283,12 +6265,12 @@
         <v>-1703507.718081632</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6322,12 +6304,12 @@
         <v>-1703507.718081632</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6361,12 +6343,12 @@
         <v>-1703507.718081632</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6405,7 +6387,9 @@
       <c r="I177" t="n">
         <v>5.84</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6439,12 +6423,12 @@
         <v>-1633589.305381632</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6478,12 +6462,12 @@
         <v>-1633589.305381632</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6517,12 +6501,12 @@
         <v>-1633589.305381632</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6561,7 +6545,9 @@
       <c r="I181" t="n">
         <v>5.88</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6595,12 +6581,12 @@
         <v>-1633629.255381632</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6634,12 +6620,12 @@
         <v>-1633629.255381632</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6673,12 +6659,12 @@
         <v>-1633619.255381632</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6712,12 +6698,12 @@
         <v>-1472057.097181632</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6754,7 +6740,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6791,7 +6779,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6828,7 +6818,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6865,7 +6857,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6902,7 +6896,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6939,7 +6935,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6973,12 +6971,12 @@
         <v>-1332383.694281633</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7012,12 +7010,12 @@
         <v>-1332423.644281632</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7051,12 +7049,12 @@
         <v>-1332423.644281632</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7095,7 +7093,9 @@
       <c r="I195" t="n">
         <v>5.86</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7129,12 +7129,12 @@
         <v>-1357896.588681632</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7173,7 +7173,9 @@
       <c r="I197" t="n">
         <v>5.86</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7207,12 +7209,12 @@
         <v>-1348947.304181632</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7246,12 +7248,12 @@
         <v>-1349379.901181632</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7288,7 +7290,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7325,7 +7329,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7362,7 +7368,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7399,7 +7407,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7436,7 +7446,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7473,7 +7485,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7507,12 +7521,12 @@
         <v>-904885.6844816324</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7549,7 +7563,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7586,7 +7602,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7623,7 +7641,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7660,7 +7680,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7697,7 +7719,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7731,17 +7755,19 @@
         <v>-880586.6733816323</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>5.84</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L212" t="n">
-        <v>1</v>
+        <v>0.9984246575342467</v>
       </c>
       <c r="M212" t="inlineStr"/>
     </row>
@@ -7772,11 +7798,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7805,15 +7827,11 @@
         <v>-1304046.589281632</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7846,11 +7864,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7883,11 +7897,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7920,11 +7930,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7957,11 +7963,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7994,11 +7996,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8031,11 +8029,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8068,11 +8062,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8105,11 +8095,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8142,11 +8128,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8179,11 +8161,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8216,11 +8194,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8253,11 +8227,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8290,11 +8260,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8327,11 +8293,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8364,11 +8326,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8401,11 +8359,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8438,11 +8392,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8475,11 +8425,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8512,11 +8458,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8549,11 +8491,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8586,11 +8524,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8623,11 +8557,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8660,11 +8590,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8697,11 +8623,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8734,11 +8656,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8771,11 +8689,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8808,11 +8722,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8845,11 +8755,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8882,11 +8788,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8919,11 +8821,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8956,11 +8854,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8993,11 +8887,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9030,11 +8920,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9067,11 +8953,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9104,11 +8986,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9141,11 +9019,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9178,11 +9052,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9215,11 +9085,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9252,11 +9118,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9289,11 +9151,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9326,11 +9184,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9363,11 +9217,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9400,11 +9250,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9437,11 +9283,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9474,11 +9316,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9511,11 +9349,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9548,11 +9382,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9585,11 +9415,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9622,11 +9448,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9659,11 +9481,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9696,11 +9514,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9733,11 +9547,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9770,11 +9580,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9807,11 +9613,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9844,11 +9646,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9881,11 +9679,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9918,11 +9712,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9955,11 +9745,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9992,11 +9778,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10029,11 +9811,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10066,11 +9844,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10103,11 +9877,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10140,11 +9910,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10177,11 +9943,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10214,11 +9976,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10251,11 +10009,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10288,11 +10042,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10325,11 +10075,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10362,11 +10108,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10399,11 +10141,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10436,11 +10174,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10473,11 +10207,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10506,16 +10236,14 @@
         <v>-700567.2991533016</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
       <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
@@ -10541,7 +10269,7 @@
         <v>-693567.2991533016</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10574,7 +10302,7 @@
         <v>-693567.2991533016</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10607,7 +10335,7 @@
         <v>-694678.2991533016</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10640,7 +10368,7 @@
         <v>-720013.0541533016</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10673,7 +10401,7 @@
         <v>-660711.7971533017</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10706,7 +10434,7 @@
         <v>-673981.7971533017</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10717,6 +10445,6 @@
       <c r="M293" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-25 BackTest FAB.xlsx
+++ b/BackTest/2019-10-25 BackTest FAB.xlsx
@@ -451,7 +451,7 @@
         <v>-539317.4688816327</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-539317.4688816327</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-542817.4688816327</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-329222.4703816327</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-329222.4703816327</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-329222.4703816327</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-329222.4703816327</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-362883.2329816327</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-411163.7803816326</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-411163.7803816326</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-414920.7854816326</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-529163.6037816326</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-599725.4535816326</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-592412.1509816325</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-592412.1509816325</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-782492.9488816325</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-782492.9488816325</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-782492.9488816325</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -4411,14 +4411,10 @@
         <v>-1199819.803881632</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="J122" t="n">
-        <v>5.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
@@ -4451,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4490,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4691,14 +4675,10 @@
         <v>-1195936.344281632</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J130" t="n">
-        <v>5.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
@@ -4728,19 +4708,11 @@
         <v>-1261955.120981632</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J131" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4769,19 +4741,11 @@
         <v>-1219874.594581632</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="J132" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4810,14 +4774,10 @@
         <v>-1219874.594581632</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="J133" t="n">
-        <v>5.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
@@ -4847,19 +4807,11 @@
         <v>-1219874.594581632</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="J134" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4888,19 +4840,11 @@
         <v>-1219314.893181633</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="J135" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5688,10 +5632,14 @@
         <v>-1613140.015981633</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="J159" t="n">
+        <v>5.86</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
@@ -5724,8 +5672,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5754,11 +5708,19 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J161" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5824,11 +5786,9 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>5.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
         <v>5.84</v>
       </c>
@@ -5865,11 +5825,9 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>5.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
         <v>5.84</v>
       </c>
@@ -5906,14 +5864,10 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J165" t="n">
-        <v>5.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
@@ -5943,19 +5897,11 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J166" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5992,11 +5938,7 @@
       <c r="J167" t="n">
         <v>5.84</v>
       </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6035,7 +5977,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L168" t="n">
@@ -6107,9 +6049,11 @@
         <v>-1703567.768081632</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>5.84</v>
+      </c>
       <c r="J170" t="n">
         <v>5.84</v>
       </c>
@@ -6187,9 +6131,11 @@
         <v>-1703467.768081632</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>5.84</v>
+      </c>
       <c r="J172" t="n">
         <v>5.84</v>
       </c>
@@ -6226,9 +6172,11 @@
         <v>-1703507.718081632</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>5.87</v>
+      </c>
       <c r="J173" t="n">
         <v>5.84</v>
       </c>
@@ -6265,9 +6213,11 @@
         <v>-1703507.718081632</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>5.84</v>
+      </c>
       <c r="J174" t="n">
         <v>5.84</v>
       </c>
@@ -6304,9 +6254,11 @@
         <v>-1703507.718081632</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>5.84</v>
+      </c>
       <c r="J175" t="n">
         <v>5.84</v>
       </c>
@@ -6343,9 +6295,11 @@
         <v>-1703507.718081632</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>5.84</v>
+      </c>
       <c r="J176" t="n">
         <v>5.84</v>
       </c>
@@ -6423,9 +6377,11 @@
         <v>-1633589.305381632</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>5.84</v>
+      </c>
       <c r="J178" t="n">
         <v>5.84</v>
       </c>
@@ -6462,9 +6418,11 @@
         <v>-1633589.305381632</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>5.88</v>
+      </c>
       <c r="J179" t="n">
         <v>5.84</v>
       </c>
@@ -6581,9 +6539,11 @@
         <v>-1633629.255381632</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>5.88</v>
+      </c>
       <c r="J182" t="n">
         <v>5.84</v>
       </c>
@@ -6620,9 +6580,11 @@
         <v>-1633629.255381632</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>5.86</v>
+      </c>
       <c r="J183" t="n">
         <v>5.84</v>
       </c>
@@ -6659,9 +6621,11 @@
         <v>-1633619.255381632</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>5.86</v>
+      </c>
       <c r="J184" t="n">
         <v>5.84</v>
       </c>
@@ -6698,9 +6662,11 @@
         <v>-1472057.097181632</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>5.93</v>
+      </c>
       <c r="J185" t="n">
         <v>5.84</v>
       </c>
@@ -7010,9 +6976,11 @@
         <v>-1332423.644281632</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>5.9</v>
+      </c>
       <c r="J193" t="n">
         <v>5.84</v>
       </c>
@@ -7209,9 +7177,11 @@
         <v>-1348947.304181632</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>5.87</v>
+      </c>
       <c r="J198" t="n">
         <v>5.84</v>
       </c>
@@ -7326,9 +7296,11 @@
         <v>-1349409.851181632</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>5.93</v>
+      </c>
       <c r="J201" t="n">
         <v>5.84</v>
       </c>
@@ -7365,9 +7337,11 @@
         <v>-1349399.851181632</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>5.86</v>
+      </c>
       <c r="J202" t="n">
         <v>5.84</v>
       </c>
@@ -7755,7 +7729,7 @@
         <v>-880586.6733816323</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
@@ -7763,11 +7737,11 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L212" t="n">
-        <v>0.9984246575342467</v>
+        <v>1</v>
       </c>
       <c r="M212" t="inlineStr"/>
     </row>
@@ -7797,8 +7771,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7827,11 +7807,17 @@
         <v>-1304046.589281632</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7863,8 +7849,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7896,8 +7888,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7929,8 +7927,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7962,8 +7966,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7995,8 +8005,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8028,8 +8044,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8061,8 +8083,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8094,8 +8122,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8127,8 +8161,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8160,8 +8200,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8193,8 +8239,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8226,8 +8278,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8259,8 +8317,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8292,8 +8356,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8325,8 +8395,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8358,8 +8434,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8391,8 +8473,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8424,8 +8512,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8457,8 +8551,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8490,8 +8590,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8523,8 +8629,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8556,8 +8668,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8589,8 +8707,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8622,8 +8746,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8655,8 +8785,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8688,8 +8824,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8721,8 +8863,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8754,8 +8902,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8787,8 +8941,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8820,8 +8980,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8853,8 +9019,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8886,8 +9058,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8919,8 +9097,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8952,8 +9136,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8985,8 +9175,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9018,8 +9214,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9051,8 +9253,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9084,8 +9292,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9117,8 +9331,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9150,8 +9370,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9183,8 +9409,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9216,8 +9448,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9249,8 +9487,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9282,8 +9526,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9315,8 +9565,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9348,8 +9604,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9381,8 +9643,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9414,8 +9682,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9447,8 +9721,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9480,8 +9760,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9513,8 +9799,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9546,8 +9838,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9579,8 +9877,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9612,8 +9916,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9645,8 +9955,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9678,8 +9994,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9711,8 +10033,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9744,8 +10072,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9777,8 +10111,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9810,8 +10150,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9843,8 +10189,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9876,8 +10228,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9909,8 +10267,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9942,8 +10306,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9975,8 +10345,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10008,8 +10384,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10041,8 +10423,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10074,8 +10462,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10107,8 +10501,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10137,13 +10537,19 @@
         <v>-700977.2991533016</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L284" t="n">
-        <v>1</v>
+        <v>1.030958904109589</v>
       </c>
       <c r="M284" t="inlineStr"/>
     </row>
@@ -10302,7 +10708,7 @@
         <v>-693567.2991533016</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10335,7 +10741,7 @@
         <v>-694678.2991533016</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10368,7 +10774,7 @@
         <v>-720013.0541533016</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10401,7 +10807,7 @@
         <v>-660711.7971533017</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10434,7 +10840,7 @@
         <v>-673981.7971533017</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>

--- a/BackTest/2019-10-25 BackTest FAB.xlsx
+++ b/BackTest/2019-10-25 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M293"/>
+  <dimension ref="A1:L293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>-539317.4688816327</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>-539317.4688816327</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>3500</v>
       </c>
       <c r="G4" t="n">
-        <v>-542817.4688816327</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,19 @@
         <v>213594.9985</v>
       </c>
       <c r="G5" t="n">
-        <v>-329222.4703816327</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.84</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +567,21 @@
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>-329222.4703816327</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +603,21 @@
         <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>-329222.4703816327</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +639,15 @@
         <v>66184.2372</v>
       </c>
       <c r="G8" t="n">
-        <v>-329222.4703816327</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +669,15 @@
         <v>33660.7626</v>
       </c>
       <c r="G9" t="n">
-        <v>-362883.2329816327</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +699,15 @@
         <v>26353</v>
       </c>
       <c r="G10" t="n">
-        <v>-389236.2329816327</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +729,15 @@
         <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>-389246.2329816327</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +759,15 @@
         <v>40</v>
       </c>
       <c r="G12" t="n">
-        <v>-389206.2329816327</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +789,19 @@
         <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>-389196.2329816327</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5.84</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +823,21 @@
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>-389196.2329816327</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +859,21 @@
         <v>43847</v>
       </c>
       <c r="G15" t="n">
-        <v>-433043.2329816327</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +895,15 @@
         <v>42355.352</v>
       </c>
       <c r="G16" t="n">
-        <v>-390687.8809816327</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +925,15 @@
         <v>116140.6859</v>
       </c>
       <c r="G17" t="n">
-        <v>-506828.5668816327</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +955,15 @@
         <v>20</v>
       </c>
       <c r="G18" t="n">
-        <v>-506828.5668816327</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +985,15 @@
         <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>-506828.5668816327</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1015,15 @@
         <v>22344.0935</v>
       </c>
       <c r="G20" t="n">
-        <v>-506828.5668816327</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1045,15 @@
         <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>-506828.5668816327</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1075,15 @@
         <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>-506828.5668816327</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1105,15 @@
         <v>21851.4378</v>
       </c>
       <c r="G23" t="n">
-        <v>-528680.0046816326</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1135,15 @@
         <v>43088.1835</v>
       </c>
       <c r="G24" t="n">
-        <v>-528680.0046816326</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1165,15 @@
         <v>73941</v>
       </c>
       <c r="G25" t="n">
-        <v>-528680.0046816326</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1195,15 @@
         <v>48835</v>
       </c>
       <c r="G26" t="n">
-        <v>-528680.0046816326</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1225,15 @@
         <v>17679.3602</v>
       </c>
       <c r="G27" t="n">
-        <v>-528680.0046816326</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1255,15 @@
         <v>20</v>
       </c>
       <c r="G28" t="n">
-        <v>-528660.0046816326</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1285,15 @@
         <v>100</v>
       </c>
       <c r="G29" t="n">
-        <v>-528660.0046816326</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1315,15 @@
         <v>55130.7552</v>
       </c>
       <c r="G30" t="n">
-        <v>-583790.7598816326</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1345,15 @@
         <v>5760.1429</v>
       </c>
       <c r="G31" t="n">
-        <v>-583790.7598816326</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1375,15 @@
         <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>-583780.7598816326</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1405,15 @@
         <v>21142.6113</v>
       </c>
       <c r="G33" t="n">
-        <v>-583780.7598816326</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1435,15 @@
         <v>44940.47</v>
       </c>
       <c r="G34" t="n">
-        <v>-538840.2898816327</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1465,15 @@
         <v>10</v>
       </c>
       <c r="G35" t="n">
-        <v>-538840.2898816327</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1495,15 @@
         <v>129531.0169</v>
       </c>
       <c r="G36" t="n">
-        <v>-538840.2898816327</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1525,15 @@
         <v>22574.0443</v>
       </c>
       <c r="G37" t="n">
-        <v>-516266.2455816327</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1555,15 @@
         <v>147107.1111</v>
       </c>
       <c r="G38" t="n">
-        <v>-369159.1344816326</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1585,15 @@
         <v>108524.763</v>
       </c>
       <c r="G39" t="n">
-        <v>-260634.3714816326</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1615,15 @@
         <v>134758.6781</v>
       </c>
       <c r="G40" t="n">
-        <v>-395393.0495816326</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1645,15 @@
         <v>15780.7308</v>
       </c>
       <c r="G41" t="n">
-        <v>-411173.7803816326</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1675,15 @@
         <v>10</v>
       </c>
       <c r="G42" t="n">
-        <v>-411163.7803816326</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1705,15 @@
         <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>-411163.7803816326</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1735,15 @@
         <v>25</v>
       </c>
       <c r="G44" t="n">
-        <v>-411163.7803816326</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1765,15 @@
         <v>100</v>
       </c>
       <c r="G45" t="n">
-        <v>-411163.7803816326</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1795,15 @@
         <v>7864.2384</v>
       </c>
       <c r="G46" t="n">
-        <v>-411163.7803816326</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1825,15 @@
         <v>1969.32</v>
       </c>
       <c r="G47" t="n">
-        <v>-413133.1003816326</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1855,15 @@
         <v>121</v>
       </c>
       <c r="G48" t="n">
-        <v>-413254.1003816326</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1885,15 @@
         <v>1666.6851</v>
       </c>
       <c r="G49" t="n">
-        <v>-414920.7854816326</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1915,15 @@
         <v>1489.3394</v>
       </c>
       <c r="G50" t="n">
-        <v>-414920.7854816326</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1945,15 @@
         <v>100</v>
       </c>
       <c r="G51" t="n">
-        <v>-414920.7854816326</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1975,15 @@
         <v>100</v>
       </c>
       <c r="G52" t="n">
-        <v>-414920.7854816326</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2005,15 @@
         <v>33408.6898</v>
       </c>
       <c r="G53" t="n">
-        <v>-414920.7854816326</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2035,15 @@
         <v>110</v>
       </c>
       <c r="G54" t="n">
-        <v>-414810.7854816326</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2065,15 @@
         <v>4095.681</v>
       </c>
       <c r="G55" t="n">
-        <v>-414810.7854816326</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2095,15 @@
         <v>3857.0301</v>
       </c>
       <c r="G56" t="n">
-        <v>-414810.7854816326</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2125,15 @@
         <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>-414800.7854816326</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2155,15 @@
         <v>94747.08289999999</v>
       </c>
       <c r="G58" t="n">
-        <v>-414800.7854816326</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2185,15 @@
         <v>114362.8183</v>
       </c>
       <c r="G59" t="n">
-        <v>-529163.6037816326</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2215,15 @@
         <v>14854.396</v>
       </c>
       <c r="G60" t="n">
-        <v>-514309.2077816326</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2245,15 @@
         <v>400</v>
       </c>
       <c r="G61" t="n">
-        <v>-514309.2077816326</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2275,15 @@
         <v>85416.2458</v>
       </c>
       <c r="G62" t="n">
-        <v>-599725.4535816326</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2305,15 @@
         <v>69411</v>
       </c>
       <c r="G63" t="n">
-        <v>-599725.4535816326</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2335,15 @@
         <v>7303.3026</v>
       </c>
       <c r="G64" t="n">
-        <v>-592422.1509816325</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2365,15 @@
         <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>-592412.1509816325</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2395,15 @@
         <v>10</v>
       </c>
       <c r="G66" t="n">
-        <v>-592412.1509816325</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2425,15 @@
         <v>10</v>
       </c>
       <c r="G67" t="n">
-        <v>-592412.1509816325</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2455,15 @@
         <v>190080.7979</v>
       </c>
       <c r="G68" t="n">
-        <v>-782492.9488816325</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2485,15 @@
         <v>41.9625</v>
       </c>
       <c r="G69" t="n">
-        <v>-782492.9488816325</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2515,15 @@
         <v>100</v>
       </c>
       <c r="G70" t="n">
-        <v>-782492.9488816325</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2545,15 @@
         <v>100</v>
       </c>
       <c r="G71" t="n">
-        <v>-782492.9488816325</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2575,15 @@
         <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>-782492.9488816325</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2605,15 @@
         <v>111323.6199</v>
       </c>
       <c r="G73" t="n">
-        <v>-893816.5687816326</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2635,15 @@
         <v>95645.3253</v>
       </c>
       <c r="G74" t="n">
-        <v>-893816.5687816326</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2665,15 @@
         <v>18</v>
       </c>
       <c r="G75" t="n">
-        <v>-893798.5687816326</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2695,15 @@
         <v>58818.791</v>
       </c>
       <c r="G76" t="n">
-        <v>-952617.3597816325</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2725,15 @@
         <v>133595.061</v>
       </c>
       <c r="G77" t="n">
-        <v>-1086212.420781632</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2755,15 @@
         <v>10</v>
       </c>
       <c r="G78" t="n">
-        <v>-1086202.420781632</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2785,15 @@
         <v>36628.168</v>
       </c>
       <c r="G79" t="n">
-        <v>-1122830.588781632</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2815,15 @@
         <v>10</v>
       </c>
       <c r="G80" t="n">
-        <v>-1122820.588781632</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2845,15 @@
         <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>-1122820.588781632</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2875,15 @@
         <v>10</v>
       </c>
       <c r="G82" t="n">
-        <v>-1122820.588781632</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2905,15 @@
         <v>10</v>
       </c>
       <c r="G83" t="n">
-        <v>-1122820.588781632</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2935,15 @@
         <v>10</v>
       </c>
       <c r="G84" t="n">
-        <v>-1122820.588781632</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2965,15 @@
         <v>10</v>
       </c>
       <c r="G85" t="n">
-        <v>-1122820.588781632</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2995,15 @@
         <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>-1122820.588781632</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3025,15 @@
         <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>-1122820.588781632</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3055,15 @@
         <v>100</v>
       </c>
       <c r="G88" t="n">
-        <v>-1122820.588781632</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3085,15 @@
         <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>-1122820.588781632</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3115,15 @@
         <v>100</v>
       </c>
       <c r="G90" t="n">
-        <v>-1122820.588781632</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3145,15 @@
         <v>20652.1657</v>
       </c>
       <c r="G91" t="n">
-        <v>-1143472.754481632</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3175,15 @@
         <v>20</v>
       </c>
       <c r="G92" t="n">
-        <v>-1143452.754481632</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3205,15 @@
         <v>10</v>
       </c>
       <c r="G93" t="n">
-        <v>-1143452.754481632</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3235,15 @@
         <v>100</v>
       </c>
       <c r="G94" t="n">
-        <v>-1143452.754481632</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3265,15 @@
         <v>100</v>
       </c>
       <c r="G95" t="n">
-        <v>-1143452.754481632</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3295,15 @@
         <v>10</v>
       </c>
       <c r="G96" t="n">
-        <v>-1143452.754481632</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3325,15 @@
         <v>10</v>
       </c>
       <c r="G97" t="n">
-        <v>-1143452.754481632</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3355,15 @@
         <v>10</v>
       </c>
       <c r="G98" t="n">
-        <v>-1143452.754481632</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3385,15 @@
         <v>66768.4679</v>
       </c>
       <c r="G99" t="n">
-        <v>-1210221.222381633</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3415,15 @@
         <v>10</v>
       </c>
       <c r="G100" t="n">
-        <v>-1210211.222381633</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3445,15 @@
         <v>32652.5768</v>
       </c>
       <c r="G101" t="n">
-        <v>-1242863.799181632</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3475,15 @@
         <v>102169</v>
       </c>
       <c r="G102" t="n">
-        <v>-1242863.799181632</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3505,15 @@
         <v>70401</v>
       </c>
       <c r="G103" t="n">
-        <v>-1242863.799181632</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3535,15 @@
         <v>47573</v>
       </c>
       <c r="G104" t="n">
-        <v>-1242863.799181632</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3565,15 @@
         <v>43460</v>
       </c>
       <c r="G105" t="n">
-        <v>-1242863.799181632</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3595,15 @@
         <v>73622</v>
       </c>
       <c r="G106" t="n">
-        <v>-1242863.799181632</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3625,15 @@
         <v>58756</v>
       </c>
       <c r="G107" t="n">
-        <v>-1242863.799181632</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3655,15 @@
         <v>41923.7761</v>
       </c>
       <c r="G108" t="n">
-        <v>-1242863.799181632</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3685,15 @@
         <v>123256.1582</v>
       </c>
       <c r="G109" t="n">
-        <v>-1242863.799181632</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3715,15 @@
         <v>46143</v>
       </c>
       <c r="G110" t="n">
-        <v>-1242863.799181632</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3745,15 @@
         <v>35193</v>
       </c>
       <c r="G111" t="n">
-        <v>-1207670.799181632</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3775,15 @@
         <v>42.2487</v>
       </c>
       <c r="G112" t="n">
-        <v>-1207713.047881633</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3805,15 @@
         <v>10</v>
       </c>
       <c r="G113" t="n">
-        <v>-1207713.047881633</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3835,15 @@
         <v>10</v>
       </c>
       <c r="G114" t="n">
-        <v>-1207713.047881633</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3865,15 @@
         <v>138.1486</v>
       </c>
       <c r="G115" t="n">
-        <v>-1207851.196481633</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3895,15 @@
         <v>62.4513</v>
       </c>
       <c r="G116" t="n">
-        <v>-1207851.196481633</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3925,15 @@
         <v>10877.226</v>
       </c>
       <c r="G117" t="n">
-        <v>-1196973.970481633</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3955,15 @@
         <v>2845.8334</v>
       </c>
       <c r="G118" t="n">
-        <v>-1199819.803881632</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3985,15 @@
         <v>20000</v>
       </c>
       <c r="G119" t="n">
-        <v>-1199819.803881632</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4015,15 @@
         <v>18268.2539</v>
       </c>
       <c r="G120" t="n">
-        <v>-1199819.803881632</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4045,15 @@
         <v>61440.954</v>
       </c>
       <c r="G121" t="n">
-        <v>-1199819.803881632</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4075,15 @@
         <v>60122.3039</v>
       </c>
       <c r="G122" t="n">
-        <v>-1199819.803881632</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4105,15 @@
         <v>30647.4628</v>
       </c>
       <c r="G123" t="n">
-        <v>-1199819.803881632</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4135,15 @@
         <v>10</v>
       </c>
       <c r="G124" t="n">
-        <v>-1199809.803881632</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4165,15 @@
         <v>12582.2333</v>
       </c>
       <c r="G125" t="n">
-        <v>-1212392.037181632</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4195,15 @@
         <v>16503.5561</v>
       </c>
       <c r="G126" t="n">
-        <v>-1195888.481081632</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4225,15 @@
         <v>100</v>
       </c>
       <c r="G127" t="n">
-        <v>-1195888.481081632</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4255,15 @@
         <v>100</v>
       </c>
       <c r="G128" t="n">
-        <v>-1195888.481081632</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4285,15 @@
         <v>47.8632</v>
       </c>
       <c r="G129" t="n">
-        <v>-1195936.344281632</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4315,19 @@
         <v>3305.1369</v>
       </c>
       <c r="G130" t="n">
-        <v>-1195936.344281632</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="I130" t="n">
+        <v>5.84</v>
+      </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4349,21 @@
         <v>66018.7767</v>
       </c>
       <c r="G131" t="n">
-        <v>-1261955.120981632</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4385,23 @@
         <v>42080.5264</v>
       </c>
       <c r="G132" t="n">
-        <v>-1219874.594581632</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>5.83</v>
+      </c>
+      <c r="I132" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4423,15 @@
         <v>81874</v>
       </c>
       <c r="G133" t="n">
-        <v>-1219874.594581632</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4453,19 @@
         <v>28364</v>
       </c>
       <c r="G134" t="n">
-        <v>-1219874.594581632</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>5.87</v>
+      </c>
+      <c r="I134" t="n">
+        <v>5.87</v>
+      </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4487,21 @@
         <v>559.7014</v>
       </c>
       <c r="G135" t="n">
-        <v>-1219314.893181633</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4523,23 @@
         <v>30</v>
       </c>
       <c r="G136" t="n">
-        <v>-1219284.893181633</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>5.88</v>
+      </c>
+      <c r="I136" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4561,15 @@
         <v>74441.70699999999</v>
       </c>
       <c r="G137" t="n">
-        <v>-1144843.186181633</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4591,15 @@
         <v>25469</v>
       </c>
       <c r="G138" t="n">
-        <v>-1170312.186181633</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4621,15 @@
         <v>37663.4802</v>
       </c>
       <c r="G139" t="n">
-        <v>-1207975.666381633</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4651,15 @@
         <v>83.3558</v>
       </c>
       <c r="G140" t="n">
-        <v>-1207892.310581633</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4681,15 @@
         <v>21967</v>
       </c>
       <c r="G141" t="n">
-        <v>-1229859.310581633</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4711,15 @@
         <v>10</v>
       </c>
       <c r="G142" t="n">
-        <v>-1229849.310581633</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4741,15 @@
         <v>149744.3971</v>
       </c>
       <c r="G143" t="n">
-        <v>-1379593.707681633</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4771,15 @@
         <v>63541.4261</v>
       </c>
       <c r="G144" t="n">
-        <v>-1379593.707681633</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4801,15 @@
         <v>59458.3083</v>
       </c>
       <c r="G145" t="n">
-        <v>-1439052.015981633</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4831,15 @@
         <v>10</v>
       </c>
       <c r="G146" t="n">
-        <v>-1439042.015981633</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4861,15 @@
         <v>21487.691</v>
       </c>
       <c r="G147" t="n">
-        <v>-1439042.015981633</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4891,15 @@
         <v>121892</v>
       </c>
       <c r="G148" t="n">
-        <v>-1560934.015981633</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4921,15 @@
         <v>73394</v>
       </c>
       <c r="G149" t="n">
-        <v>-1560934.015981633</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4951,15 @@
         <v>55323.4417</v>
       </c>
       <c r="G150" t="n">
-        <v>-1560934.015981633</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4981,15 @@
         <v>84213</v>
       </c>
       <c r="G151" t="n">
-        <v>-1560934.015981633</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5011,15 @@
         <v>43989</v>
       </c>
       <c r="G152" t="n">
-        <v>-1560934.015981633</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5041,15 @@
         <v>47311</v>
       </c>
       <c r="G153" t="n">
-        <v>-1560934.015981633</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5071,15 @@
         <v>59969</v>
       </c>
       <c r="G154" t="n">
-        <v>-1560934.015981633</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5101,15 @@
         <v>67925</v>
       </c>
       <c r="G155" t="n">
-        <v>-1560934.015981633</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5131,15 @@
         <v>66674</v>
       </c>
       <c r="G156" t="n">
-        <v>-1560934.015981633</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5161,15 @@
         <v>68285</v>
       </c>
       <c r="G157" t="n">
-        <v>-1560934.015981633</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5191,15 @@
         <v>57806</v>
       </c>
       <c r="G158" t="n">
-        <v>-1618740.015981633</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,22 +5221,15 @@
         <v>5600</v>
       </c>
       <c r="G159" t="n">
-        <v>-1613140.015981633</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="J159" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5666,24 +5251,15 @@
         <v>90427.7521</v>
       </c>
       <c r="G160" t="n">
-        <v>-1703567.768081632</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5705,26 +5281,15 @@
         <v>51807</v>
       </c>
       <c r="G161" t="n">
-        <v>-1703567.768081632</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J161" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5746,22 +5311,15 @@
         <v>67877</v>
       </c>
       <c r="G162" t="n">
-        <v>-1703567.768081632</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J162" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5783,24 +5341,19 @@
         <v>68601</v>
       </c>
       <c r="G163" t="n">
-        <v>-1703567.768081632</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="I163" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5822,24 +5375,21 @@
         <v>75595</v>
       </c>
       <c r="G164" t="n">
-        <v>-1703567.768081632</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K164" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J164" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5861,18 +5411,21 @@
         <v>47410</v>
       </c>
       <c r="G165" t="n">
-        <v>-1703567.768081632</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5894,18 +5447,15 @@
         <v>106857.4139</v>
       </c>
       <c r="G166" t="n">
-        <v>-1703567.768081632</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5927,22 +5477,15 @@
         <v>55707</v>
       </c>
       <c r="G167" t="n">
-        <v>-1703567.768081632</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J167" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5964,26 +5507,15 @@
         <v>52404.0574</v>
       </c>
       <c r="G168" t="n">
-        <v>-1703567.768081632</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J168" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6005,26 +5537,19 @@
         <v>36869.1035</v>
       </c>
       <c r="G169" t="n">
-        <v>-1703567.768081632</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>5.84</v>
       </c>
       <c r="I169" t="n">
         <v>5.84</v>
       </c>
-      <c r="J169" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6046,26 +5571,23 @@
         <v>346.7665</v>
       </c>
       <c r="G170" t="n">
-        <v>-1703567.768081632</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>5.84</v>
       </c>
       <c r="I170" t="n">
         <v>5.84</v>
       </c>
-      <c r="J170" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6087,26 +5609,23 @@
         <v>15000</v>
       </c>
       <c r="G171" t="n">
-        <v>-1703567.768081632</v>
+        <v>1</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>5.84</v>
       </c>
       <c r="I171" t="n">
         <v>5.84</v>
       </c>
-      <c r="J171" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6128,26 +5647,19 @@
         <v>100</v>
       </c>
       <c r="G172" t="n">
-        <v>-1703467.768081632</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>5.84</v>
       </c>
       <c r="I172" t="n">
         <v>5.84</v>
       </c>
-      <c r="J172" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6169,26 +5681,23 @@
         <v>39.95</v>
       </c>
       <c r="G173" t="n">
-        <v>-1703507.718081632</v>
+        <v>1</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>5.87</v>
       </c>
       <c r="I173" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="J173" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6210,26 +5719,23 @@
         <v>11970</v>
       </c>
       <c r="G174" t="n">
-        <v>-1703507.718081632</v>
+        <v>1</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>5.84</v>
       </c>
       <c r="I174" t="n">
         <v>5.84</v>
       </c>
-      <c r="J174" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6251,26 +5757,23 @@
         <v>84538.9186</v>
       </c>
       <c r="G175" t="n">
-        <v>-1703507.718081632</v>
+        <v>1</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>5.84</v>
       </c>
       <c r="I175" t="n">
         <v>5.84</v>
       </c>
-      <c r="J175" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6292,26 +5795,23 @@
         <v>87902.95</v>
       </c>
       <c r="G176" t="n">
-        <v>-1703507.718081632</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>5.84</v>
       </c>
       <c r="I176" t="n">
         <v>5.84</v>
       </c>
-      <c r="J176" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6333,26 +5833,23 @@
         <v>10250.776</v>
       </c>
       <c r="G177" t="n">
-        <v>-1703507.718081632</v>
+        <v>1</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>5.84</v>
       </c>
       <c r="I177" t="n">
         <v>5.84</v>
       </c>
-      <c r="J177" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6374,26 +5871,23 @@
         <v>69918.4127</v>
       </c>
       <c r="G178" t="n">
-        <v>-1633589.305381632</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>5.84</v>
       </c>
       <c r="I178" t="n">
         <v>5.84</v>
       </c>
-      <c r="J178" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6415,26 +5909,23 @@
         <v>62918</v>
       </c>
       <c r="G179" t="n">
-        <v>-1633589.305381632</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>5.88</v>
       </c>
       <c r="I179" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="J179" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6456,24 +5947,21 @@
         <v>100383.95</v>
       </c>
       <c r="G180" t="n">
-        <v>-1633589.305381632</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6495,26 +5983,21 @@
         <v>4544.5853</v>
       </c>
       <c r="G181" t="n">
-        <v>-1633589.305381632</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="J181" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6536,26 +6019,21 @@
         <v>39.95</v>
       </c>
       <c r="G182" t="n">
-        <v>-1633629.255381632</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="J182" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6577,26 +6055,21 @@
         <v>5200</v>
       </c>
       <c r="G183" t="n">
-        <v>-1633629.255381632</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="J183" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6618,26 +6091,21 @@
         <v>10</v>
       </c>
       <c r="G184" t="n">
-        <v>-1633619.255381632</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="J184" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6659,26 +6127,21 @@
         <v>161562.1582</v>
       </c>
       <c r="G185" t="n">
-        <v>-1472057.097181632</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="J185" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6700,24 +6163,21 @@
         <v>21</v>
       </c>
       <c r="G186" t="n">
-        <v>-1472078.097181632</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6739,24 +6199,21 @@
         <v>78.84999999999999</v>
       </c>
       <c r="G187" t="n">
-        <v>-1472156.947181633</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6778,24 +6235,21 @@
         <v>10</v>
       </c>
       <c r="G188" t="n">
-        <v>-1472146.947181633</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6817,24 +6271,21 @@
         <v>25676.987</v>
       </c>
       <c r="G189" t="n">
-        <v>-1497823.934181632</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6856,24 +6307,21 @@
         <v>148081.4839</v>
       </c>
       <c r="G190" t="n">
-        <v>-1349742.450281633</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6895,24 +6343,21 @@
         <v>39.95</v>
       </c>
       <c r="G191" t="n">
-        <v>-1349782.400281633</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6934,24 +6379,21 @@
         <v>17398.706</v>
       </c>
       <c r="G192" t="n">
-        <v>-1332383.694281633</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6973,26 +6415,21 @@
         <v>39.95</v>
       </c>
       <c r="G193" t="n">
-        <v>-1332423.644281632</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J193" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7014,24 +6451,21 @@
         <v>23371.1677</v>
       </c>
       <c r="G194" t="n">
-        <v>-1332423.644281632</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7053,26 +6487,23 @@
         <v>100</v>
       </c>
       <c r="G195" t="n">
-        <v>-1332323.644281632</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>5.86</v>
       </c>
       <c r="I195" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="J195" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7094,24 +6525,21 @@
         <v>25572.9444</v>
       </c>
       <c r="G196" t="n">
-        <v>-1357896.588681632</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7133,26 +6561,21 @@
         <v>8939.2845</v>
       </c>
       <c r="G197" t="n">
-        <v>-1348957.304181632</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="J197" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7174,26 +6597,21 @@
         <v>10</v>
       </c>
       <c r="G198" t="n">
-        <v>-1348947.304181632</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="J198" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7215,24 +6633,21 @@
         <v>432.597</v>
       </c>
       <c r="G199" t="n">
-        <v>-1349379.901181632</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7254,24 +6669,21 @@
         <v>10</v>
       </c>
       <c r="G200" t="n">
-        <v>-1349369.901181632</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7293,26 +6705,21 @@
         <v>39.95</v>
       </c>
       <c r="G201" t="n">
-        <v>-1349409.851181632</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="J201" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7334,26 +6741,21 @@
         <v>10</v>
       </c>
       <c r="G202" t="n">
-        <v>-1349399.851181632</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="J202" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>5.84</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7375,24 +6777,21 @@
         <v>39.95</v>
       </c>
       <c r="G203" t="n">
-        <v>-1349439.801181632</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7414,24 +6813,21 @@
         <v>10</v>
       </c>
       <c r="G204" t="n">
-        <v>-1349429.801181632</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7453,24 +6849,21 @@
         <v>30644.4003</v>
       </c>
       <c r="G205" t="n">
-        <v>-1380074.201481632</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7492,24 +6885,21 @@
         <v>475188.517</v>
       </c>
       <c r="G206" t="n">
-        <v>-904885.6844816324</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7531,24 +6921,21 @@
         <v>20</v>
       </c>
       <c r="G207" t="n">
-        <v>-904885.6844816324</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7570,24 +6957,21 @@
         <v>19.95</v>
       </c>
       <c r="G208" t="n">
-        <v>-904905.6344816324</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7609,24 +6993,21 @@
         <v>162.077</v>
       </c>
       <c r="G209" t="n">
-        <v>-904905.6344816324</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7648,24 +7029,21 @@
         <v>19.873</v>
       </c>
       <c r="G210" t="n">
-        <v>-904925.5074816324</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7687,24 +7065,21 @@
         <v>24378.7841</v>
       </c>
       <c r="G211" t="n">
-        <v>-880546.7233816324</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7726,24 +7101,21 @@
         <v>39.95</v>
       </c>
       <c r="G212" t="n">
-        <v>-880586.6733816323</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7765,24 +7137,21 @@
         <v>41498.179</v>
       </c>
       <c r="G213" t="n">
-        <v>-880586.6733816323</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7804,24 +7173,21 @@
         <v>423459.9159</v>
       </c>
       <c r="G214" t="n">
-        <v>-1304046.589281632</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7843,24 +7209,21 @@
         <v>3296.874</v>
       </c>
       <c r="G215" t="n">
-        <v>-1300749.715281632</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7882,24 +7245,21 @@
         <v>10</v>
       </c>
       <c r="G216" t="n">
-        <v>-1300739.715281632</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7921,24 +7281,21 @@
         <v>39.95</v>
       </c>
       <c r="G217" t="n">
-        <v>-1300779.665281632</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7960,24 +7317,21 @@
         <v>29637.3249</v>
       </c>
       <c r="G218" t="n">
-        <v>-1330416.990181632</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7999,24 +7353,21 @@
         <v>11409.8231</v>
       </c>
       <c r="G219" t="n">
-        <v>-1319007.167081632</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8038,24 +7389,21 @@
         <v>49.95</v>
       </c>
       <c r="G220" t="n">
-        <v>-1319007.167081632</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8077,24 +7425,21 @@
         <v>7000</v>
       </c>
       <c r="G221" t="n">
-        <v>-1312007.167081632</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8116,24 +7461,21 @@
         <v>20</v>
       </c>
       <c r="G222" t="n">
-        <v>-1311987.167081632</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8155,24 +7497,21 @@
         <v>19.95</v>
       </c>
       <c r="G223" t="n">
-        <v>-1312007.117081632</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8194,24 +7533,21 @@
         <v>11670.7035</v>
       </c>
       <c r="G224" t="n">
-        <v>-1300336.413581632</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8233,24 +7569,21 @@
         <v>12962</v>
       </c>
       <c r="G225" t="n">
-        <v>-1300336.413581632</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8272,24 +7605,21 @@
         <v>1385.2965</v>
       </c>
       <c r="G226" t="n">
-        <v>-1301721.710081632</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8311,24 +7641,21 @@
         <v>36829</v>
       </c>
       <c r="G227" t="n">
-        <v>-1338550.710081632</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8350,24 +7677,21 @@
         <v>47962</v>
       </c>
       <c r="G228" t="n">
-        <v>-1338550.710081632</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8389,24 +7713,21 @@
         <v>66710</v>
       </c>
       <c r="G229" t="n">
-        <v>-1405260.710081632</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8428,24 +7749,21 @@
         <v>66456</v>
       </c>
       <c r="G230" t="n">
-        <v>-1338804.710081632</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8467,24 +7785,21 @@
         <v>9984</v>
       </c>
       <c r="G231" t="n">
-        <v>-1348788.710081632</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8506,24 +7821,21 @@
         <v>10</v>
       </c>
       <c r="G232" t="n">
-        <v>-1348778.710081632</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8545,24 +7857,21 @@
         <v>136242</v>
       </c>
       <c r="G233" t="n">
-        <v>-1348778.710081632</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8584,24 +7893,21 @@
         <v>0.4934</v>
       </c>
       <c r="G234" t="n">
-        <v>-1348778.710081632</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8623,24 +7929,21 @@
         <v>110</v>
       </c>
       <c r="G235" t="n">
-        <v>-1348668.710081632</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8662,24 +7965,21 @@
         <v>5674.3824</v>
       </c>
       <c r="G236" t="n">
-        <v>-1348668.710081632</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8701,24 +8001,21 @@
         <v>153600.36</v>
       </c>
       <c r="G237" t="n">
-        <v>-1348668.710081632</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8740,24 +8037,21 @@
         <v>56399.64</v>
       </c>
       <c r="G238" t="n">
-        <v>-1348668.710081632</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8779,24 +8073,21 @@
         <v>20</v>
       </c>
       <c r="G239" t="n">
-        <v>-1348668.710081632</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8818,24 +8109,21 @@
         <v>19.95</v>
       </c>
       <c r="G240" t="n">
-        <v>-1348688.660081632</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8857,24 +8145,21 @@
         <v>55.4444</v>
       </c>
       <c r="G241" t="n">
-        <v>-1348633.215681632</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8896,24 +8181,21 @@
         <v>88.8888</v>
       </c>
       <c r="G242" t="n">
-        <v>-1348633.215681632</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8935,24 +8217,21 @@
         <v>9835.666800000001</v>
       </c>
       <c r="G243" t="n">
-        <v>-1348633.215681632</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8974,24 +8253,21 @@
         <v>11681</v>
       </c>
       <c r="G244" t="n">
-        <v>-1348633.215681632</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9013,24 +8289,21 @@
         <v>4444.1189</v>
       </c>
       <c r="G245" t="n">
-        <v>-1348633.215681632</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9052,24 +8325,21 @@
         <v>9886.7171</v>
       </c>
       <c r="G246" t="n">
-        <v>-1348633.215681632</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9091,24 +8361,21 @@
         <v>20493.5536</v>
       </c>
       <c r="G247" t="n">
-        <v>-1369126.769281632</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9130,24 +8397,21 @@
         <v>56391</v>
       </c>
       <c r="G248" t="n">
-        <v>-1312735.769281632</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9169,24 +8433,21 @@
         <v>78444.121</v>
       </c>
       <c r="G249" t="n">
-        <v>-1391179.890281632</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9208,24 +8469,21 @@
         <v>221.9224283305228</v>
       </c>
       <c r="G250" t="n">
-        <v>-1390957.967853302</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9247,24 +8505,21 @@
         <v>13692.55857166948</v>
       </c>
       <c r="G251" t="n">
-        <v>-1390957.967853302</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9286,24 +8541,21 @@
         <v>1400</v>
       </c>
       <c r="G252" t="n">
-        <v>-1389557.967853302</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9325,24 +8577,21 @@
         <v>208485.0168</v>
       </c>
       <c r="G253" t="n">
-        <v>-1389557.967853302</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9364,24 +8613,21 @@
         <v>721.8855</v>
       </c>
       <c r="G254" t="n">
-        <v>-1389557.967853302</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9403,24 +8649,21 @@
         <v>4868.5102</v>
       </c>
       <c r="G255" t="n">
-        <v>-1389557.967853302</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9442,24 +8685,21 @@
         <v>193.3249</v>
       </c>
       <c r="G256" t="n">
-        <v>-1389557.967853302</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9481,24 +8721,21 @@
         <v>60000</v>
       </c>
       <c r="G257" t="n">
-        <v>-1389557.967853302</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9520,24 +8757,21 @@
         <v>10</v>
       </c>
       <c r="G258" t="n">
-        <v>-1389547.967853302</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9559,24 +8793,21 @@
         <v>4925</v>
       </c>
       <c r="G259" t="n">
-        <v>-1384622.967853302</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9598,24 +8829,21 @@
         <v>41946.3087</v>
       </c>
       <c r="G260" t="n">
-        <v>-1384622.967853302</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9637,24 +8865,21 @@
         <v>53877.5071</v>
       </c>
       <c r="G261" t="n">
-        <v>-1330745.460753302</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9676,24 +8901,21 @@
         <v>366745.9468</v>
       </c>
       <c r="G262" t="n">
-        <v>-963999.5139533016</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9715,24 +8937,21 @@
         <v>83651</v>
       </c>
       <c r="G263" t="n">
-        <v>-963999.5139533016</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9754,24 +8973,21 @@
         <v>71494</v>
       </c>
       <c r="G264" t="n">
-        <v>-963999.5139533016</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9793,24 +9009,21 @@
         <v>156093</v>
       </c>
       <c r="G265" t="n">
-        <v>-807906.5139533016</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9832,24 +9045,21 @@
         <v>20000</v>
       </c>
       <c r="G266" t="n">
-        <v>-787906.5139533016</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9871,24 +9081,21 @@
         <v>141593.2148</v>
       </c>
       <c r="G267" t="n">
-        <v>-646313.2991533016</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9910,24 +9117,21 @@
         <v>48434.7698</v>
       </c>
       <c r="G268" t="n">
-        <v>-646313.2991533016</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9949,24 +9153,21 @@
         <v>858855.6019</v>
       </c>
       <c r="G269" t="n">
-        <v>-646313.2991533016</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9988,24 +9189,21 @@
         <v>115728.0578</v>
       </c>
       <c r="G270" t="n">
-        <v>-646313.2991533016</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10027,24 +9225,21 @@
         <v>66555</v>
       </c>
       <c r="G271" t="n">
-        <v>-646313.2991533016</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10066,24 +9261,21 @@
         <v>85583</v>
       </c>
       <c r="G272" t="n">
-        <v>-646313.2991533016</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10105,24 +9297,21 @@
         <v>54674</v>
       </c>
       <c r="G273" t="n">
-        <v>-700987.2991533016</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10144,24 +9333,21 @@
         <v>10</v>
       </c>
       <c r="G274" t="n">
-        <v>-700977.2991533016</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10183,24 +9369,21 @@
         <v>51345</v>
       </c>
       <c r="G275" t="n">
-        <v>-700977.2991533016</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10222,24 +9405,21 @@
         <v>91071.0281</v>
       </c>
       <c r="G276" t="n">
-        <v>-700977.2991533016</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10261,24 +9441,21 @@
         <v>31535</v>
       </c>
       <c r="G277" t="n">
-        <v>-700977.2991533016</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10300,24 +9477,21 @@
         <v>11111</v>
       </c>
       <c r="G278" t="n">
-        <v>-700977.2991533016</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10339,24 +9513,21 @@
         <v>26979</v>
       </c>
       <c r="G279" t="n">
-        <v>-700977.2991533016</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10378,24 +9549,21 @@
         <v>58572</v>
       </c>
       <c r="G280" t="n">
-        <v>-700977.2991533016</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10417,24 +9585,21 @@
         <v>34333</v>
       </c>
       <c r="G281" t="n">
-        <v>-700977.2991533016</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K281" t="n">
+        <v>1.030958904109589</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10456,24 +9621,15 @@
         <v>105645</v>
       </c>
       <c r="G282" t="n">
-        <v>-700977.2991533016</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10495,24 +9651,15 @@
         <v>71683</v>
       </c>
       <c r="G283" t="n">
-        <v>-700977.2991533016</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10534,24 +9681,15 @@
         <v>78505</v>
       </c>
       <c r="G284" t="n">
-        <v>-700977.2991533016</v>
-      </c>
-      <c r="H284" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1.030958904109589</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10573,18 +9711,15 @@
         <v>45045</v>
       </c>
       <c r="G285" t="n">
-        <v>-700977.2991533016</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10606,18 +9741,15 @@
         <v>131714.985</v>
       </c>
       <c r="G286" t="n">
-        <v>-700977.2991533016</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10639,18 +9771,15 @@
         <v>410</v>
       </c>
       <c r="G287" t="n">
-        <v>-700567.2991533016</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10672,18 +9801,15 @@
         <v>7000</v>
       </c>
       <c r="G288" t="n">
-        <v>-693567.2991533016</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10705,18 +9831,15 @@
         <v>12233.2786</v>
       </c>
       <c r="G289" t="n">
-        <v>-693567.2991533016</v>
-      </c>
-      <c r="H289" t="n">
         <v>2</v>
       </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10738,18 +9861,15 @@
         <v>1111</v>
       </c>
       <c r="G290" t="n">
-        <v>-694678.2991533016</v>
-      </c>
-      <c r="H290" t="n">
         <v>2</v>
       </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10771,18 +9891,15 @@
         <v>25334.755</v>
       </c>
       <c r="G291" t="n">
-        <v>-720013.0541533016</v>
-      </c>
-      <c r="H291" t="n">
         <v>2</v>
       </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10804,18 +9921,15 @@
         <v>59301.257</v>
       </c>
       <c r="G292" t="n">
-        <v>-660711.7971533017</v>
-      </c>
-      <c r="H292" t="n">
         <v>2</v>
       </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10837,18 +9951,15 @@
         <v>13270</v>
       </c>
       <c r="G293" t="n">
-        <v>-673981.7971533017</v>
-      </c>
-      <c r="H293" t="n">
         <v>2</v>
       </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
